--- a/topfootballVideos.xlsx
+++ b/topfootballVideos.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,12 +446,21 @@
         <v>subscriberCount</v>
       </c>
       <c r="O1" t="str">
+        <v>videoCount</v>
+      </c>
+      <c r="P1" t="str">
+        <v>channelAge</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>contentType</v>
+      </c>
+      <c r="R1" t="str">
         <v>url</v>
       </c>
-      <c r="P1" t="str">
+      <c r="S1" t="str">
         <v>thumbnailUrl</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="T1" t="str">
         <v>country</v>
       </c>
     </row>
@@ -519,13 +528,13 @@
 Copyright Treasure Studio, Inc.  All Rights Reserved.</v>
       </c>
       <c r="D2" t="str">
-        <v>27</v>
+        <v>Unknown</v>
       </c>
       <c r="E2" t="str">
-        <v>736952659</v>
+        <v>736961484</v>
       </c>
       <c r="F2" t="str">
-        <v>1338393</v>
+        <v>1338402</v>
       </c>
       <c r="H2" t="str">
         <v>0</v>
@@ -534,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="str">
-        <v>2021-07-29T07:02:08Z</v>
-      </c>
-      <c r="K2" t="str">
-        <v>PT3M7S</v>
+        <v>2021-07</v>
+      </c>
+      <c r="K2">
+        <v>187</v>
       </c>
       <c r="L2" t="str">
         <v>Cocomelon - Nursery Rhymes</v>
@@ -549,12 +558,21 @@
         <v>181000000</v>
       </c>
       <c r="O2" t="str">
+        <v>1258</v>
+      </c>
+      <c r="P2">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R2" t="str">
         <v>https://www.youtube.com/watch?v=9YzG5nVc6sg</v>
       </c>
-      <c r="P2" t="str">
+      <c r="S2" t="str">
         <v>https://i.ytimg.com/vi/9YzG5nVc6sg/hqdefault.jpg</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="T2" t="str">
         <v>US</v>
       </c>
     </row>
@@ -591,13 +609,13 @@
 Copyright © Treasure Studio, Inc. All rights reserved.</v>
       </c>
       <c r="D3" t="str">
-        <v>27</v>
+        <v>Unknown</v>
       </c>
       <c r="E3" t="str">
-        <v>514744491</v>
+        <v>514744806</v>
       </c>
       <c r="F3" t="str">
-        <v>1614093</v>
+        <v>1614094</v>
       </c>
       <c r="H3" t="str">
         <v>0</v>
@@ -606,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="str">
-        <v>2019-04-05T07:00:01Z</v>
-      </c>
-      <c r="K3" t="str">
-        <v>PT36M25S</v>
+        <v>2019-04</v>
+      </c>
+      <c r="K3">
+        <v>2185</v>
       </c>
       <c r="L3" t="str">
         <v>Cocomelon - Nursery Rhymes</v>
@@ -621,12 +639,21 @@
         <v>181000000</v>
       </c>
       <c r="O3" t="str">
+        <v>1258</v>
+      </c>
+      <c r="P3">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R3" t="str">
         <v>https://www.youtube.com/watch?v=NygXejdtDh8</v>
       </c>
-      <c r="P3" t="str">
+      <c r="S3" t="str">
         <v>https://i.ytimg.com/vi/NygXejdtDh8/hqdefault.jpg</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="T3" t="str">
         <v>US</v>
       </c>
     </row>
@@ -639,25 +666,25 @@
 Instagram : @seanfreestyle ✅</v>
       </c>
       <c r="D4" t="str">
-        <v>24</v>
+        <v>Unknown</v>
       </c>
       <c r="E4" t="str">
-        <v>403210822</v>
+        <v>403211935</v>
       </c>
       <c r="F4" t="str">
-        <v>13024609</v>
+        <v>13024712</v>
       </c>
       <c r="H4" t="str">
-        <v>94852</v>
+        <v>94853</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="str">
-        <v>2021-02-26T00:05:27Z</v>
-      </c>
-      <c r="K4" t="str">
-        <v>PT15S</v>
+        <v>2021-02</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
       </c>
       <c r="L4" t="str">
         <v>Séan Garnier World freestyle football champion</v>
@@ -669,12 +696,21 @@
         <v>5880000</v>
       </c>
       <c r="O4" t="str">
+        <v>719</v>
+      </c>
+      <c r="P4">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R4" t="str">
         <v>https://www.youtube.com/watch?v=IU7UKajX4TU</v>
       </c>
-      <c r="P4" t="str">
+      <c r="S4" t="str">
         <v>https://i.ytimg.com/vi/IU7UKajX4TU/hqdefault.jpg</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="T4" t="str">
         <v>US</v>
       </c>
     </row>
@@ -694,13 +730,13 @@
 https://click.alibaba.com/rd/eraivsed</v>
       </c>
       <c r="D5" t="str">
-        <v>24</v>
+        <v>Unknown</v>
       </c>
       <c r="E5" t="str">
-        <v>186980355</v>
+        <v>186981042</v>
       </c>
       <c r="F5" t="str">
-        <v>2112835</v>
+        <v>2112839</v>
       </c>
       <c r="H5" t="str">
         <v>33865</v>
@@ -709,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="str">
-        <v>2015-12-08T20:10:02Z</v>
-      </c>
-      <c r="K5" t="str">
-        <v>PT7M3S</v>
+        <v>2015-12</v>
+      </c>
+      <c r="K5">
+        <v>423</v>
       </c>
       <c r="L5" t="str">
         <v>mycoolvideos</v>
@@ -724,12 +760,21 @@
         <v>676000</v>
       </c>
       <c r="O5" t="str">
+        <v>23</v>
+      </c>
+      <c r="P5">
+        <v>9</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R5" t="str">
         <v>https://www.youtube.com/watch?v=KriBQVhsgZk</v>
       </c>
-      <c r="P5" t="str">
+      <c r="S5" t="str">
         <v>https://i.ytimg.com/vi/KriBQVhsgZk/hqdefault.jpg</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="T5" t="str">
         <v>US</v>
       </c>
     </row>
@@ -746,13 +791,13 @@
 Thanks for watching, make sure to subscribe!</v>
       </c>
       <c r="D6" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E6" t="str">
-        <v>155983037</v>
+        <v>155983341</v>
       </c>
       <c r="F6" t="str">
-        <v>1024600</v>
+        <v>1024603</v>
       </c>
       <c r="H6" t="str">
         <v>7982</v>
@@ -761,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="str">
-        <v>2020-12-12T16:13:17Z</v>
-      </c>
-      <c r="K6" t="str">
-        <v>PT8M4S</v>
+        <v>2020-12</v>
+      </c>
+      <c r="K6">
+        <v>484</v>
       </c>
       <c r="L6" t="str">
         <v>SKILLER</v>
@@ -776,12 +821,21 @@
         <v>1480000</v>
       </c>
       <c r="O6" t="str">
+        <v>183</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R6" t="str">
         <v>https://www.youtube.com/watch?v=vwtUVwXWy8Y</v>
       </c>
-      <c r="P6" t="str">
+      <c r="S6" t="str">
         <v>https://i.ytimg.com/vi/vwtUVwXWy8Y/hqdefault.jpg</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="T6" t="str">
         <v>US</v>
       </c>
     </row>
@@ -793,13 +847,13 @@
         <v/>
       </c>
       <c r="D7" t="str">
-        <v>22</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="E7" t="str">
-        <v>116720744</v>
+        <v>116720970</v>
       </c>
       <c r="F7" t="str">
-        <v>4197047</v>
+        <v>4197067</v>
       </c>
       <c r="H7" t="str">
         <v>7628</v>
@@ -808,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-03-25T00:43:52Z</v>
-      </c>
-      <c r="K7" t="str">
-        <v>PT33S</v>
+        <v>2023-03</v>
+      </c>
+      <c r="K7">
+        <v>33</v>
       </c>
       <c r="L7" t="str">
         <v>Foot Mood</v>
@@ -823,12 +877,21 @@
         <v>10000000</v>
       </c>
       <c r="O7" t="str">
+        <v>1186</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R7" t="str">
         <v>https://www.youtube.com/watch?v=e7WCx0HA7uQ</v>
       </c>
-      <c r="P7" t="str">
+      <c r="S7" t="str">
         <v>https://i.ytimg.com/vi/e7WCx0HA7uQ/hqdefault.jpg</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="T7" t="str">
         <v>US</v>
       </c>
     </row>
@@ -840,13 +903,13 @@
         <v/>
       </c>
       <c r="D8" t="str">
-        <v>22</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="E8" t="str">
-        <v>116015795</v>
+        <v>116015940</v>
       </c>
       <c r="F8" t="str">
-        <v>2693576</v>
+        <v>2693581</v>
       </c>
       <c r="H8" t="str">
         <v>4726</v>
@@ -855,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-05-14T12:27:10Z</v>
-      </c>
-      <c r="K8" t="str">
-        <v>PT32S</v>
+        <v>2023-05</v>
+      </c>
+      <c r="K8">
+        <v>32</v>
       </c>
       <c r="L8" t="str">
         <v>D'Football Genius</v>
@@ -870,12 +933,21 @@
         <v>1240000</v>
       </c>
       <c r="O8" t="str">
+        <v>921</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R8" t="str">
         <v>https://www.youtube.com/watch?v=B_t8vH7SqJ0</v>
       </c>
-      <c r="P8" t="str">
+      <c r="S8" t="str">
         <v>https://i.ytimg.com/vi/B_t8vH7SqJ0/hqdefault.jpg</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="T8" t="str">
         <v>US</v>
       </c>
     </row>
@@ -887,13 +959,13 @@
         <v/>
       </c>
       <c r="D9" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E9" t="str">
-        <v>94177298</v>
+        <v>94177323</v>
       </c>
       <c r="F9" t="str">
-        <v>2229822</v>
+        <v>2229823</v>
       </c>
       <c r="H9" t="str">
         <v>2670</v>
@@ -902,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-11T03:00:19Z</v>
-      </c>
-      <c r="K9" t="str">
-        <v>PT16S</v>
+        <v>2022-12</v>
+      </c>
+      <c r="K9">
+        <v>16</v>
       </c>
       <c r="L9" t="str">
         <v>Ben Nuttall</v>
@@ -917,12 +989,21 @@
         <v>3490000</v>
       </c>
       <c r="O9" t="str">
+        <v>779</v>
+      </c>
+      <c r="P9">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R9" t="str">
         <v>https://www.youtube.com/watch?v=Z-HHmYpVH3s</v>
       </c>
-      <c r="P9" t="str">
+      <c r="S9" t="str">
         <v>https://i.ytimg.com/vi/Z-HHmYpVH3s/hqdefault.jpg</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="T9" t="str">
         <v>US</v>
       </c>
     </row>
@@ -934,13 +1015,13 @@
         <v>When Ronaldo Loses Control 🤬 #shorts</v>
       </c>
       <c r="D10" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E10" t="str">
-        <v>75365904</v>
+        <v>75370199</v>
       </c>
       <c r="F10" t="str">
-        <v>2419758</v>
+        <v>2419963</v>
       </c>
       <c r="H10" t="str">
         <v>11160</v>
@@ -949,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="str">
-        <v>2024-04-09T17:01:26Z</v>
-      </c>
-      <c r="K10" t="str">
-        <v>PT41S</v>
+        <v>2024-04</v>
+      </c>
+      <c r="K10">
+        <v>41</v>
       </c>
       <c r="L10" t="str">
         <v>ISH Football</v>
@@ -964,12 +1045,21 @@
         <v>926000</v>
       </c>
       <c r="O10" t="str">
+        <v>247</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R10" t="str">
         <v>https://www.youtube.com/watch?v=895DRuWSvpM</v>
       </c>
-      <c r="P10" t="str">
+      <c r="S10" t="str">
         <v>https://i.ytimg.com/vi/895DRuWSvpM/hqdefault.jpg</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="T10" t="str">
         <v>US</v>
       </c>
     </row>
@@ -992,13 +1082,13 @@
 - Instagram: https://instagram.com/cleaningthedirtiest</v>
       </c>
       <c r="D11" t="str">
-        <v>26</v>
+        <v>Unknown</v>
       </c>
       <c r="E11" t="str">
-        <v>69785255</v>
+        <v>69785554</v>
       </c>
       <c r="F11" t="str">
-        <v>1629328</v>
+        <v>1629337</v>
       </c>
       <c r="H11" t="str">
         <v>15305</v>
@@ -1007,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-04-28T10:24:55Z</v>
-      </c>
-      <c r="K11" t="str">
-        <v>PT48S</v>
+        <v>2023-04</v>
+      </c>
+      <c r="K11">
+        <v>48</v>
       </c>
       <c r="L11" t="str">
         <v>Cleaning The Dirtiest</v>
@@ -1022,12 +1112,21 @@
         <v>1770000</v>
       </c>
       <c r="O11" t="str">
+        <v>292</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R11" t="str">
         <v>https://www.youtube.com/watch?v=s4q005TcM-E</v>
       </c>
-      <c r="P11" t="str">
+      <c r="S11" t="str">
         <v>https://i.ytimg.com/vi/s4q005TcM-E/hqdefault.jpg</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="T11" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1117,10 +1216,10 @@
 ➢ https://www.youtube.com/edit?o=U&amp;video_id=jvlgaQA5Cs0_x000d_...</v>
       </c>
       <c r="D12" t="str">
-        <v>1</v>
+        <v>Film &amp; Animation</v>
       </c>
       <c r="E12" t="str">
-        <v>66196051</v>
+        <v>66196333</v>
       </c>
       <c r="F12" t="str">
         <v>135356</v>
@@ -1132,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="str">
-        <v>2018-06-14T14:00:04Z</v>
-      </c>
-      <c r="K12" t="str">
-        <v>PT22M34S</v>
+        <v>2018-06</v>
+      </c>
+      <c r="K12">
+        <v>1354</v>
       </c>
       <c r="L12" t="str">
         <v>Kids Learning with Trucks &amp; Toys</v>
@@ -1147,12 +1246,21 @@
         <v>644000</v>
       </c>
       <c r="O12" t="str">
+        <v>80</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R12" t="str">
         <v>https://www.youtube.com/watch?v=zsmZ6JjEB3w</v>
       </c>
-      <c r="P12" t="str">
+      <c r="S12" t="str">
         <v>https://i.ytimg.com/vi/zsmZ6JjEB3w/hqdefault.jpg</v>
       </c>
-      <c r="Q12" t="str">
+      <c r="T12" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1169,13 +1277,13 @@
 👻 Add me on Snapchat! https://www.snapchat.com/add/oussi_10</v>
       </c>
       <c r="D13" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E13" t="str">
-        <v>66119354</v>
+        <v>66119844</v>
       </c>
       <c r="F13" t="str">
-        <v>3328833</v>
+        <v>3328873</v>
       </c>
       <c r="H13" t="str">
         <v>5292</v>
@@ -1184,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-05-20T13:00:06Z</v>
-      </c>
-      <c r="K13" t="str">
-        <v>PT51S</v>
+        <v>2022-05</v>
+      </c>
+      <c r="K13">
+        <v>51</v>
       </c>
       <c r="L13" t="str">
         <v>OussiFooty</v>
@@ -1199,12 +1307,21 @@
         <v>3000000</v>
       </c>
       <c r="O13" t="str">
+        <v>449</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R13" t="str">
         <v>https://www.youtube.com/watch?v=r_IbTY9sSWM</v>
       </c>
-      <c r="P13" t="str">
+      <c r="S13" t="str">
         <v>https://i.ytimg.com/vi/r_IbTY9sSWM/hqdefault.jpg</v>
       </c>
-      <c r="Q13" t="str">
+      <c r="T13" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1216,13 +1333,13 @@
         <v>Nike Football - Winner Stays featuring Cristiano Ronaldo, Neymar, Zlatan Ibrahimović, Wayne Rooney, Andrea Pirlo, Andrés Iniesta, Thiago Silva, Eden Hazard, Mario Götze, Gonzalo Higuaín, Gerard Piqué, David Luiz, Tim Howard &amp; Thibaut Courtois</v>
       </c>
       <c r="D14" t="str">
-        <v>22</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="E14" t="str">
-        <v>65931535</v>
+        <v>65931773</v>
       </c>
       <c r="F14" t="str">
-        <v>929275</v>
+        <v>929281</v>
       </c>
       <c r="H14" t="str">
         <v>13648</v>
@@ -1231,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="str">
-        <v>2014-04-25T14:20:37Z</v>
-      </c>
-      <c r="K14" t="str">
-        <v>PT4M13S</v>
+        <v>2014-04</v>
+      </c>
+      <c r="K14">
+        <v>253</v>
       </c>
       <c r="L14" t="str">
         <v>SportsOnScreen</v>
@@ -1246,12 +1363,21 @@
         <v>133000</v>
       </c>
       <c r="O14" t="str">
+        <v>438</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R14" t="str">
         <v>https://www.youtube.com/watch?v=eGUor824a74</v>
       </c>
-      <c r="P14" t="str">
+      <c r="S14" t="str">
         <v>https://i.ytimg.com/vi/eGUor824a74/hqdefault.jpg</v>
       </c>
-      <c r="Q14" t="str">
+      <c r="T14" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1263,25 +1389,25 @@
         <v/>
       </c>
       <c r="D15" t="str">
-        <v>22</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="E15" t="str">
-        <v>63333138</v>
+        <v>63333271</v>
       </c>
       <c r="F15" t="str">
-        <v>1701111</v>
+        <v>1701116</v>
       </c>
       <c r="H15" t="str">
-        <v>351560</v>
+        <v>351559</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-21T03:30:26Z</v>
-      </c>
-      <c r="K15" t="str">
-        <v>PT18S</v>
+        <v>2023-01</v>
+      </c>
+      <c r="K15">
+        <v>18</v>
       </c>
       <c r="L15" t="str">
         <v>Michael Storen</v>
@@ -1293,12 +1419,21 @@
         <v>3100000</v>
       </c>
       <c r="O15" t="str">
+        <v>2636</v>
+      </c>
+      <c r="P15">
+        <v>11</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R15" t="str">
         <v>https://www.youtube.com/watch?v=gwKk1sv79mY</v>
       </c>
-      <c r="P15" t="str">
+      <c r="S15" t="str">
         <v>https://i.ytimg.com/vi/gwKk1sv79mY/hqdefault.jpg</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="T15" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1317,10 +1452,10 @@
 #Comedy #Messi #FunnyMoments #Futebol</v>
       </c>
       <c r="D16" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E16" t="str">
-        <v>61610302</v>
+        <v>61610334</v>
       </c>
       <c r="F16" t="str">
         <v>371077</v>
@@ -1332,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="str">
-        <v>2021-08-19T16:30:45Z</v>
-      </c>
-      <c r="K16" t="str">
-        <v>PT11M27S</v>
+        <v>2021-08</v>
+      </c>
+      <c r="K16">
+        <v>687</v>
       </c>
       <c r="L16" t="str">
         <v>Wrsh98</v>
@@ -1347,12 +1482,21 @@
         <v>1360000</v>
       </c>
       <c r="O16" t="str">
+        <v>81</v>
+      </c>
+      <c r="P16">
+        <v>9</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R16" t="str">
         <v>https://www.youtube.com/watch?v=2sxEsG64CsY</v>
       </c>
-      <c r="P16" t="str">
+      <c r="S16" t="str">
         <v>https://i.ytimg.com/vi/2sxEsG64CsY/hqdefault.jpg</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="T16" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1364,13 +1508,13 @@
         <v>#shorts</v>
       </c>
       <c r="D17" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E17" t="str">
-        <v>61008704</v>
+        <v>61009031</v>
       </c>
       <c r="F17" t="str">
-        <v>2198500</v>
+        <v>2198512</v>
       </c>
       <c r="H17" t="str">
         <v>7165</v>
@@ -1379,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-02-08T22:00:00Z</v>
-      </c>
-      <c r="K17" t="str">
-        <v>PT18S</v>
+        <v>2023-02</v>
+      </c>
+      <c r="K17">
+        <v>18</v>
       </c>
       <c r="L17" t="str">
         <v>Best Football Shorts</v>
@@ -1394,12 +1538,21 @@
         <v>3960000</v>
       </c>
       <c r="O17" t="str">
+        <v>444</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R17" t="str">
         <v>https://www.youtube.com/watch?v=a7BOwi0ikV4</v>
       </c>
-      <c r="P17" t="str">
+      <c r="S17" t="str">
         <v>https://i.ytimg.com/vi/a7BOwi0ikV4/hqdefault.jpg</v>
       </c>
-      <c r="Q17" t="str">
+      <c r="T17" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1412,13 +1565,13 @@
 Follow me if you enjoy the Content ❤️</v>
       </c>
       <c r="D18" t="str">
-        <v>22</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="E18" t="str">
-        <v>60638577</v>
+        <v>60638894</v>
       </c>
       <c r="F18" t="str">
-        <v>2968451</v>
+        <v>2968471</v>
       </c>
       <c r="H18" t="str">
         <v>19185</v>
@@ -1427,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-20T19:00:10Z</v>
-      </c>
-      <c r="K18" t="str">
-        <v>PT56S</v>
+        <v>2023-01</v>
+      </c>
+      <c r="K18">
+        <v>56</v>
       </c>
       <c r="L18" t="str">
         <v>RonnyKL7</v>
@@ -1442,12 +1595,21 @@
         <v>1560000</v>
       </c>
       <c r="O18" t="str">
+        <v>762</v>
+      </c>
+      <c r="P18">
+        <v>10</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R18" t="str">
         <v>https://www.youtube.com/watch?v=SgO6sr3GNVU</v>
       </c>
-      <c r="P18" t="str">
+      <c r="S18" t="str">
         <v>https://i.ytimg.com/vi/SgO6sr3GNVU/hqdefault.jpg</v>
       </c>
-      <c r="Q18" t="str">
+      <c r="T18" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1459,25 +1621,25 @@
         <v/>
       </c>
       <c r="D19" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E19" t="str">
-        <v>59192123</v>
+        <v>59194411</v>
       </c>
       <c r="F19" t="str">
-        <v>2600168</v>
+        <v>2600356</v>
       </c>
       <c r="H19" t="str">
-        <v>10784</v>
+        <v>10786</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="str">
-        <v>2024-01-07T14:00:18Z</v>
-      </c>
-      <c r="K19" t="str">
-        <v>PT45S</v>
+        <v>2024-01</v>
+      </c>
+      <c r="K19">
+        <v>45</v>
       </c>
       <c r="L19" t="str">
         <v>Bsm Edits 20</v>
@@ -1489,12 +1651,21 @@
         <v>4100000</v>
       </c>
       <c r="O19" t="str">
+        <v>143</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R19" t="str">
         <v>https://www.youtube.com/watch?v=JivObFQDdeg</v>
       </c>
-      <c r="P19" t="str">
+      <c r="S19" t="str">
         <v>https://i.ytimg.com/vi/JivObFQDdeg/hqdefault.jpg</v>
       </c>
-      <c r="Q19" t="str">
+      <c r="T19" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1509,13 +1680,13 @@
 C'mon guys subscribe!😍</v>
       </c>
       <c r="D20" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E20" t="str">
-        <v>57715302</v>
+        <v>57715521</v>
       </c>
       <c r="F20" t="str">
-        <v>345712</v>
+        <v>345713</v>
       </c>
       <c r="H20" t="str">
         <v>4876</v>
@@ -1524,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="str">
-        <v>2021-04-16T10:00:35Z</v>
-      </c>
-      <c r="K20" t="str">
-        <v>PT8M43S</v>
+        <v>2021-04</v>
+      </c>
+      <c r="K20">
+        <v>523</v>
       </c>
       <c r="L20" t="str">
         <v>TKHD</v>
@@ -1539,12 +1710,21 @@
         <v>3460000</v>
       </c>
       <c r="O20" t="str">
+        <v>78</v>
+      </c>
+      <c r="P20">
+        <v>7</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R20" t="str">
         <v>https://www.youtube.com/watch?v=yxvaURdWJS8</v>
       </c>
-      <c r="P20" t="str">
+      <c r="S20" t="str">
         <v>https://i.ytimg.com/vi/yxvaURdWJS8/hqdefault.jpg</v>
       </c>
-      <c r="Q20" t="str">
+      <c r="T20" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1556,13 +1736,13 @@
         <v/>
       </c>
       <c r="D21" t="str">
-        <v>20</v>
+        <v>Gaming</v>
       </c>
       <c r="E21" t="str">
-        <v>56883576</v>
+        <v>56883722</v>
       </c>
       <c r="F21" t="str">
-        <v>3627160</v>
+        <v>3627170</v>
       </c>
       <c r="H21" t="str">
         <v>4555</v>
@@ -1571,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-03T11:59:59Z</v>
-      </c>
-      <c r="K21" t="str">
-        <v>PT58S</v>
+        <v>2023-01</v>
+      </c>
+      <c r="K21">
+        <v>58</v>
       </c>
       <c r="L21" t="str">
         <v>THE MAXICORE</v>
@@ -1586,12 +1766,21 @@
         <v>382000</v>
       </c>
       <c r="O21" t="str">
+        <v>68</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R21" t="str">
         <v>https://www.youtube.com/watch?v=e3t0k1LkmwI</v>
       </c>
-      <c r="P21" t="str">
+      <c r="S21" t="str">
         <v>https://i.ytimg.com/vi/e3t0k1LkmwI/hqdefault.jpg</v>
       </c>
-      <c r="Q21" t="str">
+      <c r="T21" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1603,10 +1792,10 @@
         <v/>
       </c>
       <c r="D22" t="str">
-        <v>22</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="E22" t="str">
-        <v>52927100</v>
+        <v>52927372</v>
       </c>
       <c r="H22" t="str">
         <v>3407</v>
@@ -1615,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-03-15T03:34:40Z</v>
-      </c>
-      <c r="K22" t="str">
-        <v>PT16S</v>
+        <v>2023-03</v>
+      </c>
+      <c r="K22">
+        <v>16</v>
       </c>
       <c r="L22" t="str">
         <v>KJ VIBE</v>
@@ -1630,12 +1819,21 @@
         <v>260000</v>
       </c>
       <c r="O22" t="str">
+        <v>161</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R22" t="str">
         <v>https://www.youtube.com/watch?v=qXfisdLNm_w</v>
       </c>
-      <c r="P22" t="str">
+      <c r="S22" t="str">
         <v>https://i.ytimg.com/vi/qXfisdLNm_w/hqdefault.jpg</v>
       </c>
-      <c r="Q22" t="str">
+      <c r="T22" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1647,13 +1845,13 @@
         <v/>
       </c>
       <c r="D23" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E23" t="str">
-        <v>49975187</v>
+        <v>49975354</v>
       </c>
       <c r="F23" t="str">
-        <v>552767</v>
+        <v>552769</v>
       </c>
       <c r="H23" t="str">
         <v>2098</v>
@@ -1662,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-06-08T13:45:20Z</v>
-      </c>
-      <c r="K23" t="str">
-        <v>PT12S</v>
+        <v>2023-06</v>
+      </c>
+      <c r="K23">
+        <v>12</v>
       </c>
       <c r="L23" t="str">
         <v>v7skills</v>
@@ -1677,12 +1875,21 @@
         <v>1530000</v>
       </c>
       <c r="O23" t="str">
+        <v>691</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R23" t="str">
         <v>https://www.youtube.com/watch?v=ZDogbJDJ7qo</v>
       </c>
-      <c r="P23" t="str">
+      <c r="S23" t="str">
         <v>https://i.ytimg.com/vi/ZDogbJDJ7qo/hqdefault.jpg</v>
       </c>
-      <c r="Q23" t="str">
+      <c r="T23" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1694,7 +1901,7 @@
         <v>Different Toy footbal Experiment Cola Cola, Fanta, Mirinda, Pepsi, Sprite football and Mentos</v>
       </c>
       <c r="D24" t="str">
-        <v>28</v>
+        <v>Unknown</v>
       </c>
       <c r="E24" t="str">
         <v>49218932</v>
@@ -1709,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="str">
-        <v>2021-07-17T06:30:04Z</v>
-      </c>
-      <c r="K24" t="str">
-        <v>PT2M50S</v>
+        <v>2021-07</v>
+      </c>
+      <c r="K24">
+        <v>170</v>
       </c>
       <c r="L24" t="str">
         <v>Experiment Ahong</v>
@@ -1724,12 +1931,21 @@
         <v>4590000</v>
       </c>
       <c r="O24" t="str">
+        <v>433</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R24" t="str">
         <v>https://www.youtube.com/watch?v=TXpaQHDQVJY</v>
       </c>
-      <c r="P24" t="str">
+      <c r="S24" t="str">
         <v>https://i.ytimg.com/vi/TXpaQHDQVJY/hqdefault.jpg</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="T24" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1748,10 +1964,10 @@
 Make your kids learn all colors with colored footballs/soccer balls in ChuChu TV Funzone Football stadium</v>
       </c>
       <c r="D25" t="str">
-        <v>27</v>
+        <v>Unknown</v>
       </c>
       <c r="E25" t="str">
-        <v>49141107</v>
+        <v>49141348</v>
       </c>
       <c r="F25" t="str">
         <v>83895</v>
@@ -1763,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="str">
-        <v>2017-08-11T08:49:07Z</v>
-      </c>
-      <c r="K25" t="str">
-        <v>PT3M37S</v>
+        <v>2017-08</v>
+      </c>
+      <c r="K25">
+        <v>217</v>
       </c>
       <c r="L25" t="str">
         <v>ChuChuTV Funzone - Learning Videos for Kids</v>
@@ -1778,12 +1994,21 @@
         <v>4710000</v>
       </c>
       <c r="O25" t="str">
+        <v>276</v>
+      </c>
+      <c r="P25">
+        <v>8</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R25" t="str">
         <v>https://www.youtube.com/watch?v=lIuts3XMn-Y</v>
       </c>
-      <c r="P25" t="str">
+      <c r="S25" t="str">
         <v>https://i.ytimg.com/vi/lIuts3XMn-Y/hqdefault.jpg</v>
       </c>
-      <c r="Q25" t="str">
+      <c r="T25" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1795,13 +2020,13 @@
         <v/>
       </c>
       <c r="D26" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E26" t="str">
-        <v>47853509</v>
+        <v>47855039</v>
       </c>
       <c r="F26" t="str">
-        <v>1484589</v>
+        <v>1484630</v>
       </c>
       <c r="H26" t="str">
         <v>5309</v>
@@ -1810,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-04-25T19:51:58Z</v>
-      </c>
-      <c r="K26" t="str">
-        <v>PT52S</v>
+        <v>2023-04</v>
+      </c>
+      <c r="K26">
+        <v>52</v>
       </c>
       <c r="L26" t="str">
         <v>Fearron</v>
@@ -1825,12 +2050,21 @@
         <v>4960000</v>
       </c>
       <c r="O26" t="str">
+        <v>656</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R26" t="str">
         <v>https://www.youtube.com/watch?v=hv5Ad2rp6_s</v>
       </c>
-      <c r="P26" t="str">
+      <c r="S26" t="str">
         <v>https://i.ytimg.com/vi/hv5Ad2rp6_s/hqdefault.jpg</v>
       </c>
-      <c r="Q26" t="str">
+      <c r="T26" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1842,13 +2076,13 @@
         <v/>
       </c>
       <c r="D27" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E27" t="str">
-        <v>44072977</v>
+        <v>44073728</v>
       </c>
       <c r="F27" t="str">
-        <v>1614574</v>
+        <v>1614645</v>
       </c>
       <c r="H27" t="str">
         <v>3859</v>
@@ -1857,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="str">
-        <v>2024-04-27T17:39:33Z</v>
-      </c>
-      <c r="K27" t="str">
-        <v>PT38S</v>
+        <v>2024-04</v>
+      </c>
+      <c r="K27">
+        <v>38</v>
       </c>
       <c r="L27" t="str">
         <v>Bsm Edits 20</v>
@@ -1872,12 +2106,21 @@
         <v>4100000</v>
       </c>
       <c r="O27" t="str">
+        <v>143</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R27" t="str">
         <v>https://www.youtube.com/watch?v=rZFb9YM-gn4</v>
       </c>
-      <c r="P27" t="str">
+      <c r="S27" t="str">
         <v>https://i.ytimg.com/vi/rZFb9YM-gn4/hqdefault.jpg</v>
       </c>
-      <c r="Q27" t="str">
+      <c r="T27" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1904,13 +2147,13 @@
 Copyright Disclaimer under Section 107 of the copyright act 1976, allowance is made for fair use for purposes such as criticism, comment, news reporting, scholarship, and research. Fair use is a use permitted by copyright statute that might otherwise be infringing. Non-profit, educational or personal use tips the balance in favour of fair use.</v>
       </c>
       <c r="D28" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E28" t="str">
-        <v>43627950</v>
+        <v>43628266</v>
       </c>
       <c r="F28" t="str">
-        <v>1086697</v>
+        <v>1086706</v>
       </c>
       <c r="H28" t="str">
         <v>1686</v>
@@ -1919,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-06-03T02:13:00Z</v>
-      </c>
-      <c r="K28" t="str">
-        <v>PT35S</v>
+        <v>2023-06</v>
+      </c>
+      <c r="K28">
+        <v>35</v>
       </c>
       <c r="L28" t="str">
         <v>Pro Skiller</v>
@@ -1934,12 +2177,21 @@
         <v>998000</v>
       </c>
       <c r="O28" t="str">
+        <v>383</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R28" t="str">
         <v>https://www.youtube.com/watch?v=rNl-928yJi4</v>
       </c>
-      <c r="P28" t="str">
+      <c r="S28" t="str">
         <v>https://i.ytimg.com/vi/rNl-928yJi4/hqdefault.jpg</v>
       </c>
-      <c r="Q28" t="str">
+      <c r="T28" t="str">
         <v>US</v>
       </c>
     </row>
@@ -1955,13 +2207,13 @@
 https://instagram.com/jrswagato?igshid=MzRlODBiNWFlZA==</v>
       </c>
       <c r="D29" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E29" t="str">
-        <v>42130367</v>
+        <v>42130619</v>
       </c>
       <c r="F29" t="str">
-        <v>1127579</v>
+        <v>1127589</v>
       </c>
       <c r="H29" t="str">
         <v>2530</v>
@@ -1970,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="str">
-        <v>2021-08-19T15:03:02Z</v>
-      </c>
-      <c r="K29" t="str">
-        <v>PT8S</v>
+        <v>2021-08</v>
+      </c>
+      <c r="K29">
+        <v>8</v>
       </c>
       <c r="L29" t="str">
         <v>Swagato Jr</v>
@@ -1985,12 +2237,21 @@
         <v>439000</v>
       </c>
       <c r="O29" t="str">
+        <v>308</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R29" t="str">
         <v>https://www.youtube.com/watch?v=nRrYkGqBOjE</v>
       </c>
-      <c r="P29" t="str">
+      <c r="S29" t="str">
         <v>https://i.ytimg.com/vi/nRrYkGqBOjE/hqdefault.jpg</v>
       </c>
-      <c r="Q29" t="str">
+      <c r="T29" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2002,25 +2263,25 @@
         <v/>
       </c>
       <c r="D30" t="str">
-        <v>22</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="E30" t="str">
-        <v>41753159</v>
+        <v>41753383</v>
       </c>
       <c r="F30" t="str">
-        <v>2394297</v>
+        <v>2394303</v>
       </c>
       <c r="H30" t="str">
-        <v>10937</v>
+        <v>10938</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-08-08T11:35:14Z</v>
-      </c>
-      <c r="K30" t="str">
-        <v>PT1M</v>
+        <v>2022-08</v>
+      </c>
+      <c r="K30">
+        <v>60</v>
       </c>
       <c r="L30" t="str">
         <v xml:space="preserve">RYZON GAMER </v>
@@ -2032,12 +2293,21 @@
         <v>226000</v>
       </c>
       <c r="O30" t="str">
+        <v>224</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R30" t="str">
         <v>https://www.youtube.com/watch?v=wEHL-UDlH4k</v>
       </c>
-      <c r="P30" t="str">
+      <c r="S30" t="str">
         <v>https://i.ytimg.com/vi/wEHL-UDlH4k/hqdefault.jpg</v>
       </c>
-      <c r="Q30" t="str">
+      <c r="T30" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2087,25 +2357,25 @@
 @shortssportsX</v>
       </c>
       <c r="D31" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E31" t="str">
-        <v>41168285</v>
+        <v>41177433</v>
       </c>
       <c r="F31" t="str">
-        <v>1298885</v>
+        <v>1299280</v>
       </c>
       <c r="H31" t="str">
-        <v>4097</v>
+        <v>4098</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="str">
-        <v>2024-07-12T08:14:22Z</v>
-      </c>
-      <c r="K31" t="str">
-        <v>PT30S</v>
+        <v>2024-07</v>
+      </c>
+      <c r="K31">
+        <v>30</v>
       </c>
       <c r="L31" t="str">
         <v>Shorts Sports X</v>
@@ -2117,12 +2387,21 @@
         <v>2590000</v>
       </c>
       <c r="O31" t="str">
+        <v>346</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R31" t="str">
         <v>https://www.youtube.com/watch?v=Ypb3pRS2QKk</v>
       </c>
-      <c r="P31" t="str">
+      <c r="S31" t="str">
         <v>https://i.ytimg.com/vi/Ypb3pRS2QKk/hqdefault.jpg</v>
       </c>
-      <c r="Q31" t="str">
+      <c r="T31" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2138,10 +2417,10 @@
 🎧 - soon</v>
       </c>
       <c r="D32" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E32" t="str">
-        <v>39937222</v>
+        <v>39937342</v>
       </c>
       <c r="F32" t="str">
         <v>137636</v>
@@ -2153,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-10-27T15:05:33Z</v>
-      </c>
-      <c r="K32" t="str">
-        <v>PT5M29S</v>
+        <v>2022-10</v>
+      </c>
+      <c r="K32">
+        <v>329</v>
       </c>
       <c r="L32" t="str">
         <v>Fazzer HD</v>
@@ -2168,12 +2447,21 @@
         <v>482000</v>
       </c>
       <c r="O32" t="str">
+        <v>299</v>
+      </c>
+      <c r="P32">
+        <v>8</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R32" t="str">
         <v>https://www.youtube.com/watch?v=cezaX5lSrsI</v>
       </c>
-      <c r="P32" t="str">
+      <c r="S32" t="str">
         <v>https://i.ytimg.com/vi/cezaX5lSrsI/hqdefault.jpg</v>
       </c>
-      <c r="Q32" t="str">
+      <c r="T32" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2189,13 +2477,13 @@
 Disclaimer - I believe all content used falls under the remits of Fair Use, but if any content owners would like to dispute this I will not hesitate to immediately remove said content. It is not my intent to in any way infringe on their content ownership. If you happen to find your art or images in the video please let me know and I will be glad to credit</v>
       </c>
       <c r="D33" t="str">
-        <v>27</v>
+        <v>Unknown</v>
       </c>
       <c r="E33" t="str">
-        <v>39393930</v>
+        <v>39394469</v>
       </c>
       <c r="F33" t="str">
-        <v>1557809</v>
+        <v>1557824</v>
       </c>
       <c r="H33" t="str">
         <v>9362</v>
@@ -2204,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-05-04T01:59:08Z</v>
-      </c>
-      <c r="K33" t="str">
-        <v>PT38S</v>
+        <v>2023-05</v>
+      </c>
+      <c r="K33">
+        <v>38</v>
       </c>
       <c r="L33" t="str">
         <v>Akash Parihar</v>
@@ -2219,12 +2507,21 @@
         <v>11200000</v>
       </c>
       <c r="O33" t="str">
+        <v>703</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R33" t="str">
         <v>https://www.youtube.com/watch?v=uEpZI9aUlok</v>
       </c>
-      <c r="P33" t="str">
+      <c r="S33" t="str">
         <v>https://i.ytimg.com/vi/uEpZI9aUlok/hqdefault.jpg</v>
       </c>
-      <c r="Q33" t="str">
+      <c r="T33" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2238,13 +2535,13 @@
 C'mon guys subscribe!😍</v>
       </c>
       <c r="D34" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E34" t="str">
-        <v>38554476</v>
+        <v>38554528</v>
       </c>
       <c r="F34" t="str">
-        <v>286999</v>
+        <v>287000</v>
       </c>
       <c r="H34" t="str">
         <v>3405</v>
@@ -2253,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="str">
-        <v>2020-05-04T10:00:29Z</v>
-      </c>
-      <c r="K34" t="str">
-        <v>PT8M19S</v>
+        <v>2020-05</v>
+      </c>
+      <c r="K34">
+        <v>499</v>
       </c>
       <c r="L34" t="str">
         <v>TKHD</v>
@@ -2268,12 +2565,21 @@
         <v>3460000</v>
       </c>
       <c r="O34" t="str">
+        <v>78</v>
+      </c>
+      <c r="P34">
+        <v>7</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R34" t="str">
         <v>https://www.youtube.com/watch?v=r_lN52VwrBo</v>
       </c>
-      <c r="P34" t="str">
+      <c r="S34" t="str">
         <v>https://i.ytimg.com/vi/r_lN52VwrBo/hqdefault.jpg</v>
       </c>
-      <c r="Q34" t="str">
+      <c r="T34" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2285,13 +2591,13 @@
         <v/>
       </c>
       <c r="D35" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E35" t="str">
-        <v>37823509</v>
+        <v>37824190</v>
       </c>
       <c r="F35" t="str">
-        <v>1303779</v>
+        <v>1303807</v>
       </c>
       <c r="H35" t="str">
         <v>3367</v>
@@ -2300,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-03-23T14:55:07Z</v>
-      </c>
-      <c r="K35" t="str">
-        <v>PT39S</v>
+        <v>2023-03</v>
+      </c>
+      <c r="K35">
+        <v>39</v>
       </c>
       <c r="L35" t="str">
         <v>Bsm Edits 20</v>
@@ -2315,12 +2621,21 @@
         <v>4100000</v>
       </c>
       <c r="O35" t="str">
+        <v>143</v>
+      </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R35" t="str">
         <v>https://www.youtube.com/watch?v=-SetlL19hg0</v>
       </c>
-      <c r="P35" t="str">
+      <c r="S35" t="str">
         <v>https://i.ytimg.com/vi/-SetlL19hg0/hqdefault.jpg</v>
       </c>
-      <c r="Q35" t="str">
+      <c r="T35" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2374,25 +2689,25 @@
 ©KIANO7HD</v>
       </c>
       <c r="D36" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E36" t="str">
-        <v>36944178</v>
+        <v>36945451</v>
       </c>
       <c r="F36" t="str">
-        <v>297744</v>
+        <v>297761</v>
       </c>
       <c r="H36" t="str">
-        <v>7105</v>
+        <v>7106</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-01-26T21:00:16Z</v>
-      </c>
-      <c r="K36" t="str">
-        <v>PT2M21S</v>
+        <v>2022-01</v>
+      </c>
+      <c r="K36">
+        <v>141</v>
       </c>
       <c r="L36" t="str">
         <v>KIANO7HD</v>
@@ -2404,12 +2719,21 @@
         <v>433000</v>
       </c>
       <c r="O36" t="str">
+        <v>104</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R36" t="str">
         <v>https://www.youtube.com/watch?v=34ul43R6UMw</v>
       </c>
-      <c r="P36" t="str">
+      <c r="S36" t="str">
         <v>https://i.ytimg.com/vi/34ul43R6UMw/hqdefault.jpg</v>
       </c>
-      <c r="Q36" t="str">
+      <c r="T36" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2421,13 +2745,13 @@
         <v/>
       </c>
       <c r="D37" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E37" t="str">
-        <v>35534651</v>
+        <v>35539734</v>
       </c>
       <c r="F37" t="str">
-        <v>1083827</v>
+        <v>1084017</v>
       </c>
       <c r="H37" t="str">
         <v>1436</v>
@@ -2436,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="str">
-        <v>2024-04-21T15:49:20Z</v>
-      </c>
-      <c r="K37" t="str">
-        <v>PT26S</v>
+        <v>2024-04</v>
+      </c>
+      <c r="K37">
+        <v>26</v>
       </c>
       <c r="L37" t="str">
         <v>Air Football</v>
@@ -2451,12 +2775,21 @@
         <v>2650000</v>
       </c>
       <c r="O37" t="str">
+        <v>321</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R37" t="str">
         <v>https://www.youtube.com/watch?v=1Z99GgFjgsg</v>
       </c>
-      <c r="P37" t="str">
+      <c r="S37" t="str">
         <v>https://i.ytimg.com/vi/1Z99GgFjgsg/hqdefault.jpg</v>
       </c>
-      <c r="Q37" t="str">
+      <c r="T37" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2475,13 +2808,13 @@
 football,soccer,goals,futebol,penalty,shorts,funny penalty kicks,penalties,penalty kicks,penalty shootout,penalty shootouts,legendary penalty saves,legendary penalty shootout,legendary penalty kicks,kicks,pen,pk,penalty kick misses,penalty kick moments,funny penalty moments,smart penalties,smart penalty kicks in football,smart penalty kicks,200 iq penalties,200 iq penalty kicks,incredible penalties,incredible penalty kicks,incredible penalty kicks in football</v>
       </c>
       <c r="D38" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E38" t="str">
-        <v>35192531</v>
+        <v>35194222</v>
       </c>
       <c r="F38" t="str">
-        <v>1010023</v>
+        <v>1010058</v>
       </c>
       <c r="H38" t="str">
         <v>1782</v>
@@ -2490,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-06-27T10:11:35Z</v>
-      </c>
-      <c r="K38" t="str">
-        <v>PT24S</v>
+        <v>2023-06</v>
+      </c>
+      <c r="K38">
+        <v>24</v>
       </c>
       <c r="L38" t="str">
         <v>Xendio</v>
@@ -2505,12 +2838,21 @@
         <v>2840000</v>
       </c>
       <c r="O38" t="str">
+        <v>487</v>
+      </c>
+      <c r="P38">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R38" t="str">
         <v>https://www.youtube.com/watch?v=9wi3qP2mCM4</v>
       </c>
-      <c r="P38" t="str">
+      <c r="S38" t="str">
         <v>https://i.ytimg.com/vi/9wi3qP2mCM4/hqdefault.jpg</v>
       </c>
-      <c r="Q38" t="str">
+      <c r="T38" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2525,13 +2867,13 @@
 #football #ronaldo #messi</v>
       </c>
       <c r="D39" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E39" t="str">
-        <v>34437288</v>
+        <v>34437454</v>
       </c>
       <c r="F39" t="str">
-        <v>160346</v>
+        <v>160348</v>
       </c>
       <c r="H39" t="str">
         <v>3665</v>
@@ -2540,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-03-03T13:01:12Z</v>
-      </c>
-      <c r="K39" t="str">
-        <v>PT7M59S</v>
+        <v>2023-03</v>
+      </c>
+      <c r="K39">
+        <v>479</v>
       </c>
       <c r="L39" t="str">
         <v>WOW FOOTBALL</v>
@@ -2555,12 +2897,21 @@
         <v>192000</v>
       </c>
       <c r="O39" t="str">
+        <v>24</v>
+      </c>
+      <c r="P39">
+        <v>6</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R39" t="str">
         <v>https://www.youtube.com/watch?v=S1aukXOpJ-E</v>
       </c>
-      <c r="P39" t="str">
+      <c r="S39" t="str">
         <v>https://i.ytimg.com/vi/S1aukXOpJ-E/hqdefault.jpg</v>
       </c>
-      <c r="Q39" t="str">
+      <c r="T39" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2572,13 +2923,13 @@
         <v>#Ads#Messi#Ronaldo</v>
       </c>
       <c r="D40" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E40" t="str">
-        <v>33674062</v>
+        <v>33674166</v>
       </c>
       <c r="F40" t="str">
-        <v>374828</v>
+        <v>374829</v>
       </c>
       <c r="H40" t="str">
         <v>3667</v>
@@ -2587,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="str">
-        <v>2019-04-25T01:58:44Z</v>
-      </c>
-      <c r="K40" t="str">
-        <v>PT10M27S</v>
+        <v>2019-04</v>
+      </c>
+      <c r="K40">
+        <v>627</v>
       </c>
       <c r="L40" t="str">
         <v>FootVic</v>
@@ -2602,12 +2953,21 @@
         <v>237000</v>
       </c>
       <c r="O40" t="str">
+        <v>11</v>
+      </c>
+      <c r="P40">
+        <v>6</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R40" t="str">
         <v>https://www.youtube.com/watch?v=z7xI58dFZjI</v>
       </c>
-      <c r="P40" t="str">
+      <c r="S40" t="str">
         <v>https://i.ytimg.com/vi/z7xI58dFZjI/hqdefault.jpg</v>
       </c>
-      <c r="Q40" t="str">
+      <c r="T40" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2619,13 +2979,13 @@
         <v/>
       </c>
       <c r="D41" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E41" t="str">
-        <v>33187450</v>
+        <v>33187533</v>
       </c>
       <c r="F41" t="str">
-        <v>1025657</v>
+        <v>1025666</v>
       </c>
       <c r="H41" t="str">
         <v>1232</v>
@@ -2634,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-06-23T19:43:51Z</v>
-      </c>
-      <c r="K41" t="str">
-        <v>PT39S</v>
+        <v>2023-06</v>
+      </c>
+      <c r="K41">
+        <v>39</v>
       </c>
       <c r="L41" t="str">
         <v>Fearron</v>
@@ -2649,12 +3009,21 @@
         <v>4960000</v>
       </c>
       <c r="O41" t="str">
+        <v>656</v>
+      </c>
+      <c r="P41">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R41" t="str">
         <v>https://www.youtube.com/watch?v=-KdHvhKYcmM</v>
       </c>
-      <c r="P41" t="str">
+      <c r="S41" t="str">
         <v>https://i.ytimg.com/vi/-KdHvhKYcmM/hqdefault.jpg</v>
       </c>
-      <c r="Q41" t="str">
+      <c r="T41" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2666,13 +3035,13 @@
         <v>🔰SUBSCRIBE CHANNEL #tff #travelforfootball 🔰</v>
       </c>
       <c r="D42" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E42" t="str">
-        <v>33031433</v>
+        <v>33031715</v>
       </c>
       <c r="F42" t="str">
-        <v>1689423</v>
+        <v>1689444</v>
       </c>
       <c r="H42" t="str">
         <v>2032</v>
@@ -2681,10 +3050,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-06-03T10:04:18Z</v>
-      </c>
-      <c r="K42" t="str">
-        <v>PT36S</v>
+        <v>2023-06</v>
+      </c>
+      <c r="K42">
+        <v>36</v>
       </c>
       <c r="L42" t="str">
         <v xml:space="preserve">TRAVEL FOR FOOTBALL </v>
@@ -2693,15 +3062,24 @@
         <v>UCAhepywg8OhuS9JIBfiBCXA</v>
       </c>
       <c r="N42" t="str">
-        <v>413000</v>
+        <v>414000</v>
       </c>
       <c r="O42" t="str">
+        <v>692</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R42" t="str">
         <v>https://www.youtube.com/watch?v=S4gv-GAZoUE</v>
       </c>
-      <c r="P42" t="str">
+      <c r="S42" t="str">
         <v>https://i.ytimg.com/vi/S4gv-GAZoUE/hqdefault.jpg</v>
       </c>
-      <c r="Q42" t="str">
+      <c r="T42" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2718,13 +3096,13 @@
 FIFA X PES Recreation</v>
       </c>
       <c r="D43" t="str">
-        <v>20</v>
+        <v>Gaming</v>
       </c>
       <c r="E43" t="str">
-        <v>31060510</v>
+        <v>31060542</v>
       </c>
       <c r="F43" t="str">
-        <v>191864</v>
+        <v>191865</v>
       </c>
       <c r="H43" t="str">
         <v>1501</v>
@@ -2733,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-01-29T12:30:21Z</v>
-      </c>
-      <c r="K43" t="str">
-        <v>PT10M8S</v>
+        <v>2022-01</v>
+      </c>
+      <c r="K43">
+        <v>608</v>
       </c>
       <c r="L43" t="str">
         <v>YMJ</v>
@@ -2748,12 +3126,21 @@
         <v>123000</v>
       </c>
       <c r="O43" t="str">
+        <v>42</v>
+      </c>
+      <c r="P43">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R43" t="str">
         <v>https://www.youtube.com/watch?v=ffPjfempvsg</v>
       </c>
-      <c r="P43" t="str">
+      <c r="S43" t="str">
         <v>https://i.ytimg.com/vi/ffPjfempvsg/hqdefault.jpg</v>
       </c>
-      <c r="Q43" t="str">
+      <c r="T43" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2771,25 +3158,25 @@
 All clips property of the NBA. No copyright infringement is intended. All videos are edited to follow the "Free Use" guideline of YouTube.</v>
       </c>
       <c r="D44" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E44" t="str">
-        <v>30786119</v>
+        <v>30786316</v>
       </c>
       <c r="F44" t="str">
-        <v>1566934</v>
+        <v>1566950</v>
       </c>
       <c r="H44" t="str">
-        <v>27648</v>
+        <v>27647</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-03-02T18:25:37Z</v>
-      </c>
-      <c r="K44" t="str">
-        <v>PT11S</v>
+        <v>2023-03</v>
+      </c>
+      <c r="K44">
+        <v>11</v>
       </c>
       <c r="L44" t="str">
         <v>GD's Highlights</v>
@@ -2801,12 +3188,21 @@
         <v>6980000</v>
       </c>
       <c r="O44" t="str">
+        <v>6681</v>
+      </c>
+      <c r="P44">
+        <v>9</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R44" t="str">
         <v>https://www.youtube.com/watch?v=G-hiAFviSM4</v>
       </c>
-      <c r="P44" t="str">
+      <c r="S44" t="str">
         <v>https://i.ytimg.com/vi/G-hiAFviSM4/hqdefault.jpg</v>
       </c>
-      <c r="Q44" t="str">
+      <c r="T44" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2827,13 +3223,13 @@
 funny moments,moments,funny moments in football,funny football moments,funny football,comedy moments,football,football moments,shorts,in football,comedy,zlatan comedy moments,futbol,ibrahimovic,zlatan,zlatan ibrahimovic,ibrahimovic funny moments,zlatan funny moments,ibra,ibra rare moments,rare neymar moments,rare ronaldo moments,rare mbappe moments,rare messi moments,messi rare moments,messi funny moments,messi comedy moments,rare leo messi moments, rare vini jr moments</v>
       </c>
       <c r="D45" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E45" t="str">
-        <v>30498212</v>
+        <v>30498522</v>
       </c>
       <c r="F45" t="str">
-        <v>1005990</v>
+        <v>1005996</v>
       </c>
       <c r="H45" t="str">
         <v>2095</v>
@@ -2842,10 +3238,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-06-27T17:25:18Z</v>
-      </c>
-      <c r="K45" t="str">
-        <v>PT22S</v>
+        <v>2023-06</v>
+      </c>
+      <c r="K45">
+        <v>22</v>
       </c>
       <c r="L45" t="str">
         <v>Xendio</v>
@@ -2857,12 +3253,21 @@
         <v>2840000</v>
       </c>
       <c r="O45" t="str">
+        <v>487</v>
+      </c>
+      <c r="P45">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R45" t="str">
         <v>https://www.youtube.com/watch?v=dM6ACyGtzwE</v>
       </c>
-      <c r="P45" t="str">
+      <c r="S45" t="str">
         <v>https://i.ytimg.com/vi/dM6ACyGtzwE/hqdefault.jpg</v>
       </c>
-      <c r="Q45" t="str">
+      <c r="T45" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2878,13 +3283,13 @@
 © Score 90</v>
       </c>
       <c r="D46" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E46" t="str">
-        <v>29714271</v>
+        <v>29714290</v>
       </c>
       <c r="F46" t="str">
-        <v>260619</v>
+        <v>260621</v>
       </c>
       <c r="H46" t="str">
         <v>1986</v>
@@ -2893,10 +3298,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-03-02T10:38:31Z</v>
-      </c>
-      <c r="K46" t="str">
-        <v>PT8M44S</v>
+        <v>2022-03</v>
+      </c>
+      <c r="K46">
+        <v>524</v>
       </c>
       <c r="L46" t="str">
         <v>Score 90</v>
@@ -2908,12 +3313,21 @@
         <v>2580000</v>
       </c>
       <c r="O46" t="str">
+        <v>106</v>
+      </c>
+      <c r="P46">
+        <v>8</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R46" t="str">
         <v>https://www.youtube.com/watch?v=ZEBVQ2Y0QiU</v>
       </c>
-      <c r="P46" t="str">
+      <c r="S46" t="str">
         <v>https://i.ytimg.com/vi/ZEBVQ2Y0QiU/hqdefault.jpg</v>
       </c>
-      <c r="Q46" t="str">
+      <c r="T46" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2928,10 +3342,10 @@
 🎶Tobu  Itro - Sunburst</v>
       </c>
       <c r="D47" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E47" t="str">
-        <v>29642230</v>
+        <v>29642232</v>
       </c>
       <c r="F47" t="str">
         <v>268638</v>
@@ -2943,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="str">
-        <v>2019-02-22T12:45:00Z</v>
-      </c>
-      <c r="K47" t="str">
-        <v>PT9M4S</v>
+        <v>2019-02</v>
+      </c>
+      <c r="K47">
+        <v>544</v>
       </c>
       <c r="L47" t="str">
         <v>TKHD</v>
@@ -2958,12 +3372,21 @@
         <v>3460000</v>
       </c>
       <c r="O47" t="str">
+        <v>78</v>
+      </c>
+      <c r="P47">
+        <v>7</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R47" t="str">
         <v>https://www.youtube.com/watch?v=e-rf4uhSKJY</v>
       </c>
-      <c r="P47" t="str">
+      <c r="S47" t="str">
         <v>https://i.ytimg.com/vi/e-rf4uhSKJY/hqdefault.jpg</v>
       </c>
-      <c r="Q47" t="str">
+      <c r="T47" t="str">
         <v>US</v>
       </c>
     </row>
@@ -2975,13 +3398,13 @@
         <v/>
       </c>
       <c r="D48" t="str">
-        <v>22</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="E48" t="str">
-        <v>29566330</v>
+        <v>29566336</v>
       </c>
       <c r="F48" t="str">
-        <v>1324475</v>
+        <v>1324477</v>
       </c>
       <c r="H48" t="str">
         <v>1586</v>
@@ -2990,10 +3413,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-05-08T05:06:12Z</v>
-      </c>
-      <c r="K48" t="str">
-        <v>PT52S</v>
+        <v>2023-05</v>
+      </c>
+      <c r="K48">
+        <v>52</v>
       </c>
       <c r="L48" t="str">
         <v>Foot Mood</v>
@@ -3005,12 +3428,21 @@
         <v>10000000</v>
       </c>
       <c r="O48" t="str">
+        <v>1186</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R48" t="str">
         <v>https://www.youtube.com/watch?v=YyT0OZNzT7A</v>
       </c>
-      <c r="P48" t="str">
+      <c r="S48" t="str">
         <v>https://i.ytimg.com/vi/YyT0OZNzT7A/hqdefault.jpg</v>
       </c>
-      <c r="Q48" t="str">
+      <c r="T48" t="str">
         <v>US</v>
       </c>
     </row>
@@ -3025,10 +3457,10 @@
 광고 문의 E-mail: ljjfoot@naver.com</v>
       </c>
       <c r="D49" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E49" t="str">
-        <v>29551702</v>
+        <v>29551802</v>
       </c>
       <c r="F49" t="str">
         <v>354871</v>
@@ -3040,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="str">
-        <v>2021-07-23T12:00:15Z</v>
-      </c>
-      <c r="K49" t="str">
-        <v>PT11M32S</v>
+        <v>2021-07</v>
+      </c>
+      <c r="K49">
+        <v>692</v>
       </c>
       <c r="L49" t="str">
         <v>제이풋볼JFootballTV</v>
@@ -3055,12 +3487,21 @@
         <v>1860000</v>
       </c>
       <c r="O49" t="str">
+        <v>586</v>
+      </c>
+      <c r="P49">
+        <v>11</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R49" t="str">
         <v>https://www.youtube.com/watch?v=TdfG7ZN03ao</v>
       </c>
-      <c r="P49" t="str">
+      <c r="S49" t="str">
         <v>https://i.ytimg.com/vi/TdfG7ZN03ao/hqdefault.jpg</v>
       </c>
-      <c r="Q49" t="str">
+      <c r="T49" t="str">
         <v>US</v>
       </c>
     </row>
@@ -3072,13 +3513,13 @@
         <v>subscribe, please</v>
       </c>
       <c r="D50" t="str">
-        <v>22</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="E50" t="str">
-        <v>29513099</v>
+        <v>29514196</v>
       </c>
       <c r="F50" t="str">
-        <v>711106</v>
+        <v>711138</v>
       </c>
       <c r="H50" t="str">
         <v>3511</v>
@@ -3087,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-21T14:52:33Z</v>
-      </c>
-      <c r="K50" t="str">
-        <v>PT16S</v>
+        <v>2022-12</v>
+      </c>
+      <c r="K50">
+        <v>16</v>
       </c>
       <c r="L50" t="str">
         <v>TB Sports</v>
@@ -3102,12 +3543,21 @@
         <v>40300</v>
       </c>
       <c r="O50" t="str">
+        <v>250</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R50" t="str">
         <v>https://www.youtube.com/watch?v=FTIj4viScgc</v>
       </c>
-      <c r="P50" t="str">
+      <c r="S50" t="str">
         <v>https://i.ytimg.com/vi/FTIj4viScgc/hqdefault.jpg</v>
       </c>
-      <c r="Q50" t="str">
+      <c r="T50" t="str">
         <v>US</v>
       </c>
     </row>
@@ -3124,25 +3574,25 @@
 Copyright Disclaimer: Under Section 107 of the Copyright Act 1976, allowance is made for "fair use" for purposes such as criticism, comment, news reporting, teaching, scholarship and research. Fair use is a use permitted by copyright statute that might otherwise be infringing. Non-profit, educational or personal use tips the balance in favor of fair use.</v>
       </c>
       <c r="D51" t="str">
-        <v>24</v>
+        <v>Unknown</v>
       </c>
       <c r="E51" t="str">
-        <v>29171161</v>
+        <v>29171393</v>
       </c>
       <c r="F51" t="str">
-        <v>1791550</v>
+        <v>1791567</v>
       </c>
       <c r="H51" t="str">
-        <v>78064</v>
+        <v>78067</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="str">
-        <v>2023-04-21T01:00:19Z</v>
-      </c>
-      <c r="K51" t="str">
-        <v>PT35S</v>
+        <v>2023-04</v>
+      </c>
+      <c r="K51">
+        <v>35</v>
       </c>
       <c r="L51" t="str">
         <v>Shorts With abhi</v>
@@ -3154,693 +3604,253 @@
         <v>5160000</v>
       </c>
       <c r="O51" t="str">
+        <v>697</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R51" t="str">
         <v>https://www.youtube.com/watch?v=LAoLjPHPlbQ</v>
       </c>
-      <c r="P51" t="str">
+      <c r="S51" t="str">
         <v>https://i.ytimg.com/vi/LAoLjPHPlbQ/hqdefault.jpg</v>
       </c>
-      <c r="Q51" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="52" xml:space="preserve">
+      <c r="T51" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" t="str">
-        <v>10 years of training Nutmegs😅⚽️ #streetpanna #shorts</v>
-      </c>
-      <c r="B52" t="str" xml:space="preserve">
-        <v xml:space="preserve">10 years of Panna! Here’s to 10 more 🤞 
-I started playing Panna when I was 14- Crazy how much street football has changed my life! Blessed to be on this journey and excited to see what comes next- y’all the MVPs❤️</v>
+        <v>HAALAND (DISS TRACK)</v>
+      </c>
+      <c r="B52" t="str">
+        <v/>
       </c>
       <c r="D52" t="str">
-        <v>17</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="E52" t="str">
-        <v>28455483</v>
+        <v>25750175</v>
       </c>
       <c r="F52" t="str">
-        <v>1511075</v>
+        <v>632377</v>
       </c>
       <c r="H52" t="str">
-        <v>2810</v>
+        <v>12010</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="str">
-        <v>2022-12-14T16:30:02Z</v>
-      </c>
-      <c r="K52" t="str">
-        <v>PT24S</v>
+        <v>2023-05</v>
+      </c>
+      <c r="K52">
+        <v>40</v>
       </c>
       <c r="L52" t="str">
-        <v>Street Panna</v>
+        <v>Z dotss</v>
       </c>
       <c r="M52" t="str">
-        <v>UCZAwf7HgsIQXyx6tNgK2dgQ</v>
+        <v>UCbccqTwEh-JBjrxAoPAECKQ</v>
       </c>
       <c r="N52" t="str">
-        <v>1210000</v>
+        <v>1820000</v>
       </c>
       <c r="O52" t="str">
-        <v>https://www.youtube.com/watch?v=5KyPFvD2_3w</v>
-      </c>
-      <c r="P52" t="str">
-        <v>https://i.ytimg.com/vi/5KyPFvD2_3w/hqdefault.jpg</v>
+        <v>136</v>
+      </c>
+      <c r="P52">
+        <v>10</v>
       </c>
       <c r="Q52" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R52" t="str">
+        <v>https://www.youtube.com/watch?v=rUsqe8AUMrc</v>
+      </c>
+      <c r="S52" t="str">
+        <v>https://i.ytimg.com/vi/rUsqe8AUMrc/hqdefault.jpg</v>
+      </c>
+      <c r="T52" t="str">
         <v>US</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Ronaldo Funny Moments 😂🤣</v>
+        <v>WHO'S YOUR FAV FOOTBALL PLAYER?!</v>
       </c>
       <c r="B53" t="str">
-        <v>#shorts Ronaldo Funniest Moments #football #ronaldo</v>
+        <v>Ronaldo, Messi, Mbappé,... ?? Who do you choose?! ⚽️⚽️⚽️</v>
       </c>
       <c r="D53" t="str">
-        <v>24</v>
+        <v>Sports</v>
       </c>
       <c r="E53" t="str">
-        <v>27107946</v>
+        <v>25226155</v>
       </c>
       <c r="F53" t="str">
-        <v>662455</v>
+        <v>1078865</v>
       </c>
       <c r="H53" t="str">
-        <v>10679</v>
+        <v>9911</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="str">
-        <v>2023-05-30T14:03:08Z</v>
-      </c>
-      <c r="K53" t="str">
-        <v>PT23S</v>
+        <v>2023-05</v>
+      </c>
+      <c r="K53">
+        <v>37</v>
       </c>
       <c r="L53" t="str">
-        <v>RABONA</v>
+        <v>Celine Dept</v>
       </c>
       <c r="M53" t="str">
-        <v>UCXUibR0c3OqYAj7wpYHNV2Q</v>
+        <v>UC1a2ZCw7tugRZYRMnecNj3A</v>
       </c>
       <c r="N53" t="str">
-        <v>133000</v>
+        <v>36100000</v>
       </c>
       <c r="O53" t="str">
-        <v>https://www.youtube.com/watch?v=MXvF-_JISnw</v>
-      </c>
-      <c r="P53" t="str">
-        <v>https://i.ytimg.com/vi/MXvF-_JISnw/hqdefault.jpg</v>
+        <v>951</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
       </c>
       <c r="Q53" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R53" t="str">
+        <v>https://www.youtube.com/watch?v=mQGicHcvUSs</v>
+      </c>
+      <c r="S53" t="str">
+        <v>https://i.ytimg.com/vi/mQGicHcvUSs/hqdefault.jpg</v>
+      </c>
+      <c r="T53" t="str">
         <v>US</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>WORLD CUP RAP !</v>
+        <v>Pele #pele #footballplayer #footballlegend #legend #rip #brasil</v>
       </c>
       <c r="B54" t="str">
         <v/>
       </c>
       <c r="D54" t="str">
-        <v>22</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="E54" t="str">
-        <v>27075179</v>
+        <v>24183300</v>
       </c>
       <c r="F54" t="str">
-        <v>837982</v>
+        <v>571672</v>
       </c>
       <c r="H54" t="str">
-        <v>29291</v>
+        <v>6029</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="str">
-        <v>2022-12-08T20:26:37Z</v>
-      </c>
-      <c r="K54" t="str">
-        <v>PT54S</v>
+        <v>2023-02</v>
+      </c>
+      <c r="K54">
+        <v>20</v>
       </c>
       <c r="L54" t="str">
-        <v>Z dotss</v>
+        <v>Birge2021</v>
       </c>
       <c r="M54" t="str">
-        <v>UCbccqTwEh-JBjrxAoPAECKQ</v>
+        <v>UCq0f416FmBz7SGzUsvGXb0w</v>
       </c>
       <c r="N54" t="str">
-        <v>1820000</v>
+        <v>90200</v>
       </c>
       <c r="O54" t="str">
-        <v>https://www.youtube.com/watch?v=Ru7e672LaQc</v>
-      </c>
-      <c r="P54" t="str">
-        <v>https://i.ytimg.com/vi/Ru7e672LaQc/hqdefault.jpg</v>
+        <v>64</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
       </c>
       <c r="Q54" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="55" xml:space="preserve">
+        <v>Video</v>
+      </c>
+      <c r="R54" t="str">
+        <v>https://www.youtube.com/watch?v=4V5y-LgXsfA</v>
+      </c>
+      <c r="S54" t="str">
+        <v>https://i.ytimg.com/vi/4V5y-LgXsfA/hqdefault.jpg</v>
+      </c>
+      <c r="T54" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" t="str">
-        <v>Legendary Sprint Speeds In Football</v>
-      </c>
-      <c r="B55" t="str" xml:space="preserve">
-        <v xml:space="preserve">👍5,000 LIKES ON "Legendary Sprint Speeds In Football"? 
-🔔TURN ON NOTIFICATIONS TO NEVER MISS AN UPLOAD!🔔
-🎧 -  HOPEX - Bang Dem
-🎧 -  HOPEX - Movie
-#Football #Mbappe #Futebol</v>
+        <v>When players lose control 🥊😳</v>
+      </c>
+      <c r="B55" t="str">
+        <v/>
       </c>
       <c r="D55" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E55" t="str">
-        <v>26986521</v>
+        <v>23711580</v>
       </c>
       <c r="F55" t="str">
-        <v>303769</v>
+        <v>856959</v>
       </c>
       <c r="H55" t="str">
-        <v>6278</v>
+        <v>3680</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="str">
-        <v>2020-05-07T16:02:54Z</v>
-      </c>
-      <c r="K55" t="str">
-        <v>PT6M31S</v>
+        <v>2023-06</v>
+      </c>
+      <c r="K55">
+        <v>35</v>
       </c>
       <c r="L55" t="str">
-        <v>Wrsh98</v>
+        <v>Bsm Edits 20</v>
       </c>
       <c r="M55" t="str">
-        <v>UC5GbbbB3iPNlzFNZiXLTAuA</v>
+        <v>UC86mbDclXQeljk975_KZpXg</v>
       </c>
       <c r="N55" t="str">
-        <v>1360000</v>
+        <v>4100000</v>
       </c>
       <c r="O55" t="str">
-        <v>https://www.youtube.com/watch?v=zMxZovxcx-o</v>
-      </c>
-      <c r="P55" t="str">
-        <v>https://i.ytimg.com/vi/zMxZovxcx-o/hqdefault.jpg</v>
+        <v>143</v>
+      </c>
+      <c r="P55">
+        <v>5</v>
       </c>
       <c r="Q55" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>Video</v>
+      </c>
+      <c r="R55" t="str">
+        <v>https://www.youtube.com/watch?v=6pgCnZmAUoc</v>
+      </c>
+      <c r="S55" t="str">
+        <v>https://i.ytimg.com/vi/6pgCnZmAUoc/hqdefault.jpg</v>
+      </c>
+      <c r="T55" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
       <c r="A56" t="str">
-        <v>Sunil Chhetri edit</v>
-      </c>
-      <c r="B56" t="str">
-        <v/>
-      </c>
-      <c r="D56" t="str">
-        <v>22</v>
-      </c>
-      <c r="E56" t="str">
-        <v>26915647</v>
-      </c>
-      <c r="F56" t="str">
-        <v>1495514</v>
-      </c>
-      <c r="H56" t="str">
-        <v>15193</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56" t="str">
-        <v>2021-03-29T08:09:27Z</v>
-      </c>
-      <c r="K56" t="str">
-        <v>PT18S</v>
-      </c>
-      <c r="L56" t="str">
-        <v>lofi</v>
-      </c>
-      <c r="M56" t="str">
-        <v>UCSsNewbdK9Z0YXmPavJUDmg</v>
-      </c>
-      <c r="N56" t="str">
-        <v>111000</v>
-      </c>
-      <c r="O56" t="str">
-        <v>https://www.youtube.com/watch?v=VDWXv6ilMfg</v>
-      </c>
-      <c r="P56" t="str">
-        <v>https://i.ytimg.com/vi/VDWXv6ilMfg/hqdefault.jpg</v>
-      </c>
-      <c r="Q56" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>1V1 VS BABY GRONK🏈 #shorts</v>
-      </c>
-      <c r="B57" t="str">
-        <v/>
-      </c>
-      <c r="D57" t="str">
-        <v>17</v>
-      </c>
-      <c r="E57" t="str">
-        <v>26132913</v>
-      </c>
-      <c r="F57" t="str">
-        <v>336398</v>
-      </c>
-      <c r="H57" t="str">
-        <v>5810</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57" t="str">
-        <v>2023-03-19T01:45:39Z</v>
-      </c>
-      <c r="K57" t="str">
-        <v>PT12S</v>
-      </c>
-      <c r="L57" t="str">
-        <v>Peighton Tubre</v>
-      </c>
-      <c r="M57" t="str">
-        <v>UCbA9oIvr6XJjzNSOKZG0IMw</v>
-      </c>
-      <c r="N57" t="str">
-        <v>181000</v>
-      </c>
-      <c r="O57" t="str">
-        <v>https://www.youtube.com/watch?v=X4A_4gIeIrI</v>
-      </c>
-      <c r="P57" t="str">
-        <v>https://i.ytimg.com/vi/X4A_4gIeIrI/hqdefault.jpg</v>
-      </c>
-      <c r="Q57" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>The coldest walk in the history 🥶</v>
-      </c>
-      <c r="B58" t="str">
-        <v/>
-      </c>
-      <c r="D58" t="str">
-        <v>22</v>
-      </c>
-      <c r="E58" t="str">
-        <v>26103906</v>
-      </c>
-      <c r="F58" t="str">
-        <v>1359691</v>
-      </c>
-      <c r="H58" t="str">
-        <v>19286</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58" t="str">
-        <v>2023-03-04T04:15:01Z</v>
-      </c>
-      <c r="K58" t="str">
-        <v>PT57S</v>
-      </c>
-      <c r="L58" t="str">
-        <v>best futball</v>
-      </c>
-      <c r="M58" t="str">
-        <v>UCLvHAXCOEBW7EmvkiXifQ5A</v>
-      </c>
-      <c r="N58" t="str">
-        <v>3760000</v>
-      </c>
-      <c r="O58" t="str">
-        <v>https://www.youtube.com/watch?v=eytF-PGM8JM</v>
-      </c>
-      <c r="P58" t="str">
-        <v>https://i.ytimg.com/vi/eytF-PGM8JM/hqdefault.jpg</v>
-      </c>
-      <c r="Q58" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>Legendary Fake Plays 😱🥶</v>
-      </c>
-      <c r="B59" t="str">
-        <v/>
-      </c>
-      <c r="D59" t="str">
-        <v>22</v>
-      </c>
-      <c r="E59" t="str">
-        <v>26044873</v>
-      </c>
-      <c r="F59" t="str">
-        <v>1118144</v>
-      </c>
-      <c r="H59" t="str">
-        <v>1799</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59" t="str">
-        <v>2023-05-13T18:47:42Z</v>
-      </c>
-      <c r="K59" t="str">
-        <v>PT36S</v>
-      </c>
-      <c r="L59" t="str">
-        <v>Foot Mood</v>
-      </c>
-      <c r="M59" t="str">
-        <v>UCuYUOEXwUKBtiE1pNoB40PA</v>
-      </c>
-      <c r="N59" t="str">
-        <v>10000000</v>
-      </c>
-      <c r="O59" t="str">
-        <v>https://www.youtube.com/watch?v=haFJ4Eb2tjU</v>
-      </c>
-      <c r="P59" t="str">
-        <v>https://i.ytimg.com/vi/haFJ4Eb2tjU/hqdefault.jpg</v>
-      </c>
-      <c r="Q59" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>HAALAND (DISS TRACK)</v>
-      </c>
-      <c r="B60" t="str">
-        <v/>
-      </c>
-      <c r="D60" t="str">
-        <v>22</v>
-      </c>
-      <c r="E60" t="str">
-        <v>25750113</v>
-      </c>
-      <c r="F60" t="str">
-        <v>632373</v>
-      </c>
-      <c r="H60" t="str">
-        <v>12010</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60" t="str">
-        <v>2023-05-24T19:51:45Z</v>
-      </c>
-      <c r="K60" t="str">
-        <v>PT40S</v>
-      </c>
-      <c r="L60" t="str">
-        <v>Z dotss</v>
-      </c>
-      <c r="M60" t="str">
-        <v>UCbccqTwEh-JBjrxAoPAECKQ</v>
-      </c>
-      <c r="N60" t="str">
-        <v>1820000</v>
-      </c>
-      <c r="O60" t="str">
-        <v>https://www.youtube.com/watch?v=rUsqe8AUMrc</v>
-      </c>
-      <c r="P60" t="str">
-        <v>https://i.ytimg.com/vi/rUsqe8AUMrc/hqdefault.jpg</v>
-      </c>
-      <c r="Q60" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="61" xml:space="preserve">
-      <c r="A61" t="str">
-        <v>Watch Sky News</v>
-      </c>
-      <c r="B61" t="str" xml:space="preserve">
-        <v xml:space="preserve">Watch Sky News live: The government is not ruling out sending offenders to Estonia as a means of alleviating severe overcrowding on the UK prison estate; the father of the Georgia school shooting suspect has been arrested and charged with two counts of second-degree murder and Oasis memorabilia including Noel Gallagher's golf buggy and Liam's tambourine to go up for auction
-🔴 Offenders could serve sentence in Estonian prisons to ease overcrowding https://trib.al/NY1fH8B
-🔴 Georgia school shooting: Father of suspect Colt Gray arrested 'after gifting son a rifle' https://trib.al/0J11JnV
-🔴 Oasis Memorabilia including Noel Gallagher's golf buggy to go up for auction https://trib.al/HRLlttM
-#SkyNews #offenders #Georgia #Estonia #prisons #overcrowding #ColtGray #rifle #Oasis #NoelGallagher #auction
-SUBSCRIBE to our YouTube channel for more videos: http://www.youtube.com/skynews 
-Follow us on Twitter: https://twitter.com/skynews 
-Like us on Facebook: https://www.facebook.com/skynews 
-Follow us on Instagram: https://www.instagram.com/skynews 
-Follow us on TikTok: https://www.tiktok.com/@skynews 
-For more content go to http://news.sky.com and download our apps: Apple https://itunes.apple.com/gb/app/sky-news/id316391924?mt=8 Android https://play.google.com/store/apps/details?id=com.bskyb.skynews.android&amp;hl=en_GB 
-Sky News Daily podcast is available for free here: https://podfollow.com/skynewsdaily/ 
-Sky News videos are now available in Spanish here/Los video de Sky News están disponibles en español aquí: https://www.youtube.com/channel/UCzG5BnqHO8oNlrPDW9CYJog 
-To enquire about licensing Sky News content, you can find more information here: https://news.sky.com/info/library-sales</v>
-      </c>
-      <c r="D61" t="str">
-        <v>25</v>
-      </c>
-      <c r="E61" t="str">
-        <v>25655211</v>
-      </c>
-      <c r="F61" t="str">
-        <v>26285</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61" t="str">
-        <v>2024-05-27T09:02:55Z</v>
-      </c>
-      <c r="K61" t="str">
-        <v>P0D</v>
-      </c>
-      <c r="L61" t="str">
-        <v>Sky News</v>
-      </c>
-      <c r="M61" t="str">
-        <v>UCoMdktPbSTixAyNGwb-UYkQ</v>
-      </c>
-      <c r="N61" t="str">
-        <v>7970000</v>
-      </c>
-      <c r="O61" t="str">
-        <v>https://www.youtube.com/watch?v=oJUvTVdTMyY</v>
-      </c>
-      <c r="P61" t="str">
-        <v>https://i.ytimg.com/vi/oJUvTVdTMyY/hqdefault_live.jpg</v>
-      </c>
-      <c r="Q61" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>WHO'S YOUR FAV FOOTBALL PLAYER?!</v>
-      </c>
-      <c r="B62" t="str">
-        <v>Ronaldo, Messi, Mbappé,... ?? Who do you choose?! ⚽️⚽️⚽️</v>
-      </c>
-      <c r="D62" t="str">
-        <v>17</v>
-      </c>
-      <c r="E62" t="str">
-        <v>25226103</v>
-      </c>
-      <c r="F62" t="str">
-        <v>1078859</v>
-      </c>
-      <c r="H62" t="str">
-        <v>9911</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62" t="str">
-        <v>2023-05-07T18:01:12Z</v>
-      </c>
-      <c r="K62" t="str">
-        <v>PT37S</v>
-      </c>
-      <c r="L62" t="str">
-        <v>Celine Dept</v>
-      </c>
-      <c r="M62" t="str">
-        <v>UC1a2ZCw7tugRZYRMnecNj3A</v>
-      </c>
-      <c r="N62" t="str">
-        <v>36100000</v>
-      </c>
-      <c r="O62" t="str">
-        <v>https://www.youtube.com/watch?v=mQGicHcvUSs</v>
-      </c>
-      <c r="P62" t="str">
-        <v>https://i.ytimg.com/vi/mQGicHcvUSs/hqdefault.jpg</v>
-      </c>
-      <c r="Q62" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>Curve 💫 or Knuckleball 💥 #shorts #footballskills #footballskills#neymar</v>
-      </c>
-      <c r="B63" t="str">
-        <v/>
-      </c>
-      <c r="D63" t="str">
-        <v>17</v>
-      </c>
-      <c r="E63" t="str">
-        <v>25164197</v>
-      </c>
-      <c r="F63" t="str">
-        <v>465219</v>
-      </c>
-      <c r="H63" t="str">
-        <v>4508</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63" t="str">
-        <v>2022-10-11T15:10:43Z</v>
-      </c>
-      <c r="K63" t="str">
-        <v>PT6S</v>
-      </c>
-      <c r="L63" t="str">
-        <v>Ferrywill</v>
-      </c>
-      <c r="M63" t="str">
-        <v>UC3WtW2h9p92scTNI2XUmGUQ</v>
-      </c>
-      <c r="N63" t="str">
-        <v>509000</v>
-      </c>
-      <c r="O63" t="str">
-        <v>https://www.youtube.com/watch?v=rg02C57OkA4</v>
-      </c>
-      <c r="P63" t="str">
-        <v>https://i.ytimg.com/vi/rg02C57OkA4/hqdefault.jpg</v>
-      </c>
-      <c r="Q63" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>When players lose control 🥊😳</v>
-      </c>
-      <c r="B64" t="str">
-        <v/>
-      </c>
-      <c r="D64" t="str">
-        <v>17</v>
-      </c>
-      <c r="E64" t="str">
-        <v>23711546</v>
-      </c>
-      <c r="F64" t="str">
-        <v>856954</v>
-      </c>
-      <c r="H64" t="str">
-        <v>3680</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="str">
-        <v>2023-06-02T16:40:37Z</v>
-      </c>
-      <c r="K64" t="str">
-        <v>PT35S</v>
-      </c>
-      <c r="L64" t="str">
-        <v>Bsm Edits 20</v>
-      </c>
-      <c r="M64" t="str">
-        <v>UC86mbDclXQeljk975_KZpXg</v>
-      </c>
-      <c r="N64" t="str">
-        <v>4100000</v>
-      </c>
-      <c r="O64" t="str">
-        <v>https://www.youtube.com/watch?v=6pgCnZmAUoc</v>
-      </c>
-      <c r="P64" t="str">
-        <v>https://i.ytimg.com/vi/6pgCnZmAUoc/hqdefault.jpg</v>
-      </c>
-      <c r="Q64" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>200 IQ Trivela Passes 🧠</v>
-      </c>
-      <c r="B65" t="str">
-        <v/>
-      </c>
-      <c r="D65" t="str">
-        <v>17</v>
-      </c>
-      <c r="E65" t="str">
-        <v>23629897</v>
-      </c>
-      <c r="F65" t="str">
-        <v>867162</v>
-      </c>
-      <c r="H65" t="str">
-        <v>2542</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65" t="str">
-        <v>2024-01-17T18:31:11Z</v>
-      </c>
-      <c r="K65" t="str">
-        <v>PT28S</v>
-      </c>
-      <c r="L65" t="str">
-        <v>Xendio</v>
-      </c>
-      <c r="M65" t="str">
-        <v>UC1VNPBS5hFTP-RYpdZwoamQ</v>
-      </c>
-      <c r="N65" t="str">
-        <v>2840000</v>
-      </c>
-      <c r="O65" t="str">
-        <v>https://www.youtube.com/watch?v=5-S7fR2CP64</v>
-      </c>
-      <c r="P65" t="str">
-        <v>https://i.ytimg.com/vi/5-S7fR2CP64/hqdefault.jpg</v>
-      </c>
-      <c r="Q65" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="66" xml:space="preserve">
-      <c r="A66" t="str">
         <v>Football Stars Get Destroyed 😳</v>
       </c>
-      <c r="B66" t="str" xml:space="preserve">
+      <c r="B56" t="str" xml:space="preserve">
         <v xml:space="preserve">Follow me on Instagram - https://www.instagram.com/iamlorenzof7/
 Amazing Skills &amp; Goals by the Best Players! :D
 A compilation of best moments of in 2022-2023 HD
@@ -3849,51 +3859,141 @@
 Computer used: Macbook Pro 15' Retina
 Software used: Final Cut Pro X, After Effects CC</v>
       </c>
-      <c r="D66" t="str">
-        <v>17</v>
-      </c>
-      <c r="E66" t="str">
-        <v>23587139</v>
-      </c>
-      <c r="F66" t="str">
-        <v>1007195</v>
-      </c>
-      <c r="H66" t="str">
+      <c r="D56" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E56" t="str">
+        <v>23587209</v>
+      </c>
+      <c r="F56" t="str">
+        <v>1007198</v>
+      </c>
+      <c r="H56" t="str">
         <v>2522</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66" t="str">
-        <v>2022-12-22T11:00:08Z</v>
-      </c>
-      <c r="K66" t="str">
-        <v>PT34S</v>
-      </c>
-      <c r="L66" t="str">
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12</v>
+      </c>
+      <c r="K56">
+        <v>34</v>
+      </c>
+      <c r="L56" t="str">
         <v>Lorenzo F7</v>
       </c>
-      <c r="M66" t="str">
+      <c r="M56" t="str">
         <v>UC7oiSNQLq7o-NpYP-SEY_NQ</v>
       </c>
-      <c r="N66" t="str">
+      <c r="N56" t="str">
         <v>2020000</v>
       </c>
-      <c r="O66" t="str">
+      <c r="O56" t="str">
+        <v>683</v>
+      </c>
+      <c r="P56">
+        <v>14</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R56" t="str">
         <v>https://www.youtube.com/watch?v=JLDnaMUBHoI</v>
       </c>
-      <c r="P66" t="str">
+      <c r="S56" t="str">
         <v>https://i.ytimg.com/vi/JLDnaMUBHoI/hqdefault.jpg</v>
       </c>
-      <c r="Q66" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="67" xml:space="preserve">
-      <c r="A67" t="str">
+      <c r="T56" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="A57" t="str">
+        <v>150 + Trucos de Fútbol (Tutoriales Paso a Paso) - Football Tricks Online</v>
+      </c>
+      <c r="B57" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aprende 150 + Trucos y Jugadas de Fútbol en Video tutoriales paso a paso! Freestyle Football Skills con panna groundmoves y técnicas de fútbol para caños y Nutmegs! Mejora tus regates y habilidades en la cancha de Fútbol Sala. forma parte de Football Tricks Online!
+►Consigue tu Balón especial para Football Freestyle y Fútbol calle: http://footballtricksonline.com/tienda
+► Página web: http://bit.ly/1eGWAXY
+Sigue a nuestro equipo :) 
+Redes Sociales Guido :
+► Facebook: http://on.fb.me/1gXa8i8
+► Instagram:http://bit.ly/1nxn7eX
+► Twitter: http://bit.ly/1gXac1h
+Redes Sociales EDU :
+►Twitter: http://www.twitter.com/edufto11
+►Instagram: http://www.instagram.com/edufto
+►Facebook: https://www.facebook.com/edu.sanchezalemany?ref=br_rs
+Redes Sociales Gabo Photography (Cámara) :
+►Twitter: http://www.Twitter.com/GaboPhotography
+►Instagram: http://www.Instagram.com/Gabo_Photography
+►Facebook: https://www.facebook.com/GaboPhotography1
+El Repre Gonza:
+►Twitter: http://www.twitter.com/ElRepreGonza
+►Instagram: http://www.instagram.com/ElRepreGonza
+►Facebook: https://www.facebook.com/pages/El-Repre-Gonza/952984151387777?fref=ts
+Football Tricks Online:
+► Subscribete: http://bit.ly/1qXacUt
+► Facebook: http://on.fb.me/1gXa8i8
+► Instagram:http://bit.ly/1nxn7eX
+► Twitter: http://bit.ly/1gXac1h
+► Ver más trucos: http://bit.ly/1qXaMSk</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E57" t="str">
+        <v>23213075</v>
+      </c>
+      <c r="F57" t="str">
+        <v>308845</v>
+      </c>
+      <c r="H57" t="str">
+        <v>8498</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2015-05</v>
+      </c>
+      <c r="K57">
+        <v>509</v>
+      </c>
+      <c r="L57" t="str">
+        <v>GuidoFTO</v>
+      </c>
+      <c r="M57" t="str">
+        <v>UCU0nCk_dDYf2PavgLbfgihQ</v>
+      </c>
+      <c r="N57" t="str">
+        <v>5060000</v>
+      </c>
+      <c r="O57" t="str">
+        <v>657</v>
+      </c>
+      <c r="P57">
+        <v>11</v>
+      </c>
+      <c r="Q57" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R57" t="str">
+        <v>https://www.youtube.com/watch?v=A7GDLEOsLgM</v>
+      </c>
+      <c r="S57" t="str">
+        <v>https://i.ytimg.com/vi/A7GDLEOsLgM/hqdefault.jpg</v>
+      </c>
+      <c r="T57" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="A58" t="str">
         <v>Football Players Religion in Parallel Universe #shorts #short</v>
       </c>
-      <c r="B67" t="str" xml:space="preserve">
+      <c r="B58" t="str" xml:space="preserve">
         <v xml:space="preserve">Football Players Religion in Parallel Universe
 Messi is Muslim
 Ronaldo is Buddhist
@@ -3902,477 +4002,623 @@
 Welcome to Parallel Universe
 #messi #salah #ronaldo #mbape</v>
       </c>
-      <c r="D67" t="str">
-        <v>22</v>
-      </c>
-      <c r="E67" t="str">
-        <v>22824358</v>
-      </c>
-      <c r="F67" t="str">
+      <c r="D58" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E58" t="str">
+        <v>22824390</v>
+      </c>
+      <c r="F58" t="str">
         <v>515286</v>
       </c>
-      <c r="H67" t="str">
+      <c r="H58" t="str">
         <v>14218</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67" t="str">
-        <v>2022-09-07T13:30:01Z</v>
-      </c>
-      <c r="K67" t="str">
-        <v>PT12S</v>
-      </c>
-      <c r="L67" t="str">
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-09</v>
+      </c>
+      <c r="K58">
+        <v>12</v>
+      </c>
+      <c r="L58" t="str">
         <v>Religion of Footballl Players</v>
       </c>
-      <c r="M67" t="str">
+      <c r="M58" t="str">
         <v>UCDRgoDfeeiKxMloZIbDLdaQ</v>
       </c>
-      <c r="N67" t="str">
+      <c r="N58" t="str">
         <v>419000</v>
       </c>
-      <c r="O67" t="str">
+      <c r="O58" t="str">
+        <v>199</v>
+      </c>
+      <c r="P58">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R58" t="str">
         <v>https://www.youtube.com/watch?v=9bCMDG5q7PI</v>
       </c>
-      <c r="P67" t="str">
+      <c r="S58" t="str">
         <v>https://i.ytimg.com/vi/9bCMDG5q7PI/hqdefault.jpg</v>
       </c>
-      <c r="Q67" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
+      <c r="T58" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
         <v>France Song Lyrics Translation (totally real) #shorts #trending #football</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B59" t="str">
         <v>#shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   @tseries</v>
       </c>
-      <c r="D68" t="str">
-        <v>27</v>
-      </c>
-      <c r="E68" t="str">
-        <v>22755171</v>
-      </c>
-      <c r="F68" t="str">
-        <v>744106</v>
-      </c>
-      <c r="H68" t="str">
+      <c r="D59" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="E59" t="str">
+        <v>22755397</v>
+      </c>
+      <c r="F59" t="str">
+        <v>744117</v>
+      </c>
+      <c r="H59" t="str">
         <v>8265</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" t="str">
-        <v>2023-02-04T10:10:20Z</v>
-      </c>
-      <c r="K68" t="str">
-        <v>PT49S</v>
-      </c>
-      <c r="L68" t="str">
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-02</v>
+      </c>
+      <c r="K59">
+        <v>49</v>
+      </c>
+      <c r="L59" t="str">
         <v>AXEditz</v>
       </c>
-      <c r="M68" t="str">
+      <c r="M59" t="str">
         <v>UCj2s81o4neDidHQWD45rUZQ</v>
       </c>
-      <c r="N68" t="str">
+      <c r="N59" t="str">
         <v>271000</v>
       </c>
-      <c r="O68" t="str">
+      <c r="O59" t="str">
+        <v>159</v>
+      </c>
+      <c r="P59">
+        <v>17</v>
+      </c>
+      <c r="Q59" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R59" t="str">
         <v>https://www.youtube.com/watch?v=MAQblIhtkm8</v>
       </c>
-      <c r="P68" t="str">
+      <c r="S59" t="str">
         <v>https://i.ytimg.com/vi/MAQblIhtkm8/hqdefault.jpg</v>
       </c>
-      <c r="Q68" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
+      <c r="T59" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Marcelo 200iq 😳🧠</v>
+      </c>
+      <c r="B60" t="str">
+        <v/>
+      </c>
+      <c r="D60" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E60" t="str">
+        <v>23286538</v>
+      </c>
+      <c r="F60" t="str">
+        <v>853160</v>
+      </c>
+      <c r="H60" t="str">
+        <v>1124</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-05</v>
+      </c>
+      <c r="K60">
+        <v>20</v>
+      </c>
+      <c r="L60" t="str">
+        <v>Foot Mood</v>
+      </c>
+      <c r="M60" t="str">
+        <v>UCuYUOEXwUKBtiE1pNoB40PA</v>
+      </c>
+      <c r="N60" t="str">
+        <v>10000000</v>
+      </c>
+      <c r="O60" t="str">
+        <v>1186</v>
+      </c>
+      <c r="P60">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R60" t="str">
+        <v>https://www.youtube.com/watch?v=1LGVRNuh2H8</v>
+      </c>
+      <c r="S60" t="str">
+        <v>https://i.ytimg.com/vi/1LGVRNuh2H8/hqdefault.jpg</v>
+      </c>
+      <c r="T60" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
         <v>THIS 7U QUARTERBACK IS INSANE!😳🎯</v>
       </c>
-      <c r="B69" t="str">
+      <c r="B61" t="str">
         <v/>
       </c>
-      <c r="D69" t="str">
-        <v>22</v>
-      </c>
-      <c r="E69" t="str">
-        <v>22528887</v>
-      </c>
-      <c r="F69" t="str">
-        <v>437900</v>
-      </c>
-      <c r="H69" t="str">
+      <c r="D61" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E61" t="str">
+        <v>22529389</v>
+      </c>
+      <c r="F61" t="str">
+        <v>437906</v>
+      </c>
+      <c r="H61" t="str">
         <v>3425</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="str">
-        <v>2023-06-12T17:51:40Z</v>
-      </c>
-      <c r="K69" t="str">
-        <v>PT1M</v>
-      </c>
-      <c r="L69" t="str">
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-06</v>
+      </c>
+      <c r="K61">
+        <v>60</v>
+      </c>
+      <c r="L61" t="str">
         <v>Aj Greene Youth</v>
       </c>
-      <c r="M69" t="str">
+      <c r="M61" t="str">
         <v>UCnCd2FoyvkiC6WCBmagKsWg</v>
       </c>
-      <c r="N69" t="str">
+      <c r="N61" t="str">
         <v>779000</v>
       </c>
-      <c r="O69" t="str">
+      <c r="O61" t="str">
+        <v>126</v>
+      </c>
+      <c r="P61">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R61" t="str">
         <v>https://www.youtube.com/watch?v=pJaUCudNM7U</v>
       </c>
-      <c r="P69" t="str">
+      <c r="S61" t="str">
         <v>https://i.ytimg.com/vi/pJaUCudNM7U/hqdefault.jpg</v>
       </c>
-      <c r="Q69" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="70" xml:space="preserve">
-      <c r="A70" t="str">
+      <c r="T61" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str">
         <v>This Wide Receiver is UNSTOPPABLE!!! 🤯 #shorts</v>
       </c>
-      <c r="B70" t="str" xml:space="preserve">
+      <c r="B62" t="str" xml:space="preserve">
         <v xml:space="preserve">#sports #nfl #collegefootball 
 4-Star WR Ja'Kobi Lane is the #1 High School Wide Receiver in Arizona. He plays for Red Mountain High School in Mesa Arizona. Ja'kobi Lane absolutely DOMINATED at OT7, which is OVERTIME'S 7on7 Tournament. Athlete. Sports. Sports News. High School Football. Friday Night Lights. Cornerback. Wide Receiver Football. Odell Beckham Jr.. Randy Moss. Travis Hunter Cornerback. Travis Hunter Jackson State Tigers Deion Sanders. HBCU Football. College Football. CFB. NFL. NFL Football. Barstool Sports. Bussin with the Boys. Maxpreps. House of Highlights. Football. Touchdown. Spencer Rattler. Fantasy Football.</v>
       </c>
-      <c r="D70" t="str">
-        <v>17</v>
-      </c>
-      <c r="E70" t="str">
-        <v>22398312</v>
-      </c>
-      <c r="F70" t="str">
-        <v>819307</v>
-      </c>
-      <c r="H70" t="str">
+      <c r="D62" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E62" t="str">
+        <v>22398349</v>
+      </c>
+      <c r="F62" t="str">
+        <v>819308</v>
+      </c>
+      <c r="H62" t="str">
         <v>13937</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" t="str">
-        <v>2022-06-20T22:35:21Z</v>
-      </c>
-      <c r="K70" t="str">
-        <v>PT52S</v>
-      </c>
-      <c r="L70" t="str">
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-06</v>
+      </c>
+      <c r="K62">
+        <v>52</v>
+      </c>
+      <c r="L62" t="str">
         <v>Quarterback Plug</v>
       </c>
-      <c r="M70" t="str">
+      <c r="M62" t="str">
         <v>UCy-U026m7Y5VjhhUmXwj-3A</v>
       </c>
-      <c r="N70" t="str">
+      <c r="N62" t="str">
         <v>772000</v>
       </c>
-      <c r="O70" t="str">
+      <c r="O62" t="str">
+        <v>355</v>
+      </c>
+      <c r="P62">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R62" t="str">
         <v>https://www.youtube.com/watch?v=0n_2tzjABrg</v>
       </c>
-      <c r="P70" t="str">
+      <c r="S62" t="str">
         <v>https://i.ytimg.com/vi/0n_2tzjABrg/hqdefault.jpg</v>
       </c>
-      <c r="Q70" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
+      <c r="T62" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
         <v>Dating a footballer be like… 🤣</v>
       </c>
-      <c r="B71" t="str">
+      <c r="B63" t="str">
         <v/>
       </c>
-      <c r="D71" t="str">
-        <v>17</v>
-      </c>
-      <c r="E71" t="str">
-        <v>22330314</v>
-      </c>
-      <c r="F71" t="str">
-        <v>589091</v>
-      </c>
-      <c r="H71" t="str">
+      <c r="D63" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E63" t="str">
+        <v>22330348</v>
+      </c>
+      <c r="F63" t="str">
+        <v>589095</v>
+      </c>
+      <c r="H63" t="str">
         <v>4671</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71" t="str">
-        <v>2023-05-02T13:00:25Z</v>
-      </c>
-      <c r="K71" t="str">
-        <v>PT21S</v>
-      </c>
-      <c r="L71" t="str">
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-05</v>
+      </c>
+      <c r="K63">
+        <v>21</v>
+      </c>
+      <c r="L63" t="str">
         <v>Tom Harris Football</v>
       </c>
-      <c r="M71" t="str">
+      <c r="M63" t="str">
         <v>UCIVGVpjywyPA3ZusfLAsvbA</v>
       </c>
-      <c r="N71" t="str">
+      <c r="N63" t="str">
         <v>1730000</v>
       </c>
-      <c r="O71" t="str">
+      <c r="O63" t="str">
+        <v>1633</v>
+      </c>
+      <c r="P63">
+        <v>10</v>
+      </c>
+      <c r="Q63" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R63" t="str">
         <v>https://www.youtube.com/watch?v=e4bWZTU-Z70</v>
       </c>
-      <c r="P71" t="str">
+      <c r="S63" t="str">
         <v>https://i.ytimg.com/vi/e4bWZTU-Z70/hqdefault.jpg</v>
       </c>
-      <c r="Q71" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="72" xml:space="preserve">
-      <c r="A72" t="str">
+      <c r="T63" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str">
         <v>Biggest Hits In Football History || HD</v>
       </c>
-      <c r="B72" t="str" xml:space="preserve">
+      <c r="B64" t="str" xml:space="preserve">
         <v xml:space="preserve">Hello all, for this video I spent days upon days gathering together the best hits of all time. Stay tuned for a part 2 coming at the end of 2023. I have been working on this for years, thank you for your patience!! 
 Thanks For Watching! Make Sure to Subscribe to the channel if you are new and comment suggestions for my next video! also if you could share this video that would be leet! i work super hard for my vids and you guys motivate me :)
 All Content is owned by the #NFL, i take their clips and make compilations with rare plays and popular plays.</v>
       </c>
-      <c r="D72" t="str">
-        <v>22</v>
-      </c>
-      <c r="E72" t="str">
-        <v>22144099</v>
-      </c>
-      <c r="F72" t="str">
+      <c r="D64" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E64" t="str">
+        <v>22144160</v>
+      </c>
+      <c r="F64" t="str">
         <v>119327</v>
       </c>
-      <c r="H72" t="str">
+      <c r="H64" t="str">
         <v>5485</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72" t="str">
-        <v>2018-12-15T17:21:47Z</v>
-      </c>
-      <c r="K72" t="str">
-        <v>PT14M5S</v>
-      </c>
-      <c r="L72" t="str">
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2018-12</v>
+      </c>
+      <c r="K64">
+        <v>845</v>
+      </c>
+      <c r="L64" t="str">
         <v>Ding Productions</v>
       </c>
-      <c r="M72" t="str">
+      <c r="M64" t="str">
         <v>UClEaLQq1OzzfkLF4-0WSdrQ</v>
       </c>
-      <c r="N72" t="str">
+      <c r="N64" t="str">
         <v>1570000</v>
       </c>
-      <c r="O72" t="str">
+      <c r="O64" t="str">
+        <v>1069</v>
+      </c>
+      <c r="P64">
+        <v>7</v>
+      </c>
+      <c r="Q64" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R64" t="str">
         <v>https://www.youtube.com/watch?v=Wn9NdHpTWrg</v>
       </c>
-      <c r="P72" t="str">
+      <c r="S64" t="str">
         <v>https://i.ytimg.com/vi/Wn9NdHpTWrg/hqdefault.jpg</v>
       </c>
-      <c r="Q72" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
+      <c r="T64" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
         <v>Incredible Bicycle Kicks 🤯</v>
       </c>
-      <c r="B73" t="str">
+      <c r="B65" t="str">
         <v/>
       </c>
-      <c r="D73" t="str">
-        <v>22</v>
-      </c>
-      <c r="E73" t="str">
-        <v>22010125</v>
-      </c>
-      <c r="F73" t="str">
-        <v>819982</v>
-      </c>
-      <c r="H73" t="str">
+      <c r="D65" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E65" t="str">
+        <v>22010149</v>
+      </c>
+      <c r="F65" t="str">
+        <v>819983</v>
+      </c>
+      <c r="H65" t="str">
         <v>2724</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73" t="str">
-        <v>2023-05-19T18:21:41Z</v>
-      </c>
-      <c r="K73" t="str">
-        <v>PT36S</v>
-      </c>
-      <c r="L73" t="str">
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-05</v>
+      </c>
+      <c r="K65">
+        <v>36</v>
+      </c>
+      <c r="L65" t="str">
         <v>Foot Mood</v>
       </c>
-      <c r="M73" t="str">
+      <c r="M65" t="str">
         <v>UCuYUOEXwUKBtiE1pNoB40PA</v>
       </c>
-      <c r="N73" t="str">
+      <c r="N65" t="str">
         <v>10000000</v>
       </c>
-      <c r="O73" t="str">
+      <c r="O65" t="str">
+        <v>1186</v>
+      </c>
+      <c r="P65">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R65" t="str">
         <v>https://www.youtube.com/watch?v=zNDv12Yr-_U</v>
       </c>
-      <c r="P73" t="str">
+      <c r="S65" t="str">
         <v>https://i.ytimg.com/vi/zNDv12Yr-_U/hqdefault.jpg</v>
       </c>
-      <c r="Q73" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="74" xml:space="preserve">
-      <c r="A74" t="str">
+      <c r="T65" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
         <v>Funny Goalkeeper Mistakes in Football</v>
       </c>
-      <c r="B74" t="str" xml:space="preserve">
+      <c r="B66" t="str" xml:space="preserve">
         <v xml:space="preserve">Funny worst goalkeeper mistakes in football! Karius, De Gea, ter Stegen, Alisson Becker, Hugo Lloris and more..
 🎶Ampyx - Pacific Paradise
 C'mon guys subscribe!😍
 TKHD~</v>
       </c>
-      <c r="D74" t="str">
-        <v>17</v>
-      </c>
-      <c r="E74" t="str">
+      <c r="D66" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E66" t="str">
         <v>21705013</v>
       </c>
-      <c r="F74" t="str">
+      <c r="F66" t="str">
         <v>146900</v>
       </c>
-      <c r="H74" t="str">
+      <c r="H66" t="str">
         <v>2535</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74" t="str">
-        <v>2019-11-16T10:00:25Z</v>
-      </c>
-      <c r="K74" t="str">
-        <v>PT5M32S</v>
-      </c>
-      <c r="L74" t="str">
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2019-11</v>
+      </c>
+      <c r="K66">
+        <v>332</v>
+      </c>
+      <c r="L66" t="str">
         <v>TKHD</v>
       </c>
-      <c r="M74" t="str">
+      <c r="M66" t="str">
         <v>UCSpvzqzfRAJGAWcuYjxWRbw</v>
       </c>
-      <c r="N74" t="str">
+      <c r="N66" t="str">
         <v>3460000</v>
       </c>
-      <c r="O74" t="str">
+      <c r="O66" t="str">
+        <v>78</v>
+      </c>
+      <c r="P66">
+        <v>7</v>
+      </c>
+      <c r="Q66" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R66" t="str">
         <v>https://www.youtube.com/watch?v=_gaGX2Si0Ns</v>
       </c>
-      <c r="P74" t="str">
+      <c r="S66" t="str">
         <v>https://i.ytimg.com/vi/_gaGX2Si0Ns/hqdefault.jpg</v>
       </c>
-      <c r="Q74" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
+      <c r="T66" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>THIS KID IS GOING STRAIGHT TO THE LEAGUE!😳🔥</v>
+      </c>
+      <c r="B67" t="str">
+        <v/>
+      </c>
+      <c r="D67" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E67" t="str">
+        <v>21543350</v>
+      </c>
+      <c r="H67" t="str">
+        <v>4632</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-09</v>
+      </c>
+      <c r="K67">
+        <v>60</v>
+      </c>
+      <c r="L67" t="str">
+        <v>Aj Greene</v>
+      </c>
+      <c r="M67" t="str">
+        <v>UCMidDirOM3aBSuZHacN_GoQ</v>
+      </c>
+      <c r="N67" t="str">
+        <v>1530000</v>
+      </c>
+      <c r="O67" t="str">
+        <v>253</v>
+      </c>
+      <c r="P67">
+        <v>6</v>
+      </c>
+      <c r="Q67" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R67" t="str">
+        <v>https://www.youtube.com/watch?v=gLAsUN7yyyA</v>
+      </c>
+      <c r="S67" t="str">
+        <v>https://i.ytimg.com/vi/gLAsUN7yyyA/hqdefault.jpg</v>
+      </c>
+      <c r="T67" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
         <v>FOOTBALL TRICKS ✨️ FOOTBALL SKILLS 🔥 = NEYMAR</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B68" t="str">
         <v/>
       </c>
-      <c r="D75" t="str">
-        <v>17</v>
-      </c>
-      <c r="E75" t="str">
-        <v>21550110</v>
-      </c>
-      <c r="F75" t="str">
-        <v>358029</v>
-      </c>
-      <c r="H75" t="str">
+      <c r="D68" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E68" t="str">
+        <v>21550347</v>
+      </c>
+      <c r="F68" t="str">
+        <v>358033</v>
+      </c>
+      <c r="H68" t="str">
         <v>3032</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75" t="str">
-        <v>2023-03-17T14:30:06Z</v>
-      </c>
-      <c r="K75" t="str">
-        <v>PT9S</v>
-      </c>
-      <c r="L75" t="str">
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-03</v>
+      </c>
+      <c r="K68">
+        <v>9</v>
+      </c>
+      <c r="L68" t="str">
         <v>v7skills</v>
       </c>
-      <c r="M75" t="str">
+      <c r="M68" t="str">
         <v>UCAhmzTwC-8xoxL8-czI9pgw</v>
       </c>
-      <c r="N75" t="str">
+      <c r="N68" t="str">
         <v>1530000</v>
       </c>
-      <c r="O75" t="str">
+      <c r="O68" t="str">
+        <v>691</v>
+      </c>
+      <c r="P68">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R68" t="str">
         <v>https://www.youtube.com/watch?v=PG5nTidCieU</v>
       </c>
-      <c r="P75" t="str">
+      <c r="S68" t="str">
         <v>https://i.ytimg.com/vi/PG5nTidCieU/hqdefault.jpg</v>
       </c>
-      <c r="Q75" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>THIS KID IS GOING STRAIGHT TO THE LEAGUE!😳🔥</v>
-      </c>
-      <c r="B76" t="str">
-        <v/>
-      </c>
-      <c r="D76" t="str">
-        <v>17</v>
-      </c>
-      <c r="E76" t="str">
-        <v>21543291</v>
-      </c>
-      <c r="H76" t="str">
-        <v>4632</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76" t="str">
-        <v>2022-09-25T23:00:19Z</v>
-      </c>
-      <c r="K76" t="str">
-        <v>PT1M</v>
-      </c>
-      <c r="L76" t="str">
-        <v>Aj Greene</v>
-      </c>
-      <c r="M76" t="str">
-        <v>UCMidDirOM3aBSuZHacN_GoQ</v>
-      </c>
-      <c r="N76" t="str">
-        <v>1530000</v>
-      </c>
-      <c r="O76" t="str">
-        <v>https://www.youtube.com/watch?v=gLAsUN7yyyA</v>
-      </c>
-      <c r="P76" t="str">
-        <v>https://i.ytimg.com/vi/gLAsUN7yyyA/hqdefault.jpg</v>
-      </c>
-      <c r="Q76" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="77" xml:space="preserve">
-      <c r="A77" t="str">
+      <c r="T68" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="A69" t="str">
         <v>Marshmello - Unity (Official Music Video)</v>
       </c>
-      <c r="B77" t="str" xml:space="preserve">
+      <c r="B69" t="str" xml:space="preserve">
         <v xml:space="preserve">Marshmello - Unity
 Stream/Download ▶ https://marshmello.ffm.to/unity
 Official Marshmello Merch ▶ https://marshmellomusic.com
@@ -4425,158 +4671,60 @@
 Graphic Designer: Steven Andersen
 #Marshmello #unity #joytime</v>
       </c>
-      <c r="D77" t="str">
-        <v>10</v>
-      </c>
-      <c r="E77" t="str">
-        <v>21494739</v>
-      </c>
-      <c r="F77" t="str">
-        <v>169899</v>
-      </c>
-      <c r="H77" t="str">
+      <c r="D69" t="str">
+        <v>Music</v>
+      </c>
+      <c r="E69" t="str">
+        <v>21495292</v>
+      </c>
+      <c r="F69" t="str">
+        <v>169905</v>
+      </c>
+      <c r="H69" t="str">
         <v>2810</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" t="str">
-        <v>2023-02-02T18:00:09Z</v>
-      </c>
-      <c r="K77" t="str">
-        <v>PT3M21S</v>
-      </c>
-      <c r="L77" t="str">
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-02</v>
+      </c>
+      <c r="K69">
+        <v>201</v>
+      </c>
+      <c r="L69" t="str">
         <v>Marshmello</v>
       </c>
-      <c r="M77" t="str">
+      <c r="M69" t="str">
         <v>UCEdvpU2pFRCVqU6yIPyTpMQ</v>
       </c>
-      <c r="N77" t="str">
+      <c r="N69" t="str">
         <v>57300000</v>
       </c>
-      <c r="O77" t="str">
+      <c r="O69" t="str">
+        <v>491</v>
+      </c>
+      <c r="P69">
+        <v>9</v>
+      </c>
+      <c r="Q69" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R69" t="str">
         <v>https://www.youtube.com/watch?v=Ktu843qdrWE</v>
       </c>
-      <c r="P77" t="str">
+      <c r="S69" t="str">
         <v>https://i.ytimg.com/vi/Ktu843qdrWE/hqdefault.jpg</v>
       </c>
-      <c r="Q77" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="78" xml:space="preserve">
-      <c r="A78" t="str">
-        <v>France National Football Team Hype Video | Ramenez la coupe à la maison</v>
-      </c>
-      <c r="B78" t="str" xml:space="preserve">
-        <v xml:space="preserve">Highlights from the French National Football Team
-Song: "Ramenez la coupe à la maison" - Vegedream
-Thanks for watching!
-Subscribe for more football highlights and videos
-And remember to turn on notifications so you don’t miss any new content!
-Check out more content on my other pages
-Instagram: https://www.instagram.com/shanny.fc/?hl=en
-TikTok: https://www.tiktok.com/@shannyfc?_t=8oDkvnsxvVW&amp;_r=1 
-#France #FFF #Kante #Mbappe #Pogba #worldcup #euros #football #soccer #francenationalteam #equipedefrance #ngolokante #paulpogba #kylianmbappe #futbol</v>
-      </c>
-      <c r="D78" t="str">
-        <v>22</v>
-      </c>
-      <c r="E78" t="str">
-        <v>21509678</v>
-      </c>
-      <c r="F78" t="str">
-        <v>244983</v>
-      </c>
-      <c r="H78" t="str">
-        <v>4664</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" t="str">
-        <v>2021-05-15T22:13:47Z</v>
-      </c>
-      <c r="K78" t="str">
-        <v>PT3M57S</v>
-      </c>
-      <c r="L78" t="str">
-        <v>shanny fc</v>
-      </c>
-      <c r="M78" t="str">
-        <v>UCcObpanAQl5FVVUhu02sA6w</v>
-      </c>
-      <c r="N78" t="str">
-        <v>96400</v>
-      </c>
-      <c r="O78" t="str">
-        <v>https://www.youtube.com/watch?v=ZOLhyQs3RrQ</v>
-      </c>
-      <c r="P78" t="str">
-        <v>https://i.ytimg.com/vi/ZOLhyQs3RrQ/hqdefault.jpg</v>
-      </c>
-      <c r="Q78" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="79" xml:space="preserve">
-      <c r="A79" t="str">
-        <v>Haaland's song #shorts</v>
-      </c>
-      <c r="B79" t="str" xml:space="preserve">
-        <v xml:space="preserve">Follow me on
-www.omar-momani.com
-Facebook https://www.facebook.com/Omar.Momani.Cartoons
-Instagram https://www.instagram.com/omarmomani
-Twitter https://twitter.com/omomani
-Redbubble https://www.redbubble.com/people/omarmomani/</v>
-      </c>
-      <c r="D79" t="str">
-        <v>17</v>
-      </c>
-      <c r="E79" t="str">
-        <v>21002696</v>
-      </c>
-      <c r="F79" t="str">
-        <v>871356</v>
-      </c>
-      <c r="H79" t="str">
-        <v>4451</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79" t="str">
-        <v>2022-09-15T14:42:48Z</v>
-      </c>
-      <c r="K79" t="str">
-        <v>PT30S</v>
-      </c>
-      <c r="L79" t="str">
-        <v>Omar Momani</v>
-      </c>
-      <c r="M79" t="str">
-        <v>UCggLA1MPnDmXpNKQ5nlNJPg</v>
-      </c>
-      <c r="N79" t="str">
-        <v>1280000</v>
-      </c>
-      <c r="O79" t="str">
-        <v>https://www.youtube.com/watch?v=li0oJraF02I</v>
-      </c>
-      <c r="P79" t="str">
-        <v>https://i.ytimg.com/vi/li0oJraF02I/hqdefault.jpg</v>
-      </c>
-      <c r="Q79" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="80" xml:space="preserve">
-      <c r="A80" t="str">
+      <c r="T69" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str">
         <v>I Used Every World Cup Football (1930 - 2022)</v>
       </c>
-      <c r="B80" t="str" xml:space="preserve">
+      <c r="B70" t="str" xml:space="preserve">
         <v xml:space="preserve">Thank u @DavidMC10 for showing me how football should be played LMAO
 Credit to @chrismd10 for the original idea when he did it with premier league footballs!
 Twitter https://twitter.com/futcrunch
@@ -4584,95 +4732,113 @@
 TikTok https://www.tiktok.com/@futcrunch
 Second Channel (pls sub) https://www.youtube.com/channel/UCrsuEI3mvU5pN2PEbwW9F9w</v>
       </c>
-      <c r="D80" t="str">
-        <v>17</v>
-      </c>
-      <c r="E80" t="str">
-        <v>20887058</v>
-      </c>
-      <c r="F80" t="str">
-        <v>124536</v>
-      </c>
-      <c r="H80" t="str">
+      <c r="D70" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E70" t="str">
+        <v>20888011</v>
+      </c>
+      <c r="F70" t="str">
+        <v>124541</v>
+      </c>
+      <c r="H70" t="str">
         <v>1466</v>
       </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80" t="str">
-        <v>2022-11-29T17:00:11Z</v>
-      </c>
-      <c r="K80" t="str">
-        <v>PT10M50S</v>
-      </c>
-      <c r="L80" t="str">
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-11</v>
+      </c>
+      <c r="K70">
+        <v>650</v>
+      </c>
+      <c r="L70" t="str">
         <v>Futcrunch</v>
       </c>
-      <c r="M80" t="str">
+      <c r="M70" t="str">
         <v>UCop6604O_QwmEum6e0Riz2w</v>
       </c>
-      <c r="N80" t="str">
+      <c r="N70" t="str">
         <v>4970000</v>
       </c>
-      <c r="O80" t="str">
+      <c r="O70" t="str">
+        <v>714</v>
+      </c>
+      <c r="P70">
+        <v>6</v>
+      </c>
+      <c r="Q70" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R70" t="str">
         <v>https://www.youtube.com/watch?v=Ec4lE7H5jyc</v>
       </c>
-      <c r="P80" t="str">
+      <c r="S70" t="str">
         <v>https://i.ytimg.com/vi/Ec4lE7H5jyc/hqdefault.jpg</v>
       </c>
-      <c r="Q80" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
+      <c r="T70" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
         <v>ASMR Practice 🔊⚽️ #football #futbol #satisfying #asmr #asmrsounds #soccer #trending</v>
       </c>
-      <c r="B81" t="str">
+      <c r="B71" t="str">
         <v/>
       </c>
-      <c r="D81" t="str">
-        <v>24</v>
-      </c>
-      <c r="E81" t="str">
-        <v>20531938</v>
-      </c>
-      <c r="H81" t="str">
-        <v>1321</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81" t="str">
-        <v>2022-07-25T17:50:01Z</v>
-      </c>
-      <c r="K81" t="str">
-        <v>PT1M</v>
-      </c>
-      <c r="L81" t="str">
+      <c r="D71" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="E71" t="str">
+        <v>20532109</v>
+      </c>
+      <c r="H71" t="str">
+        <v>1322</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-07</v>
+      </c>
+      <c r="K71">
+        <v>60</v>
+      </c>
+      <c r="L71" t="str">
         <v>Dougy Gee</v>
       </c>
-      <c r="M81" t="str">
+      <c r="M71" t="str">
         <v>UC_LbSodMEwoWS_wwcwzH7BA</v>
       </c>
-      <c r="N81" t="str">
+      <c r="N71" t="str">
         <v>642000</v>
       </c>
-      <c r="O81" t="str">
+      <c r="O71" t="str">
+        <v>278</v>
+      </c>
+      <c r="P71">
+        <v>6</v>
+      </c>
+      <c r="Q71" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R71" t="str">
         <v>https://www.youtube.com/watch?v=WavB9zXVSao</v>
       </c>
-      <c r="P81" t="str">
+      <c r="S71" t="str">
         <v>https://i.ytimg.com/vi/WavB9zXVSao/hqdefault.jpg</v>
       </c>
-      <c r="Q81" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="82" xml:space="preserve">
-      <c r="A82" t="str">
+      <c r="T71" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
         <v>3 CRAZIEST Goals In Football History</v>
       </c>
-      <c r="B82" t="str" xml:space="preserve">
+      <c r="B72" t="str" xml:space="preserve">
         <v xml:space="preserve">Follow Our Social Media:
 Tik Tok: @thekickflix
 Instagram: https://www.instagram.com/thekickflix/ 
@@ -4680,148 +4846,119 @@
 Snapchat: thekickflix
 #short #FIFA #Football</v>
       </c>
-      <c r="D82" t="str">
-        <v>17</v>
-      </c>
-      <c r="E82" t="str">
-        <v>20388463</v>
-      </c>
-      <c r="F82" t="str">
-        <v>686751</v>
-      </c>
-      <c r="H82" t="str">
+      <c r="D72" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E72" t="str">
+        <v>20388523</v>
+      </c>
+      <c r="F72" t="str">
+        <v>686753</v>
+      </c>
+      <c r="H72" t="str">
         <v>3410</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" t="str">
-        <v>2023-03-24T21:38:41Z</v>
-      </c>
-      <c r="K82" t="str">
-        <v>PT45S</v>
-      </c>
-      <c r="L82" t="str">
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-03</v>
+      </c>
+      <c r="K72">
+        <v>45</v>
+      </c>
+      <c r="L72" t="str">
         <v>KickFlix</v>
       </c>
-      <c r="M82" t="str">
+      <c r="M72" t="str">
         <v>UCXsJyNCjFthPLQ9U5KI-Frg</v>
       </c>
-      <c r="N82" t="str">
+      <c r="N72" t="str">
         <v>1370000</v>
       </c>
-      <c r="O82" t="str">
+      <c r="O72" t="str">
+        <v>65</v>
+      </c>
+      <c r="P72">
+        <v>11</v>
+      </c>
+      <c r="Q72" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R72" t="str">
         <v>https://www.youtube.com/watch?v=ZS_m4Ddr79I</v>
       </c>
-      <c r="P82" t="str">
+      <c r="S72" t="str">
         <v>https://i.ytimg.com/vi/ZS_m4Ddr79I/hqdefault.jpg</v>
       </c>
-      <c r="Q82" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="83" xml:space="preserve">
-      <c r="A83" t="str">
+      <c r="T72" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="A73" t="str">
         <v>Novo Comercial da Nike ao Som do mandelão | Copa do Mundo</v>
       </c>
-      <c r="B83" t="str" xml:space="preserve">
+      <c r="B73" t="str" xml:space="preserve">
         <v xml:space="preserve">Novo comercial da Nike: "Nike FC Presents the Footballverse" Editado. musica BR
 Funkzão top: "Se você nao quer passa a vez"
 Ignore Tags:
 Nike,football,football highlights,2022 fifa world cup,copa do mundo,Nike, football,football highlights,2022 fifa world cup,copa do mundo,Nike,football,football highlights,fifa,fifa world cup,2022 fifa world cup,fifa world cup highlights,comercial,qatar 2022,cristiano ronaldo,brasil,neymar,copa do mundo,barcelona,messi,lionel messi,messi skills,canelo vs messi,ronaldinho,ronaldo,ronaldo interview,nike commercial,nike air force 1,nike outlet steals,mandelão, coreia do sul e brasil, brasil,</v>
       </c>
-      <c r="D83" t="str">
-        <v>17</v>
-      </c>
-      <c r="E83" t="str">
-        <v>19975731</v>
-      </c>
-      <c r="F83" t="str">
-        <v>102857</v>
-      </c>
-      <c r="H83" t="str">
+      <c r="D73" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E73" t="str">
+        <v>19977332</v>
+      </c>
+      <c r="F73" t="str">
+        <v>102874</v>
+      </c>
+      <c r="H73" t="str">
         <v>1148</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83" t="str">
-        <v>2022-12-02T16:02:29Z</v>
-      </c>
-      <c r="K83" t="str">
-        <v>PT2M40S</v>
-      </c>
-      <c r="L83" t="str">
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12</v>
+      </c>
+      <c r="K73">
+        <v>160</v>
+      </c>
+      <c r="L73" t="str">
         <v>PaezFPS</v>
       </c>
-      <c r="M83" t="str">
+      <c r="M73" t="str">
         <v>UC8XQVYnWLBhPed2IzwRE10A</v>
       </c>
-      <c r="N83" t="str">
+      <c r="N73" t="str">
         <v>26800</v>
       </c>
-      <c r="O83" t="str">
+      <c r="O73" t="str">
+        <v>2</v>
+      </c>
+      <c r="P73">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R73" t="str">
         <v>https://www.youtube.com/watch?v=13lKWz4y-I0</v>
       </c>
-      <c r="P83" t="str">
+      <c r="S73" t="str">
         <v>https://i.ytimg.com/vi/13lKWz4y-I0/hqdefault.jpg</v>
       </c>
-      <c r="Q83" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>Your Griddy If You…</v>
-      </c>
-      <c r="B84" t="str">
-        <v/>
-      </c>
-      <c r="D84" t="str">
-        <v>17</v>
-      </c>
-      <c r="E84" t="str">
-        <v>19633755</v>
-      </c>
-      <c r="F84" t="str">
-        <v>610380</v>
-      </c>
-      <c r="H84" t="str">
-        <v>66515</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84" t="str">
-        <v>2022-11-08T15:33:58Z</v>
-      </c>
-      <c r="K84" t="str">
-        <v>PT21S</v>
-      </c>
-      <c r="L84" t="str">
-        <v>TjDprod</v>
-      </c>
-      <c r="M84" t="str">
-        <v>UC7SOsIu_9yq5rTJmEieak_w</v>
-      </c>
-      <c r="N84" t="str">
-        <v>381000</v>
-      </c>
-      <c r="O84" t="str">
-        <v>https://www.youtube.com/watch?v=kzmbsKQeu3Y</v>
-      </c>
-      <c r="P84" t="str">
-        <v>https://i.ytimg.com/vi/kzmbsKQeu3Y/hqdefault.jpg</v>
-      </c>
-      <c r="Q84" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="85" xml:space="preserve">
-      <c r="A85" t="str">
+      <c r="T73" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
         <v>Cristiano Ronaldo ► "DANZA KUDURO" - Slowed &amp; Reverb • Skills &amp; Goals 2023 | HD</v>
       </c>
-      <c r="B85" t="str" xml:space="preserve">
+      <c r="B74" t="str" xml:space="preserve">
         <v xml:space="preserve">📝 Cristiano Ronaldo (2022-23)
 • Al-Nassr
 • Portugal
@@ -4864,98 +5001,116 @@
 #KIANO7HD #DanzaKuduro #CR7 #DonOmar #Cristiano #Ronaldo #CristianoRonaldo #Portugal #AlNassr
 ©KIANO7HD</v>
       </c>
-      <c r="D85" t="str">
-        <v>17</v>
-      </c>
-      <c r="E85" t="str">
-        <v>19413501</v>
-      </c>
-      <c r="F85" t="str">
-        <v>146782</v>
-      </c>
-      <c r="H85" t="str">
+      <c r="D74" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E74" t="str">
+        <v>19414650</v>
+      </c>
+      <c r="F74" t="str">
+        <v>146785</v>
+      </c>
+      <c r="H74" t="str">
         <v>4268</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85" t="str">
-        <v>2023-05-29T19:44:15Z</v>
-      </c>
-      <c r="K85" t="str">
-        <v>PT5M27S</v>
-      </c>
-      <c r="L85" t="str">
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-05</v>
+      </c>
+      <c r="K74">
+        <v>327</v>
+      </c>
+      <c r="L74" t="str">
         <v>KIANO7HD</v>
       </c>
-      <c r="M85" t="str">
+      <c r="M74" t="str">
         <v>UCX4Kvq7rjEvEeFG-DMRxrHw</v>
       </c>
-      <c r="N85" t="str">
+      <c r="N74" t="str">
         <v>433000</v>
       </c>
-      <c r="O85" t="str">
+      <c r="O74" t="str">
+        <v>104</v>
+      </c>
+      <c r="P74">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R74" t="str">
         <v>https://www.youtube.com/watch?v=759S9__g58c</v>
       </c>
-      <c r="P85" t="str">
+      <c r="S74" t="str">
         <v>https://i.ytimg.com/vi/759S9__g58c/hqdefault.jpg</v>
       </c>
-      <c r="Q85" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="str">
+      <c r="T74" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
         <v>Big Difference 🥶</v>
       </c>
-      <c r="B86" t="str">
+      <c r="B75" t="str">
         <v/>
       </c>
-      <c r="D86" t="str">
-        <v>22</v>
-      </c>
-      <c r="E86" t="str">
-        <v>18909940</v>
-      </c>
-      <c r="F86" t="str">
-        <v>746638</v>
-      </c>
-      <c r="H86" t="str">
-        <v>4512</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" t="str">
-        <v>2024-07-25T08:25:37Z</v>
-      </c>
-      <c r="K86" t="str">
-        <v>PT42S</v>
-      </c>
-      <c r="L86" t="str">
+      <c r="D75" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E75" t="str">
+        <v>18910549</v>
+      </c>
+      <c r="F75" t="str">
+        <v>746675</v>
+      </c>
+      <c r="H75" t="str">
+        <v>4514</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2024-07</v>
+      </c>
+      <c r="K75">
+        <v>42</v>
+      </c>
+      <c r="L75" t="str">
         <v>Foot Mood</v>
       </c>
-      <c r="M86" t="str">
+      <c r="M75" t="str">
         <v>UCuYUOEXwUKBtiE1pNoB40PA</v>
       </c>
-      <c r="N86" t="str">
+      <c r="N75" t="str">
         <v>10000000</v>
       </c>
-      <c r="O86" t="str">
+      <c r="O75" t="str">
+        <v>1186</v>
+      </c>
+      <c r="P75">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R75" t="str">
         <v>https://www.youtube.com/watch?v=4Ilrc75MiFg</v>
       </c>
-      <c r="P86" t="str">
+      <c r="S75" t="str">
         <v>https://i.ytimg.com/vi/4Ilrc75MiFg/hqdefault.jpg</v>
       </c>
-      <c r="Q86" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="87" xml:space="preserve">
-      <c r="A87" t="str">
+      <c r="T75" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
         <v>What Football Players ACTUALLY Eat</v>
       </c>
-      <c r="B87" t="str" xml:space="preserve">
+      <c r="B76" t="str" xml:space="preserve">
         <v xml:space="preserve">Most football players eat healthy.. But Cristiano Ronaldo, Lionel Messi, Sergio Ramos and Robert Lewandowski have stories you won't believe.. 
 Follow Our Social Media:
 Tik Tok: @thekickflix
@@ -4966,203 +5121,287 @@
 Old voice and editor of SportHub, Rebound Central &amp; REBOUND
 *Copyright Disclaimer Under Section 107 of the Copyright Act 1976, allowance is made for "fair use" for purposes such as criticism, comment, news reporting, teaching, scholarship, and research. Fair use is a use permitted by copyright statute that might otherwise be infringing. Non-profit, educational or personal use tips the balance in favor of fair use. No copyright infringement intended. ALL RIGHTS BELONG TO THEIR RESPECTIVE OWNERS</v>
       </c>
-      <c r="D87" t="str">
-        <v>17</v>
-      </c>
-      <c r="E87" t="str">
-        <v>18767415</v>
-      </c>
-      <c r="F87" t="str">
+      <c r="D76" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E76" t="str">
+        <v>18767445</v>
+      </c>
+      <c r="F76" t="str">
         <v>174984</v>
       </c>
-      <c r="H87" t="str">
+      <c r="H76" t="str">
         <v>3186</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87" t="str">
-        <v>2021-08-22T03:18:50Z</v>
-      </c>
-      <c r="K87" t="str">
-        <v>PT14M43S</v>
-      </c>
-      <c r="L87" t="str">
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2021-08</v>
+      </c>
+      <c r="K76">
+        <v>883</v>
+      </c>
+      <c r="L76" t="str">
         <v>KickFlix</v>
       </c>
-      <c r="M87" t="str">
+      <c r="M76" t="str">
         <v>UCXsJyNCjFthPLQ9U5KI-Frg</v>
       </c>
-      <c r="N87" t="str">
+      <c r="N76" t="str">
         <v>1370000</v>
       </c>
-      <c r="O87" t="str">
+      <c r="O76" t="str">
+        <v>65</v>
+      </c>
+      <c r="P76">
+        <v>11</v>
+      </c>
+      <c r="Q76" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R76" t="str">
         <v>https://www.youtube.com/watch?v=zyTqElwSG5w</v>
       </c>
-      <c r="P87" t="str">
+      <c r="S76" t="str">
         <v>https://i.ytimg.com/vi/zyTqElwSG5w/hqdefault.jpg</v>
       </c>
-      <c r="Q87" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="88" xml:space="preserve">
-      <c r="A88" t="str">
-        <v>Legendary Red Cards in Football #3</v>
-      </c>
-      <c r="B88" t="str" xml:space="preserve">
-        <v xml:space="preserve">Legendary Red Cards in Football #3 video with you. The video features names like Roy Keane, Haaland, Scholes, Motta and Charlie Mulgrew.
-Enjoy the video..
-Watch My Other Videos:
-Most Funny Moments in Sports #7 ► https://youtu.be/_V289acpGyU
-Embarrassing Moments in Sports! ► https://youtu.be/6h8eU-atwxE
-Ball Boys/Girls Moments ► https://youtu.be/GaUYvNPvEVU
-Most Funny and Cute Moments in Fans ► https://youtu.be/QjMCeGAJFvM
-Funny Penalty Kicks ► https://youtu.be/ppYjIS5YD3A
-Most Funny Moments With Reporters in Sports! ► https://youtu.be/4CBC74LSO9k
-Impossible Moments in Sports #2 ► https://youtu.be/kgPT9_TLxEk
-👍 IF YOU LIKE SOCCER JOIN THE CHANNEL: https://bit.ly/2Z8C9Be
-Spor Delisi HD © 2023</v>
-      </c>
-      <c r="D88" t="str">
-        <v>17</v>
-      </c>
-      <c r="E88" t="str">
-        <v>18519987</v>
-      </c>
-      <c r="F88" t="str">
-        <v>53511</v>
-      </c>
-      <c r="H88" t="str">
-        <v>1499</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" t="str">
-        <v>2023-03-18T09:00:24Z</v>
-      </c>
-      <c r="K88" t="str">
-        <v>PT7M49S</v>
-      </c>
-      <c r="L88" t="str">
-        <v>Spor Delisi HD</v>
-      </c>
-      <c r="M88" t="str">
-        <v>UCRQMZQ0R561looJMoxPmRoQ</v>
-      </c>
-      <c r="N88" t="str">
-        <v>1090000</v>
-      </c>
-      <c r="O88" t="str">
-        <v>https://www.youtube.com/watch?v=OnJv9sq-418</v>
-      </c>
-      <c r="P88" t="str">
-        <v>https://i.ytimg.com/vi/OnJv9sq-418/hqdefault.jpg</v>
-      </c>
-      <c r="Q88" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="str">
+      <c r="T76" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Revenge Moments in Football 😈</v>
+      </c>
+      <c r="B77" t="str">
+        <v/>
+      </c>
+      <c r="D77" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E77" t="str">
+        <v>18731905</v>
+      </c>
+      <c r="F77" t="str">
+        <v>875608</v>
+      </c>
+      <c r="H77" t="str">
+        <v>816</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-10</v>
+      </c>
+      <c r="K77">
+        <v>44</v>
+      </c>
+      <c r="L77" t="str">
+        <v>Fearron</v>
+      </c>
+      <c r="M77" t="str">
+        <v>UCpqc5eAeEeO3mxb_xH2RHSA</v>
+      </c>
+      <c r="N77" t="str">
+        <v>4960000</v>
+      </c>
+      <c r="O77" t="str">
+        <v>656</v>
+      </c>
+      <c r="P77">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R77" t="str">
+        <v>https://www.youtube.com/watch?v=t1m5mBQWFfg</v>
+      </c>
+      <c r="S77" t="str">
+        <v>https://i.ytimg.com/vi/t1m5mBQWFfg/hqdefault.jpg</v>
+      </c>
+      <c r="T77" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
         <v>LEARN THIS SKILL⚽️Skill Tutorial #football #soccer #shorts #footballskills #soccerskills</v>
       </c>
-      <c r="B89" t="str">
+      <c r="B78" t="str">
         <v/>
       </c>
-      <c r="D89" t="str">
-        <v>17</v>
-      </c>
-      <c r="E89" t="str">
-        <v>18474898</v>
-      </c>
-      <c r="F89" t="str">
-        <v>421943</v>
-      </c>
-      <c r="H89" t="str">
+      <c r="D78" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E78" t="str">
+        <v>18475112</v>
+      </c>
+      <c r="F78" t="str">
+        <v>421950</v>
+      </c>
+      <c r="H78" t="str">
         <v>433</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="str">
-        <v>2022-11-10T09:23:04Z</v>
-      </c>
-      <c r="K89" t="str">
-        <v>PT9S</v>
-      </c>
-      <c r="L89" t="str">
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-11</v>
+      </c>
+      <c r="K78">
+        <v>9</v>
+      </c>
+      <c r="L78" t="str">
         <v>Takuya | Football Skills Coach</v>
       </c>
-      <c r="M89" t="str">
+      <c r="M78" t="str">
         <v>UCplP12cCtCl1uqVAMSzLjNw</v>
       </c>
-      <c r="N89" t="str">
+      <c r="N78" t="str">
         <v>911000</v>
       </c>
-      <c r="O89" t="str">
+      <c r="O78" t="str">
+        <v>695</v>
+      </c>
+      <c r="P78">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R78" t="str">
         <v>https://www.youtube.com/watch?v=wupu6iivl3Y</v>
       </c>
-      <c r="P89" t="str">
+      <c r="S78" t="str">
         <v>https://i.ytimg.com/vi/wupu6iivl3Y/hqdefault.jpg</v>
       </c>
-      <c r="Q89" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
+      <c r="T78" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
+      <c r="A79" t="str">
+        <v>Cristiano Ronaldo, Ronaldinho Gaúcho, Neymar jr, Phil Foden#football#footballshorts#youtube</v>
+      </c>
+      <c r="B79" t="str" xml:space="preserve">
+        <v xml:space="preserve">Cristiano Ronaldo, Ronaldinho Gaúcho, Neymar jr, Phil Foden#football#footballshorts#youtube
+Hi, friends! I'm "FOOTBALL VS WORLD" I create funny videos with different football players.
+All my video features materials protected by the Fair Use guidelines of Section 107 of Copyright Act. It takes about 4-5 hours to create these videos so that my viewers can feel the difference between the original video and the video I created.
+The audio and video sources in this video were created in such a way that the viewer hears and sees the new UNIQUE content.❤️‍🩹🥰</v>
+      </c>
+      <c r="D79" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E79" t="str">
+        <v>18374399</v>
+      </c>
+      <c r="F79" t="str">
+        <v>1236159</v>
+      </c>
+      <c r="H79" t="str">
+        <v>4958</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2024-08</v>
+      </c>
+      <c r="K79">
+        <v>45</v>
+      </c>
+      <c r="L79" t="str">
+        <v xml:space="preserve">FOOTBALL VS WORLD </v>
+      </c>
+      <c r="M79" t="str">
+        <v>UCGIPyUHujkHlqOpMYrsIG6Q</v>
+      </c>
+      <c r="N79" t="str">
+        <v>2370000</v>
+      </c>
+      <c r="O79" t="str">
+        <v>348</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R79" t="str">
+        <v>https://www.youtube.com/watch?v=6u5CZ1kmWug</v>
+      </c>
+      <c r="S79" t="str">
+        <v>https://i.ytimg.com/vi/6u5CZ1kmWug/hqdefault.jpg</v>
+      </c>
+      <c r="T79" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
         <v>Ronaldinho évolution 👁</v>
       </c>
-      <c r="B90" t="str">
+      <c r="B80" t="str">
         <v/>
       </c>
-      <c r="D90" t="str">
-        <v>22</v>
-      </c>
-      <c r="E90" t="str">
-        <v>18203101</v>
-      </c>
-      <c r="F90" t="str">
-        <v>780034</v>
-      </c>
-      <c r="H90" t="str">
+      <c r="D80" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E80" t="str">
+        <v>18203142</v>
+      </c>
+      <c r="F80" t="str">
+        <v>780036</v>
+      </c>
+      <c r="H80" t="str">
         <v>1612</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90" t="str">
-        <v>2022-12-01T14:23:10Z</v>
-      </c>
-      <c r="K90" t="str">
-        <v>PT42S</v>
-      </c>
-      <c r="L90" t="str">
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12</v>
+      </c>
+      <c r="K80">
+        <v>42</v>
+      </c>
+      <c r="L80" t="str">
         <v>épique👁13 A(football⚽️)</v>
       </c>
-      <c r="M90" t="str">
+      <c r="M80" t="str">
         <v>UCDwtIOpVdBluEguA1PPX_PA</v>
       </c>
-      <c r="N90" t="str">
+      <c r="N80" t="str">
         <v>488000</v>
       </c>
-      <c r="O90" t="str">
+      <c r="O80" t="str">
+        <v>30</v>
+      </c>
+      <c r="P80">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R80" t="str">
         <v>https://www.youtube.com/watch?v=GN-bhbpCMQI</v>
       </c>
-      <c r="P90" t="str">
+      <c r="S80" t="str">
         <v>https://i.ytimg.com/vi/GN-bhbpCMQI/hqdefault.jpg</v>
       </c>
-      <c r="Q90" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="91" xml:space="preserve">
-      <c r="A91" t="str">
+      <c r="T80" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
+      <c r="A81" t="str">
         <v>20 min EPIC FOOTBALL vs Stickman  | Stickman Dismounting funny and epic moments | Best Falls #152</v>
       </c>
-      <c r="B91" t="str" xml:space="preserve">
+      <c r="B81" t="str" xml:space="preserve">
         <v xml:space="preserve">Thanks For Watching
 BEST FALLS | Stickman Dismounting funny and epic moments | Like a boss compilation #
 This Video is Creating Videos For Mature of 12+
@@ -5180,408 +5419,1076 @@
 #stickmandismountbestmoments
 #stickmandismountingfunnymoments</v>
       </c>
-      <c r="D91" t="str">
-        <v>20</v>
-      </c>
-      <c r="E91" t="str">
-        <v>18014061</v>
-      </c>
-      <c r="F91" t="str">
-        <v>65608</v>
-      </c>
-      <c r="H91" t="str">
+      <c r="D81" t="str">
+        <v>Gaming</v>
+      </c>
+      <c r="E81" t="str">
+        <v>18014512</v>
+      </c>
+      <c r="F81" t="str">
+        <v>65609</v>
+      </c>
+      <c r="H81" t="str">
         <v>1241</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" t="str">
-        <v>2023-03-24T13:00:09Z</v>
-      </c>
-      <c r="K91" t="str">
-        <v>PT19M51S</v>
-      </c>
-      <c r="L91" t="str">
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-03</v>
+      </c>
+      <c r="K81">
+        <v>1191</v>
+      </c>
+      <c r="L81" t="str">
         <v>RADIAL STICK</v>
       </c>
-      <c r="M91" t="str">
+      <c r="M81" t="str">
         <v>UCeIWDGIleMJB5gSQbvCiO2A</v>
       </c>
-      <c r="N91" t="str">
+      <c r="N81" t="str">
         <v>279000</v>
       </c>
-      <c r="O91" t="str">
+      <c r="O81" t="str">
+        <v>448</v>
+      </c>
+      <c r="P81">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R81" t="str">
         <v>https://www.youtube.com/watch?v=F2fg_RmUKQ0</v>
       </c>
-      <c r="P91" t="str">
+      <c r="S81" t="str">
         <v>https://i.ytimg.com/vi/F2fg_RmUKQ0/hqdefault.jpg</v>
       </c>
-      <c r="Q91" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
+      <c r="T81" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
         <v>Mbappe vs Fastest Defenders in Football🥵⚡️</v>
       </c>
-      <c r="B92" t="str">
+      <c r="B82" t="str">
         <v/>
       </c>
-      <c r="D92" t="str">
+      <c r="D82" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E82" t="str">
+        <v>17873691</v>
+      </c>
+      <c r="F82" t="str">
+        <v>683513</v>
+      </c>
+      <c r="H82" t="str">
+        <v>1572</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2024-05</v>
+      </c>
+      <c r="K82">
+        <v>25</v>
+      </c>
+      <c r="L82" t="str">
+        <v>SkillerHome</v>
+      </c>
+      <c r="M82" t="str">
+        <v>UCYBrp4s7-BnHyRwg2N19REw</v>
+      </c>
+      <c r="N82" t="str">
+        <v>1490000</v>
+      </c>
+      <c r="O82" t="str">
+        <v>313</v>
+      </c>
+      <c r="P82">
+        <v>6</v>
+      </c>
+      <c r="Q82" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R82" t="str">
+        <v>https://www.youtube.com/watch?v=A1ixKrHA9_I</v>
+      </c>
+      <c r="S82" t="str">
+        <v>https://i.ytimg.com/vi/A1ixKrHA9_I/hqdefault.jpg</v>
+      </c>
+      <c r="T82" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>2 skills that make you a baller 💯 #football #soccer #skills</v>
+      </c>
+      <c r="B83" t="str">
+        <v/>
+      </c>
+      <c r="D83" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E83" t="str">
+        <v>17708797</v>
+      </c>
+      <c r="F83" t="str">
+        <v>543980</v>
+      </c>
+      <c r="H83" t="str">
+        <v>2575</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-09</v>
+      </c>
+      <c r="K83">
+        <v>10</v>
+      </c>
+      <c r="L83" t="str">
+        <v>Radheya Marca</v>
+      </c>
+      <c r="M83" t="str">
+        <v>UCPwkISJgK5PdMZ08D9O3XsA</v>
+      </c>
+      <c r="N83" t="str">
+        <v>1120000</v>
+      </c>
+      <c r="O83" t="str">
+        <v>1035</v>
+      </c>
+      <c r="P83">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R83" t="str">
+        <v>https://www.youtube.com/watch?v=b9f-QdVAsaY</v>
+      </c>
+      <c r="S83" t="str">
+        <v>https://i.ytimg.com/vi/b9f-QdVAsaY/hqdefault.jpg</v>
+      </c>
+      <c r="T83" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>ASMR ⚽️🔊. #ASMR #football #training #asmrsounds #soccer</v>
+      </c>
+      <c r="B84" t="str">
+        <v/>
+      </c>
+      <c r="D84" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E84" t="str">
+        <v>17666391</v>
+      </c>
+      <c r="H84" t="str">
+        <v>2158</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-02</v>
+      </c>
+      <c r="K84">
+        <v>60</v>
+      </c>
+      <c r="L84" t="str">
+        <v>Дулат Ғаниев</v>
+      </c>
+      <c r="M84" t="str">
+        <v>UCdIHvomdUSdTvRmbIM0eQMg</v>
+      </c>
+      <c r="N84" t="str">
+        <v>156000</v>
+      </c>
+      <c r="O84" t="str">
+        <v>72</v>
+      </c>
+      <c r="P84">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R84" t="str">
+        <v>https://www.youtube.com/watch?v=o7pH2_JTmSM</v>
+      </c>
+      <c r="S84" t="str">
+        <v>https://i.ytimg.com/vi/o7pH2_JTmSM/hqdefault.jpg</v>
+      </c>
+      <c r="T84" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Maradona speed 🥶</v>
+      </c>
+      <c r="B85" t="str">
+        <v/>
+      </c>
+      <c r="D85" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E85" t="str">
+        <v>17608979</v>
+      </c>
+      <c r="F85" t="str">
+        <v>892452</v>
+      </c>
+      <c r="H85" t="str">
+        <v>3262</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-01</v>
+      </c>
+      <c r="K85">
         <v>17</v>
       </c>
-      <c r="E92" t="str">
-        <v>17873328</v>
-      </c>
-      <c r="F92" t="str">
-        <v>683498</v>
-      </c>
-      <c r="H92" t="str">
-        <v>1572</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92" t="str">
-        <v>2024-05-10T13:11:35Z</v>
-      </c>
-      <c r="K92" t="str">
-        <v>PT25S</v>
-      </c>
-      <c r="L92" t="str">
-        <v>SkillerHome</v>
-      </c>
-      <c r="M92" t="str">
-        <v>UCYBrp4s7-BnHyRwg2N19REw</v>
-      </c>
-      <c r="N92" t="str">
-        <v>1490000</v>
-      </c>
-      <c r="O92" t="str">
-        <v>https://www.youtube.com/watch?v=A1ixKrHA9_I</v>
-      </c>
-      <c r="P92" t="str">
-        <v>https://i.ytimg.com/vi/A1ixKrHA9_I/hqdefault.jpg</v>
-      </c>
-      <c r="Q92" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>2 skills that make you a baller 💯 #football #soccer #skills</v>
-      </c>
-      <c r="B93" t="str">
-        <v/>
-      </c>
-      <c r="D93" t="str">
-        <v>17</v>
-      </c>
-      <c r="E93" t="str">
-        <v>17708361</v>
-      </c>
-      <c r="F93" t="str">
-        <v>543955</v>
-      </c>
-      <c r="H93" t="str">
-        <v>2575</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" t="str">
-        <v>2022-09-16T20:19:24Z</v>
-      </c>
-      <c r="K93" t="str">
-        <v>PT10S</v>
-      </c>
-      <c r="L93" t="str">
-        <v>Radheya Marca</v>
-      </c>
-      <c r="M93" t="str">
-        <v>UCPwkISJgK5PdMZ08D9O3XsA</v>
-      </c>
-      <c r="N93" t="str">
-        <v>1120000</v>
-      </c>
-      <c r="O93" t="str">
-        <v>https://www.youtube.com/watch?v=b9f-QdVAsaY</v>
-      </c>
-      <c r="P93" t="str">
-        <v>https://i.ytimg.com/vi/b9f-QdVAsaY/hqdefault.jpg</v>
-      </c>
-      <c r="Q93" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>ASMR ⚽️🔊. #ASMR #football #training #asmrsounds #soccer</v>
-      </c>
-      <c r="B94" t="str">
-        <v/>
-      </c>
-      <c r="D94" t="str">
-        <v>17</v>
-      </c>
-      <c r="E94" t="str">
-        <v>17666119</v>
-      </c>
-      <c r="H94" t="str">
-        <v>2158</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="str">
-        <v>2023-02-09T11:11:26Z</v>
-      </c>
-      <c r="K94" t="str">
-        <v>PT1M</v>
-      </c>
-      <c r="L94" t="str">
-        <v>Дулат Ғаниев</v>
-      </c>
-      <c r="M94" t="str">
-        <v>UCdIHvomdUSdTvRmbIM0eQMg</v>
-      </c>
-      <c r="N94" t="str">
-        <v>156000</v>
-      </c>
-      <c r="O94" t="str">
-        <v>https://www.youtube.com/watch?v=o7pH2_JTmSM</v>
-      </c>
-      <c r="P94" t="str">
-        <v>https://i.ytimg.com/vi/o7pH2_JTmSM/hqdefault.jpg</v>
-      </c>
-      <c r="Q94" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>Maradona speed 🥶</v>
-      </c>
-      <c r="B95" t="str">
-        <v/>
-      </c>
-      <c r="D95" t="str">
-        <v>22</v>
-      </c>
-      <c r="E95" t="str">
-        <v>17608168</v>
-      </c>
-      <c r="F95" t="str">
-        <v>892379</v>
-      </c>
-      <c r="H95" t="str">
-        <v>3262</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95" t="str">
-        <v>2022-01-11T13:23:12Z</v>
-      </c>
-      <c r="K95" t="str">
-        <v>PT17S</v>
-      </c>
-      <c r="L95" t="str">
+      <c r="L85" t="str">
         <v>Foot Mood</v>
       </c>
-      <c r="M95" t="str">
+      <c r="M85" t="str">
         <v>UCuYUOEXwUKBtiE1pNoB40PA</v>
       </c>
-      <c r="N95" t="str">
+      <c r="N85" t="str">
         <v>10000000</v>
       </c>
-      <c r="O95" t="str">
+      <c r="O85" t="str">
+        <v>1186</v>
+      </c>
+      <c r="P85">
+        <v>2</v>
+      </c>
+      <c r="Q85" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R85" t="str">
         <v>https://www.youtube.com/watch?v=tDHxll7o5gA</v>
       </c>
-      <c r="P95" t="str">
+      <c r="S85" t="str">
         <v>https://i.ytimg.com/vi/tDHxll7o5gA/hqdefault.jpg</v>
       </c>
-      <c r="Q95" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="96" xml:space="preserve">
-      <c r="A96" t="str">
+      <c r="T85" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="86" xml:space="preserve">
+      <c r="A86" t="str">
         <v>The coldest walk in football history 🥶🇦🇷</v>
       </c>
-      <c r="B96" t="str" xml:space="preserve">
+      <c r="B86" t="str" xml:space="preserve">
         <v xml:space="preserve">shorts #football #footballedit #shortsvideo 
 Follow me if you enjoy the Content ❤️</v>
       </c>
-      <c r="D96" t="str">
-        <v>22</v>
-      </c>
-      <c r="E96" t="str">
-        <v>17425656</v>
-      </c>
-      <c r="F96" t="str">
-        <v>1002586</v>
-      </c>
-      <c r="H96" t="str">
-        <v>14404</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96" t="str">
-        <v>2023-02-13T23:05:00Z</v>
-      </c>
-      <c r="K96" t="str">
-        <v>PT58S</v>
-      </c>
-      <c r="L96" t="str">
+      <c r="D86" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E86" t="str">
+        <v>17425724</v>
+      </c>
+      <c r="F86" t="str">
+        <v>1002597</v>
+      </c>
+      <c r="H86" t="str">
+        <v>14405</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-02</v>
+      </c>
+      <c r="K86">
+        <v>58</v>
+      </c>
+      <c r="L86" t="str">
         <v>RonnyKL7</v>
       </c>
-      <c r="M96" t="str">
+      <c r="M86" t="str">
         <v>UChjG1JOIgzW8tzugHnim0pw</v>
       </c>
-      <c r="N96" t="str">
+      <c r="N86" t="str">
         <v>1560000</v>
       </c>
-      <c r="O96" t="str">
+      <c r="O86" t="str">
+        <v>762</v>
+      </c>
+      <c r="P86">
+        <v>10</v>
+      </c>
+      <c r="Q86" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R86" t="str">
         <v>https://www.youtube.com/watch?v=4iQ74zkSQCc</v>
       </c>
-      <c r="P96" t="str">
+      <c r="S86" t="str">
         <v>https://i.ytimg.com/vi/4iQ74zkSQCc/hqdefault.jpg</v>
       </c>
-      <c r="Q96" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="97" xml:space="preserve">
-      <c r="A97" t="str">
+      <c r="T86" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
+      <c r="A87" t="str">
         <v>RECREATING VIRAL FOOTBALL MOMENTS !</v>
       </c>
-      <c r="B97" t="str" xml:space="preserve">
+      <c r="B87" t="str" xml:space="preserve">
         <v xml:space="preserve">In this video I recreated some of the most Insane Viral football videos!
 Follow me on Instagram! : https://www.instagram.com/akkamist/
 Don't forget to Like, Comment, Subscribe and make sure to have the Bell on! 
 In this video I recreated different viral moments from professional football players like Neymar Jr from Paris Saint Germain but also famous social media stars like Billy Wingrove from F2Freestylers. 
 You might also have seen some of my other videos where I recreate funny and viral videos from Lionel Messi, Cristiano Ronaldo, Mbappé, Paul Pogba and many more!</v>
       </c>
-      <c r="D97" t="str">
-        <v>24</v>
-      </c>
-      <c r="E97" t="str">
+      <c r="D87" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="E87" t="str">
         <v>17327995</v>
       </c>
-      <c r="F97" t="str">
+      <c r="F87" t="str">
         <v>128687</v>
       </c>
-      <c r="H97" t="str">
+      <c r="H87" t="str">
         <v>662</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97" t="str">
-        <v>2021-07-15T17:00:31Z</v>
-      </c>
-      <c r="K97" t="str">
-        <v>PT2M51S</v>
-      </c>
-      <c r="L97" t="str">
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2021-07</v>
+      </c>
+      <c r="K87">
+        <v>171</v>
+      </c>
+      <c r="L87" t="str">
         <v>Joris</v>
       </c>
-      <c r="M97" t="str">
+      <c r="M87" t="str">
         <v>UCkCcaU2ScGiGUT5DFQy57sA</v>
       </c>
-      <c r="N97" t="str">
+      <c r="N87" t="str">
         <v>3680000</v>
       </c>
-      <c r="O97" t="str">
+      <c r="O87" t="str">
+        <v>499</v>
+      </c>
+      <c r="P87">
+        <v>10</v>
+      </c>
+      <c r="Q87" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R87" t="str">
         <v>https://www.youtube.com/watch?v=TF9zEStBhTI</v>
       </c>
-      <c r="P97" t="str">
+      <c r="S87" t="str">
         <v>https://i.ytimg.com/vi/TF9zEStBhTI/hqdefault.jpg</v>
       </c>
-      <c r="Q97" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
+      <c r="T87" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
         <v>They Made Football Famous 😌</v>
       </c>
-      <c r="B98" t="str">
+      <c r="B88" t="str">
         <v/>
       </c>
-      <c r="D98" t="str">
-        <v>22</v>
-      </c>
-      <c r="E98" t="str">
-        <v>17528948</v>
-      </c>
-      <c r="F98" t="str">
-        <v>508609</v>
-      </c>
-      <c r="H98" t="str">
-        <v>4349</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98" t="str">
-        <v>2024-08-25T19:49:19Z</v>
-      </c>
-      <c r="K98" t="str">
-        <v>PT45S</v>
-      </c>
-      <c r="L98" t="str">
+      <c r="D88" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E88" t="str">
+        <v>17532848</v>
+      </c>
+      <c r="F88" t="str">
+        <v>508805</v>
+      </c>
+      <c r="H88" t="str">
+        <v>4352</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2024-08</v>
+      </c>
+      <c r="K88">
+        <v>45</v>
+      </c>
+      <c r="L88" t="str">
         <v>Foot Mood</v>
       </c>
-      <c r="M98" t="str">
+      <c r="M88" t="str">
         <v>UCuYUOEXwUKBtiE1pNoB40PA</v>
       </c>
-      <c r="N98" t="str">
+      <c r="N88" t="str">
         <v>10000000</v>
       </c>
-      <c r="O98" t="str">
+      <c r="O88" t="str">
+        <v>1186</v>
+      </c>
+      <c r="P88">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R88" t="str">
         <v>https://www.youtube.com/watch?v=tcaniNZ3bnA</v>
       </c>
-      <c r="P98" t="str">
+      <c r="S88" t="str">
         <v>https://i.ytimg.com/vi/tcaniNZ3bnA/hqdefault.jpg</v>
       </c>
-      <c r="Q98" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="99" xml:space="preserve">
-      <c r="A99" t="str">
+      <c r="T88" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="89" xml:space="preserve">
+      <c r="A89" t="str">
         <v>Impossible Moments in Football</v>
       </c>
-      <c r="B99" t="str" xml:space="preserve">
+      <c r="B89" t="str" xml:space="preserve">
         <v xml:space="preserve">👍 50.000 LIKES ON " Impossible Moments "? 
 🎧 - Nbhd Nick - Trenches ----- https://youtu.be/HDYTV_gzgJs
 🎧 - Ooyy - Kenji ----- https://youtu.be/T_lWXc2sako
 🎧 - Jules Gaia - Glitz At The Ritz ----- https://youtu.be/UB3OoFyDqYE
 #ImpossibleMoments #Ronaldo #Football #Futbol #soccer90v</v>
       </c>
+      <c r="D89" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E89" t="str">
+        <v>17225925</v>
+      </c>
+      <c r="F89" t="str">
+        <v>55973</v>
+      </c>
+      <c r="H89" t="str">
+        <v>634</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-11</v>
+      </c>
+      <c r="K89">
+        <v>465</v>
+      </c>
+      <c r="L89" t="str">
+        <v>Soccer90v</v>
+      </c>
+      <c r="M89" t="str">
+        <v>UCj4OE3L5OVEphzpTRmGTtAQ</v>
+      </c>
+      <c r="N89" t="str">
+        <v>368000</v>
+      </c>
+      <c r="O89" t="str">
+        <v>72</v>
+      </c>
+      <c r="P89">
+        <v>6</v>
+      </c>
+      <c r="Q89" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R89" t="str">
+        <v>https://www.youtube.com/watch?v=1oGyg0_XmyQ</v>
+      </c>
+      <c r="S89" t="str">
+        <v>https://i.ytimg.com/vi/1oGyg0_XmyQ/hqdefault.jpg</v>
+      </c>
+      <c r="T89" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Revenge Moments in Football (Pt.2) 😈</v>
+      </c>
+      <c r="B90" t="str">
+        <v/>
+      </c>
+      <c r="D90" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E90" t="str">
+        <v>17220161</v>
+      </c>
+      <c r="F90" t="str">
+        <v>908968</v>
+      </c>
+      <c r="H90" t="str">
+        <v>2668</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-05</v>
+      </c>
+      <c r="K90">
+        <v>59</v>
+      </c>
+      <c r="L90" t="str">
+        <v>Bsm Edits 20</v>
+      </c>
+      <c r="M90" t="str">
+        <v>UC86mbDclXQeljk975_KZpXg</v>
+      </c>
+      <c r="N90" t="str">
+        <v>4100000</v>
+      </c>
+      <c r="O90" t="str">
+        <v>143</v>
+      </c>
+      <c r="P90">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R90" t="str">
+        <v>https://www.youtube.com/watch?v=B2bdqayrGoQ</v>
+      </c>
+      <c r="S90" t="str">
+        <v>https://i.ytimg.com/vi/B2bdqayrGoQ/hqdefault.jpg</v>
+      </c>
+      <c r="T90" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
+      <c r="A91" t="str">
+        <v>Strange Moments in Football</v>
+      </c>
+      <c r="B91" t="str" xml:space="preserve">
+        <v xml:space="preserve">👍 50.000 LIKES ON " Strange Moments "? 
+🎧 - DJ SANZ-Bass Acordion ---- https://youtu.be/hC_f0C92XMA
+🎧 - Tobu &amp; Wholm - Motion ---- https://youtu.be/2wk7ssph8XA
+#football #messi #futbol #ronaldo #monofootball</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E91" t="str">
+        <v>16906898</v>
+      </c>
+      <c r="F91" t="str">
+        <v>82213</v>
+      </c>
+      <c r="H91" t="str">
+        <v>679</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-05</v>
+      </c>
+      <c r="K91">
+        <v>429</v>
+      </c>
+      <c r="L91" t="str">
+        <v>MonoFootball</v>
+      </c>
+      <c r="M91" t="str">
+        <v>UCPUlfPzDPe1XeO-cWMl5HJg</v>
+      </c>
+      <c r="N91" t="str">
+        <v>401000</v>
+      </c>
+      <c r="O91" t="str">
+        <v>55</v>
+      </c>
+      <c r="P91">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R91" t="str">
+        <v>https://www.youtube.com/watch?v=lrh_p4Xfbpk</v>
+      </c>
+      <c r="S91" t="str">
+        <v>https://i.ytimg.com/vi/lrh_p4Xfbpk/hqdefault.jpg</v>
+      </c>
+      <c r="T91" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="92" xml:space="preserve">
+      <c r="A92" t="str">
+        <v>Roberto Carlos Ad🔥🥶 #football</v>
+      </c>
+      <c r="B92" t="str" xml:space="preserve">
+        <v xml:space="preserve">Please Support And Like My Video
+#shorts #short #leomessi #cr7 #ronaldo #ronaldovsmessishortvideo #realmadrid #barcelona #football #foryou #tiktok
+#viral #tiktokvideo #international #subscribe #messi #psg</v>
+      </c>
+      <c r="D92" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E92" t="str">
+        <v>16862230</v>
+      </c>
+      <c r="F92" t="str">
+        <v>843220</v>
+      </c>
+      <c r="H92" t="str">
+        <v>2470</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-10</v>
+      </c>
+      <c r="K92">
+        <v>31</v>
+      </c>
+      <c r="L92" t="str">
+        <v>KhaXEditz™</v>
+      </c>
+      <c r="M92" t="str">
+        <v>UCI-0sCK-R2PQ8GcCeNUGL8Q</v>
+      </c>
+      <c r="N92" t="str">
+        <v>117000</v>
+      </c>
+      <c r="O92" t="str">
+        <v>222</v>
+      </c>
+      <c r="P92">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R92" t="str">
+        <v>https://www.youtube.com/watch?v=GKBuHMVf8EE</v>
+      </c>
+      <c r="S92" t="str">
+        <v>https://i.ytimg.com/vi/GKBuHMVf8EE/hqdefault.jpg</v>
+      </c>
+      <c r="T92" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
+      <c r="A93" t="str">
+        <v>Good luck stopping this kid 💪🔥 #shorts</v>
+      </c>
+      <c r="B93" t="str" xml:space="preserve">
+        <v xml:space="preserve">(Via darrylcumminsfilms/tt)
+#football #youthfootball #youthsports #highschoolsports #highschoolfootball #prodigy #cantbestopped #elite #beastmode #footballstar</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E93" t="str">
+        <v>16614234</v>
+      </c>
+      <c r="F93" t="str">
+        <v>274321</v>
+      </c>
+      <c r="H93" t="str">
+        <v>3745</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-02</v>
+      </c>
+      <c r="K93">
+        <v>22</v>
+      </c>
+      <c r="L93" t="str">
+        <v>MaxPreps</v>
+      </c>
+      <c r="M93" t="str">
+        <v>UCX5qMbq8Y9h9TOdFhKUhkrw</v>
+      </c>
+      <c r="N93" t="str">
+        <v>3050000</v>
+      </c>
+      <c r="O93" t="str">
+        <v>12607</v>
+      </c>
+      <c r="P93">
+        <v>17</v>
+      </c>
+      <c r="Q93" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R93" t="str">
+        <v>https://www.youtube.com/watch?v=zUzb_rU5CqE</v>
+      </c>
+      <c r="S93" t="str">
+        <v>https://i.ytimg.com/vi/zUzb_rU5CqE/hqdefault.jpg</v>
+      </c>
+      <c r="T93" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="94" xml:space="preserve">
+      <c r="A94" t="str">
+        <v>Funny Open Goal Misses in Football</v>
+      </c>
+      <c r="B94" t="str" xml:space="preserve">
+        <v xml:space="preserve">Funny open goal misses in football. Ibrahimovic, Lewandowski, Salah, Ronaldo, Lukaku, Agüero, Griezmann, De Bruyne and more in video!
+🎶NYOR - Collapse [UXN Release]
+🎶Elektronomia - Summersong 2020
+C'mon guys subscribe!😍</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E94" t="str">
+        <v>16475536</v>
+      </c>
+      <c r="F94" t="str">
+        <v>147488</v>
+      </c>
+      <c r="H94" t="str">
+        <v>2280</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2020-07</v>
+      </c>
+      <c r="K94">
+        <v>440</v>
+      </c>
+      <c r="L94" t="str">
+        <v>TKHD</v>
+      </c>
+      <c r="M94" t="str">
+        <v>UCSpvzqzfRAJGAWcuYjxWRbw</v>
+      </c>
+      <c r="N94" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="O94" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="P94" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="Q94" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R94" t="str">
+        <v>https://www.youtube.com/watch?v=WJ_VhCSZQWQ</v>
+      </c>
+      <c r="S94" t="str">
+        <v>https://i.ytimg.com/vi/WJ_VhCSZQWQ/hqdefault.jpg</v>
+      </c>
+      <c r="T94" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="95" xml:space="preserve">
+      <c r="A95" t="str">
+        <v>Funny Own Goals in Football</v>
+      </c>
+      <c r="B95" t="str" xml:space="preserve">
+        <v xml:space="preserve">Funny own goals in football! Marcelo, Lukaku, Diego Costa, Messi and more in video!
+🎶LBLVNC &amp; Godmode - Power! [NCS Release]
+🎶PIKASONIC - Nation
+C'mon guys subscribe!😍</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E95" t="str">
+        <v>16247849</v>
+      </c>
+      <c r="F95" t="str">
+        <v>165395</v>
+      </c>
+      <c r="H95" t="str">
+        <v>2365</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2021-07</v>
+      </c>
+      <c r="K95">
+        <v>571</v>
+      </c>
+      <c r="L95" t="str">
+        <v>TKHD</v>
+      </c>
+      <c r="M95" t="str">
+        <v>UCSpvzqzfRAJGAWcuYjxWRbw</v>
+      </c>
+      <c r="N95" t="str">
+        <v>3460000</v>
+      </c>
+      <c r="O95" t="str">
+        <v>78</v>
+      </c>
+      <c r="P95">
+        <v>7</v>
+      </c>
+      <c r="Q95" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R95" t="str">
+        <v>https://www.youtube.com/watch?v=gDgFXMKA6QU</v>
+      </c>
+      <c r="S95" t="str">
+        <v>https://i.ytimg.com/vi/gDgFXMKA6QU/hqdefault.jpg</v>
+      </c>
+      <c r="T95" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>First American Football</v>
+      </c>
+      <c r="B96" t="str">
+        <v>#shorts</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="E96" t="str">
+        <v>15920642</v>
+      </c>
+      <c r="F96" t="str">
+        <v>629466</v>
+      </c>
+      <c r="H96" t="str">
+        <v>1819</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-02</v>
+      </c>
+      <c r="K96">
+        <v>38</v>
+      </c>
+      <c r="L96" t="str">
+        <v>Dexton Crutchfield</v>
+      </c>
+      <c r="M96" t="str">
+        <v>UCpnufZjftg7hh44aulmXxgA</v>
+      </c>
+      <c r="N96" t="str">
+        <v>1990000</v>
+      </c>
+      <c r="O96" t="str">
+        <v>166</v>
+      </c>
+      <c r="P96">
+        <v>7</v>
+      </c>
+      <c r="Q96" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R96" t="str">
+        <v>https://www.youtube.com/watch?v=MWGO57bKTlk</v>
+      </c>
+      <c r="S96" t="str">
+        <v>https://i.ytimg.com/vi/MWGO57bKTlk/hqdefault.jpg</v>
+      </c>
+      <c r="T96" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>The Coldest Backflips Celebrations 🥶</v>
+      </c>
+      <c r="B97" t="str">
+        <v/>
+      </c>
+      <c r="D97" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E97" t="str">
+        <v>15725253</v>
+      </c>
+      <c r="F97" t="str">
+        <v>639144</v>
+      </c>
+      <c r="H97" t="str">
+        <v>3810</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2024-08</v>
+      </c>
+      <c r="K97">
+        <v>42</v>
+      </c>
+      <c r="L97" t="str">
+        <v>best futball</v>
+      </c>
+      <c r="M97" t="str">
+        <v>UCLvHAXCOEBW7EmvkiXifQ5A</v>
+      </c>
+      <c r="N97" t="str">
+        <v>3760000</v>
+      </c>
+      <c r="O97" t="str">
+        <v>1283</v>
+      </c>
+      <c r="P97">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R97" t="str">
+        <v>https://www.youtube.com/watch?v=ToPTmmOEcsA</v>
+      </c>
+      <c r="S97" t="str">
+        <v>https://i.ytimg.com/vi/ToPTmmOEcsA/hqdefault.jpg</v>
+      </c>
+      <c r="T97" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="98" xml:space="preserve">
+      <c r="A98" t="str">
+        <v>7-Year-Old Football PRODIGY | Blaze The Great Highlights</v>
+      </c>
+      <c r="B98" t="str" xml:space="preserve">
+        <v xml:space="preserve">This 7-year-old football phenom has the attention of pro football players, LeBron James, and MORE! He's a SUPERSTAR in the making.
+COMMENT with your favorite running back ever!
+MORE No Days Off
+→ 11-Year-Old Boxing Prodigy: http://bit.ly/2JcvoKp
+→ World's Fastest BMX Rider: https://whistle.video/FastestBMXRider
+→ 7-Year-Old One Armed Golfer: https://whistle.video/2vM1mEo
+→ 15-Year-Old Bryce Harper: http://whistle.video/2MVFs8d
+→ Homeless Shelter to Jr. Olympics: http://bit.ly/NoDaysOffS2E1
+→ Fastest Cup Stacking Ever: http://bit.ly/2IidjH3
+→ Hitting a 250mph Fastball: http://bit.ly/2w69a7g
+→ 11-Year-Old With A College Football Scholarship: http://bit.ly/2r9WCH4
+→ First Woman To Play Pro Baseball: http://bit.ly/2Fu0QOt
+→ 8-Year-Old Football Star: http://bit.ly/2HHk1dl
+SUBSCRIBE to Whistle Sports and check back to see more awesome sports videos in 2018! - http://goo.gl/y2JNsG
+Still want more Whistle Sports? Follow us on:
+FACEBOOK: http://facebook.com/whistlesports
+INSTAGRAM: http://instagram.com/whistlesports
+TWITTER: https://twitter.com/whistlesports
+SNAPCHAT: "whistlesports"
+WHAT IS WHISTLE SPORTS?
+Whistle Sports brings you the realest and most unexpected sports content led by our network of unbelievable creators. Visit us at http://whistlesports.com/ and COMMENT below with what you want to see next! #Whistle #Sports
+Check out ALL our Whistle Merch! https://whistle.video/WhistleStoreYT</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E98" t="str">
+        <v>15540135</v>
+      </c>
+      <c r="F98" t="str">
+        <v>168422</v>
+      </c>
+      <c r="H98" t="str">
+        <v>11352</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2018-09</v>
+      </c>
+      <c r="K98">
+        <v>443</v>
+      </c>
+      <c r="L98" t="str">
+        <v>Whistle</v>
+      </c>
+      <c r="M98" t="str">
+        <v>UCZFhj_r-MjoPCFVUo3E1ZRg</v>
+      </c>
+      <c r="N98" t="str">
+        <v>3160000</v>
+      </c>
+      <c r="O98" t="str">
+        <v>3697</v>
+      </c>
+      <c r="P98">
+        <v>18</v>
+      </c>
+      <c r="Q98" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R98" t="str">
+        <v>https://www.youtube.com/watch?v=lsYgM3Cv1iI</v>
+      </c>
+      <c r="S98" t="str">
+        <v>https://i.ytimg.com/vi/lsYgM3Cv1iI/hqdefault.jpg</v>
+      </c>
+      <c r="T98" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="99" xml:space="preserve">
+      <c r="A99" t="str">
+        <v>Strange Moments in Football</v>
+      </c>
+      <c r="B99" t="str" xml:space="preserve">
+        <v xml:space="preserve">👍 30.000 LIKES ON " Strange Moments "? 
+🎧 - DJ SANZ-Bass Acordion ----- https://youtu.be/hC_f0C92XMA
+🎧 - Ahxello - Frisbee ----- https://youtu.be/KyArf-0_bjc
+#StrangeMoments #Ronaldo #Football #Futbol #soccer90v</v>
+      </c>
       <c r="D99" t="str">
-        <v>17</v>
+        <v>Sports</v>
       </c>
       <c r="E99" t="str">
-        <v>17225925</v>
+        <v>15529082</v>
       </c>
       <c r="F99" t="str">
-        <v>55973</v>
+        <v>30052</v>
       </c>
       <c r="H99" t="str">
-        <v>634</v>
+        <v>431</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="str">
-        <v>2022-11-19T11:12:37Z</v>
-      </c>
-      <c r="K99" t="str">
-        <v>PT7M45S</v>
+        <v>2022-03</v>
+      </c>
+      <c r="K99">
+        <v>453</v>
       </c>
       <c r="L99" t="str">
         <v>Soccer90v</v>
@@ -5593,139 +6500,142 @@
         <v>368000</v>
       </c>
       <c r="O99" t="str">
-        <v>https://www.youtube.com/watch?v=1oGyg0_XmyQ</v>
-      </c>
-      <c r="P99" t="str">
-        <v>https://i.ytimg.com/vi/1oGyg0_XmyQ/hqdefault.jpg</v>
+        <v>72</v>
+      </c>
+      <c r="P99">
+        <v>6</v>
       </c>
       <c r="Q99" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>Video</v>
+      </c>
+      <c r="R99" t="str">
+        <v>https://www.youtube.com/watch?v=QiODlf2STJg</v>
+      </c>
+      <c r="S99" t="str">
+        <v>https://i.ytimg.com/vi/QiODlf2STJg/hqdefault.jpg</v>
+      </c>
+      <c r="T99" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="100" xml:space="preserve">
       <c r="A100" t="str">
-        <v>Revenge Moments in Football (Pt.2) 😈</v>
-      </c>
-      <c r="B100" t="str">
-        <v/>
+        <v>Roberto Carlos Ad🔥🥶 #football</v>
+      </c>
+      <c r="B100" t="str" xml:space="preserve">
+        <v xml:space="preserve">Please Support And Like My Video
+#shorts #short #leomessi #cr7 #ronaldo #ronaldovsmessishortvideo #realmadrid #barcelona #football #foryou #tiktok
+#viral #tiktokvideo #international #subscribe #messi #psg</v>
       </c>
       <c r="D100" t="str">
-        <v>17</v>
+        <v>People &amp; Blogs</v>
       </c>
       <c r="E100" t="str">
-        <v>17220035</v>
+        <v>16862230</v>
       </c>
       <c r="F100" t="str">
-        <v>908961</v>
+        <v>843220</v>
       </c>
       <c r="H100" t="str">
-        <v>2668</v>
+        <v>2470</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="str">
-        <v>2023-05-10T14:55:33Z</v>
-      </c>
-      <c r="K100" t="str">
-        <v>PT59S</v>
+        <v>2022-10</v>
+      </c>
+      <c r="K100">
+        <v>31</v>
       </c>
       <c r="L100" t="str">
-        <v>Bsm Edits 20</v>
+        <v>KhaXEditz™</v>
       </c>
       <c r="M100" t="str">
-        <v>UC86mbDclXQeljk975_KZpXg</v>
+        <v>UCI-0sCK-R2PQ8GcCeNUGL8Q</v>
       </c>
       <c r="N100" t="str">
-        <v>4100000</v>
+        <v>117000</v>
       </c>
       <c r="O100" t="str">
-        <v>https://www.youtube.com/watch?v=B2bdqayrGoQ</v>
-      </c>
-      <c r="P100" t="str">
-        <v>https://i.ytimg.com/vi/B2bdqayrGoQ/hqdefault.jpg</v>
+        <v>222</v>
+      </c>
+      <c r="P100">
+        <v>2</v>
       </c>
       <c r="Q100" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R100" t="str">
+        <v>https://www.youtube.com/watch?v=GKBuHMVf8EE</v>
+      </c>
+      <c r="S100" t="str">
+        <v>https://i.ytimg.com/vi/GKBuHMVf8EE/hqdefault.jpg</v>
+      </c>
+      <c r="T100" t="str">
         <v>US</v>
       </c>
     </row>
     <row r="101" xml:space="preserve">
       <c r="A101" t="str">
-        <v>Really Bad Day in Football 🤯</v>
+        <v>Good luck stopping this kid 💪🔥 #shorts</v>
       </c>
       <c r="B101" t="str" xml:space="preserve">
-        <v xml:space="preserve">Really Bad Day in Football 🤯
-NEW ONE: https://youtu.be/dHl5y2eip98
-Part 3: https://youtu.be/g5WW9gDtNVM
-Part 2: https://youtu.be/SI1E-k_R8ik
-💬 Did you enjoy today's video? tell me all about it in the comments!
-✨  If you like this video, consider subscribing to Nezzer using this Link! ⤵️
-http://bit.ly/Nezzer
-Until next time, football friends!
-********************
-⚽️ Welcome to the Nezzer – A channel dedicated to the love of the beautiful game of football. 
-Nezzer brings you excellent football compilations of goals, wins, historical moments, and more. Catch highlight reels and skill videos from La Liga, Premier League, Copa America, UEFA, and more. 
-➡️ On this channel, you’ll always be entertained by the world’s best players, teams, and clubs performing unbelievable and jaw-dropping skills on the football pitch.
-There are compilations of goals, wins, historical moments, players, amazing reactions, and so much more!
-➡️ I always feature videos from the best football leagues and tournaments in the world: La Liga, Premier League, Copa America, UEFA, and others 🏆
-Be sure to also click on the bell icon so every time I post a new video, you’ll automatically know 🔔
-🎬 Also, don’t forget to subscribe to our channel for your regular dose of football.
-********************
-❇️ Connect with Nezzer on social media:
-Instagram ▶️ https://www.instagram.com/nezzerhd/ 
-Twitter ▶️ https://twitter.com/nezzerhd 
-Facebook ▶️ https://www.facebook.com/nezzerhd 
-📧 Contact us anytime: keyabedi@gmail.com
-********************
-🔊 All music: 
-https://www.epidemicsound.com/referral/r1u551/ 
-********************
-#Football #Nezzer #FootballCompilation 
-© Nezzer 2021</v>
+        <v xml:space="preserve">(Via darrylcumminsfilms/tt)
+#football #youthfootball #youthsports #highschoolsports #highschoolfootball #prodigy #cantbestopped #elite #beastmode #footballstar</v>
       </c>
       <c r="D101" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E101" t="str">
+        <v>16614234</v>
+      </c>
+      <c r="F101" t="str">
+        <v>274321</v>
+      </c>
+      <c r="H101" t="str">
+        <v>3745</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-02</v>
+      </c>
+      <c r="K101">
+        <v>22</v>
+      </c>
+      <c r="L101" t="str">
+        <v>MaxPreps</v>
+      </c>
+      <c r="M101" t="str">
+        <v>UCX5qMbq8Y9h9TOdFhKUhkrw</v>
+      </c>
+      <c r="N101" t="str">
+        <v>3050000</v>
+      </c>
+      <c r="O101" t="str">
+        <v>12607</v>
+      </c>
+      <c r="P101">
         <v>17</v>
       </c>
-      <c r="E101" t="str">
-        <v>17099120</v>
-      </c>
-      <c r="F101" t="str">
-        <v>85240</v>
-      </c>
-      <c r="H101" t="str">
-        <v>952</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101" t="str">
-        <v>2021-12-07T15:00:05Z</v>
-      </c>
-      <c r="K101" t="str">
-        <v>PT9M57S</v>
-      </c>
-      <c r="L101" t="str">
-        <v>Nezzer</v>
-      </c>
-      <c r="M101" t="str">
-        <v>UC7Wu2g9wxOUhDwi5dgo9nww</v>
-      </c>
-      <c r="N101" t="str">
-        <v>282000</v>
-      </c>
-      <c r="O101" t="str">
-        <v>https://www.youtube.com/watch?v=5-Gb15B9uEY</v>
-      </c>
-      <c r="P101" t="str">
-        <v>https://i.ytimg.com/vi/5-Gb15B9uEY/hqdefault.jpg</v>
-      </c>
       <c r="Q101" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R101" t="str">
+        <v>https://www.youtube.com/watch?v=zUzb_rU5CqE</v>
+      </c>
+      <c r="S101" t="str">
+        <v>https://i.ytimg.com/vi/zUzb_rU5CqE/hqdefault.jpg</v>
+      </c>
+      <c r="T101" t="str">
         <v>US</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T101"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/topfootballVideos.xlsx
+++ b/topfootballVideos.xlsx
@@ -531,10 +531,10 @@
         <v>Unknown</v>
       </c>
       <c r="E2" t="str">
-        <v>736961484</v>
+        <v>736968138</v>
       </c>
       <c r="F2" t="str">
-        <v>1338402</v>
+        <v>1338407</v>
       </c>
       <c r="H2" t="str">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>Unknown</v>
       </c>
       <c r="E3" t="str">
-        <v>514744806</v>
+        <v>514744943</v>
       </c>
       <c r="F3" t="str">
         <v>1614094</v>
@@ -669,10 +669,10 @@
         <v>Unknown</v>
       </c>
       <c r="E4" t="str">
-        <v>403211935</v>
+        <v>403214099</v>
       </c>
       <c r="F4" t="str">
-        <v>13024712</v>
+        <v>13024740</v>
       </c>
       <c r="H4" t="str">
         <v>94853</v>
@@ -733,10 +733,10 @@
         <v>Unknown</v>
       </c>
       <c r="E5" t="str">
-        <v>186981042</v>
+        <v>186981345</v>
       </c>
       <c r="F5" t="str">
-        <v>2112839</v>
+        <v>2112841</v>
       </c>
       <c r="H5" t="str">
         <v>33865</v>
@@ -794,7 +794,7 @@
         <v>Sports</v>
       </c>
       <c r="E6" t="str">
-        <v>155983341</v>
+        <v>155983483</v>
       </c>
       <c r="F6" t="str">
         <v>1024603</v>
@@ -850,10 +850,10 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="E7" t="str">
-        <v>116720970</v>
+        <v>116721290</v>
       </c>
       <c r="F7" t="str">
-        <v>4197067</v>
+        <v>4197071</v>
       </c>
       <c r="H7" t="str">
         <v>7628</v>
@@ -906,10 +906,10 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="E8" t="str">
-        <v>116015940</v>
+        <v>116015994</v>
       </c>
       <c r="F8" t="str">
-        <v>2693581</v>
+        <v>2693582</v>
       </c>
       <c r="H8" t="str">
         <v>4726</v>
@@ -962,7 +962,7 @@
         <v>Sports</v>
       </c>
       <c r="E9" t="str">
-        <v>94177323</v>
+        <v>94177335</v>
       </c>
       <c r="F9" t="str">
         <v>2229823</v>
@@ -1018,10 +1018,10 @@
         <v>Sports</v>
       </c>
       <c r="E10" t="str">
-        <v>75370199</v>
+        <v>75374324</v>
       </c>
       <c r="F10" t="str">
-        <v>2419963</v>
+        <v>2420042</v>
       </c>
       <c r="H10" t="str">
         <v>11160</v>
@@ -1085,10 +1085,10 @@
         <v>Unknown</v>
       </c>
       <c r="E11" t="str">
-        <v>69785554</v>
+        <v>69785828</v>
       </c>
       <c r="F11" t="str">
-        <v>1629337</v>
+        <v>1629344</v>
       </c>
       <c r="H11" t="str">
         <v>15305</v>
@@ -1219,7 +1219,7 @@
         <v>Film &amp; Animation</v>
       </c>
       <c r="E12" t="str">
-        <v>66196333</v>
+        <v>66196439</v>
       </c>
       <c r="F12" t="str">
         <v>135356</v>
@@ -1280,13 +1280,13 @@
         <v>Sports</v>
       </c>
       <c r="E13" t="str">
-        <v>66119844</v>
+        <v>66120477</v>
       </c>
       <c r="F13" t="str">
-        <v>3328873</v>
+        <v>3328881</v>
       </c>
       <c r="H13" t="str">
-        <v>5292</v>
+        <v>5291</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="E14" t="str">
-        <v>65931773</v>
+        <v>65931891</v>
       </c>
       <c r="F14" t="str">
-        <v>929281</v>
+        <v>929286</v>
       </c>
       <c r="H14" t="str">
         <v>13648</v>
@@ -1392,10 +1392,10 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="E15" t="str">
-        <v>63333271</v>
+        <v>63333322</v>
       </c>
       <c r="F15" t="str">
-        <v>1701116</v>
+        <v>1701115</v>
       </c>
       <c r="H15" t="str">
         <v>351559</v>
@@ -1455,7 +1455,7 @@
         <v>Sports</v>
       </c>
       <c r="E16" t="str">
-        <v>61610334</v>
+        <v>61610357</v>
       </c>
       <c r="F16" t="str">
         <v>371077</v>
@@ -1511,10 +1511,10 @@
         <v>Sports</v>
       </c>
       <c r="E17" t="str">
-        <v>61009031</v>
+        <v>61009235</v>
       </c>
       <c r="F17" t="str">
-        <v>2198512</v>
+        <v>2198517</v>
       </c>
       <c r="H17" t="str">
         <v>7165</v>
@@ -1568,10 +1568,10 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="E18" t="str">
-        <v>60638894</v>
+        <v>60639294</v>
       </c>
       <c r="F18" t="str">
-        <v>2968471</v>
+        <v>2968478</v>
       </c>
       <c r="H18" t="str">
         <v>19185</v>
@@ -1624,10 +1624,10 @@
         <v>Sports</v>
       </c>
       <c r="E19" t="str">
-        <v>59194411</v>
+        <v>59196648</v>
       </c>
       <c r="F19" t="str">
-        <v>2600356</v>
+        <v>2600420</v>
       </c>
       <c r="H19" t="str">
         <v>10786</v>
@@ -1683,7 +1683,7 @@
         <v>Sports</v>
       </c>
       <c r="E20" t="str">
-        <v>57715521</v>
+        <v>57715606</v>
       </c>
       <c r="F20" t="str">
         <v>345713</v>
@@ -1739,10 +1739,10 @@
         <v>Gaming</v>
       </c>
       <c r="E21" t="str">
-        <v>56883722</v>
+        <v>56883883</v>
       </c>
       <c r="F21" t="str">
-        <v>3627170</v>
+        <v>3627177</v>
       </c>
       <c r="H21" t="str">
         <v>4555</v>
@@ -1795,7 +1795,7 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="E22" t="str">
-        <v>52927372</v>
+        <v>52927662</v>
       </c>
       <c r="H22" t="str">
         <v>3407</v>
@@ -1848,10 +1848,10 @@
         <v>Sports</v>
       </c>
       <c r="E23" t="str">
-        <v>49975354</v>
+        <v>49975426</v>
       </c>
       <c r="F23" t="str">
-        <v>552769</v>
+        <v>552770</v>
       </c>
       <c r="H23" t="str">
         <v>2098</v>
@@ -1967,7 +1967,7 @@
         <v>Unknown</v>
       </c>
       <c r="E25" t="str">
-        <v>49141348</v>
+        <v>49141414</v>
       </c>
       <c r="F25" t="str">
         <v>83895</v>
@@ -2023,10 +2023,10 @@
         <v>Sports</v>
       </c>
       <c r="E26" t="str">
-        <v>47855039</v>
+        <v>47855635</v>
       </c>
       <c r="F26" t="str">
-        <v>1484630</v>
+        <v>1484647</v>
       </c>
       <c r="H26" t="str">
         <v>5309</v>
@@ -2079,10 +2079,10 @@
         <v>Sports</v>
       </c>
       <c r="E27" t="str">
-        <v>44073728</v>
+        <v>44074793</v>
       </c>
       <c r="F27" t="str">
-        <v>1614645</v>
+        <v>1614667</v>
       </c>
       <c r="H27" t="str">
         <v>3859</v>
@@ -2150,10 +2150,10 @@
         <v>Sports</v>
       </c>
       <c r="E28" t="str">
-        <v>43628266</v>
+        <v>43628403</v>
       </c>
       <c r="F28" t="str">
-        <v>1086706</v>
+        <v>1086709</v>
       </c>
       <c r="H28" t="str">
         <v>1686</v>
@@ -2210,10 +2210,10 @@
         <v>Sports</v>
       </c>
       <c r="E29" t="str">
-        <v>42130619</v>
+        <v>42130701</v>
       </c>
       <c r="F29" t="str">
-        <v>1127589</v>
+        <v>1127592</v>
       </c>
       <c r="H29" t="str">
         <v>2530</v>
@@ -2266,10 +2266,10 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="E30" t="str">
-        <v>41753383</v>
+        <v>41753506</v>
       </c>
       <c r="F30" t="str">
-        <v>2394303</v>
+        <v>2394309</v>
       </c>
       <c r="H30" t="str">
         <v>10938</v>
@@ -2360,10 +2360,10 @@
         <v>Sports</v>
       </c>
       <c r="E31" t="str">
-        <v>41177433</v>
+        <v>41180829</v>
       </c>
       <c r="F31" t="str">
-        <v>1299280</v>
+        <v>1299422</v>
       </c>
       <c r="H31" t="str">
         <v>4098</v>
@@ -2480,10 +2480,10 @@
         <v>Unknown</v>
       </c>
       <c r="E33" t="str">
-        <v>39394469</v>
+        <v>39394886</v>
       </c>
       <c r="F33" t="str">
-        <v>1557824</v>
+        <v>1557832</v>
       </c>
       <c r="H33" t="str">
         <v>9362</v>
@@ -2538,7 +2538,7 @@
         <v>Sports</v>
       </c>
       <c r="E34" t="str">
-        <v>38554528</v>
+        <v>38554617</v>
       </c>
       <c r="F34" t="str">
         <v>287000</v>
@@ -2594,10 +2594,10 @@
         <v>Sports</v>
       </c>
       <c r="E35" t="str">
-        <v>37824190</v>
+        <v>37824491</v>
       </c>
       <c r="F35" t="str">
-        <v>1303807</v>
+        <v>1303808</v>
       </c>
       <c r="H35" t="str">
         <v>3367</v>
@@ -2692,10 +2692,10 @@
         <v>Sports</v>
       </c>
       <c r="E36" t="str">
-        <v>36945451</v>
+        <v>36946034</v>
       </c>
       <c r="F36" t="str">
-        <v>297761</v>
+        <v>297768</v>
       </c>
       <c r="H36" t="str">
         <v>7106</v>
@@ -2748,13 +2748,13 @@
         <v>Sports</v>
       </c>
       <c r="E37" t="str">
-        <v>35539734</v>
+        <v>35543887</v>
       </c>
       <c r="F37" t="str">
-        <v>1084017</v>
+        <v>1084075</v>
       </c>
       <c r="H37" t="str">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2811,10 +2811,10 @@
         <v>Sports</v>
       </c>
       <c r="E38" t="str">
-        <v>35194222</v>
+        <v>35194892</v>
       </c>
       <c r="F38" t="str">
-        <v>1010058</v>
+        <v>1010071</v>
       </c>
       <c r="H38" t="str">
         <v>1782</v>
@@ -2870,10 +2870,10 @@
         <v>Sports</v>
       </c>
       <c r="E39" t="str">
-        <v>34437454</v>
+        <v>34437612</v>
       </c>
       <c r="F39" t="str">
-        <v>160348</v>
+        <v>160349</v>
       </c>
       <c r="H39" t="str">
         <v>3665</v>
@@ -2926,10 +2926,10 @@
         <v>Sports</v>
       </c>
       <c r="E40" t="str">
-        <v>33674166</v>
+        <v>33674316</v>
       </c>
       <c r="F40" t="str">
-        <v>374829</v>
+        <v>374830</v>
       </c>
       <c r="H40" t="str">
         <v>3667</v>
@@ -2982,7 +2982,7 @@
         <v>Sports</v>
       </c>
       <c r="E41" t="str">
-        <v>33187533</v>
+        <v>33187601</v>
       </c>
       <c r="F41" t="str">
         <v>1025666</v>
@@ -3038,10 +3038,10 @@
         <v>Sports</v>
       </c>
       <c r="E42" t="str">
-        <v>33031715</v>
+        <v>33032134</v>
       </c>
       <c r="F42" t="str">
-        <v>1689444</v>
+        <v>1689451</v>
       </c>
       <c r="H42" t="str">
         <v>2032</v>
@@ -3099,7 +3099,7 @@
         <v>Gaming</v>
       </c>
       <c r="E43" t="str">
-        <v>31060542</v>
+        <v>31060548</v>
       </c>
       <c r="F43" t="str">
         <v>191865</v>
@@ -3161,10 +3161,10 @@
         <v>Sports</v>
       </c>
       <c r="E44" t="str">
-        <v>30786316</v>
+        <v>30786440</v>
       </c>
       <c r="F44" t="str">
-        <v>1566950</v>
+        <v>1566951</v>
       </c>
       <c r="H44" t="str">
         <v>27647</v>
@@ -3226,10 +3226,10 @@
         <v>Sports</v>
       </c>
       <c r="E45" t="str">
-        <v>30498522</v>
+        <v>30498647</v>
       </c>
       <c r="F45" t="str">
-        <v>1005996</v>
+        <v>1006000</v>
       </c>
       <c r="H45" t="str">
         <v>2095</v>
@@ -3286,7 +3286,7 @@
         <v>Sports</v>
       </c>
       <c r="E46" t="str">
-        <v>29714290</v>
+        <v>29714302</v>
       </c>
       <c r="F46" t="str">
         <v>260621</v>
@@ -3345,7 +3345,7 @@
         <v>Sports</v>
       </c>
       <c r="E47" t="str">
-        <v>29642232</v>
+        <v>29642233</v>
       </c>
       <c r="F47" t="str">
         <v>268638</v>
@@ -3401,10 +3401,10 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="E48" t="str">
-        <v>29566336</v>
+        <v>29566348</v>
       </c>
       <c r="F48" t="str">
-        <v>1324477</v>
+        <v>1324478</v>
       </c>
       <c r="H48" t="str">
         <v>1586</v>
@@ -3460,7 +3460,7 @@
         <v>Sports</v>
       </c>
       <c r="E49" t="str">
-        <v>29551802</v>
+        <v>29551923</v>
       </c>
       <c r="F49" t="str">
         <v>354871</v>
@@ -3516,10 +3516,10 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="E50" t="str">
-        <v>29514196</v>
+        <v>29514606</v>
       </c>
       <c r="F50" t="str">
-        <v>711138</v>
+        <v>711147</v>
       </c>
       <c r="H50" t="str">
         <v>3511</v>
@@ -3577,10 +3577,10 @@
         <v>Unknown</v>
       </c>
       <c r="E51" t="str">
-        <v>29171393</v>
+        <v>29171548</v>
       </c>
       <c r="F51" t="str">
-        <v>1791567</v>
+        <v>1791569</v>
       </c>
       <c r="H51" t="str">
         <v>78067</v>
@@ -3622,57 +3622,58 @@
         <v>US</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" xml:space="preserve">
       <c r="A52" t="str">
-        <v>HAALAND (DISS TRACK)</v>
-      </c>
-      <c r="B52" t="str">
-        <v/>
+        <v>10 years of training Nutmegs😅⚽️ #streetpanna #shorts</v>
+      </c>
+      <c r="B52" t="str" xml:space="preserve">
+        <v xml:space="preserve">10 years of Panna! Here’s to 10 more 🤞 
+I started playing Panna when I was 14- Crazy how much street football has changed my life! Blessed to be on this journey and excited to see what comes next- y’all the MVPs❤️</v>
       </c>
       <c r="D52" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Sports</v>
       </c>
       <c r="E52" t="str">
-        <v>25750175</v>
+        <v>28455705</v>
       </c>
       <c r="F52" t="str">
-        <v>632377</v>
+        <v>1511085</v>
       </c>
       <c r="H52" t="str">
-        <v>12010</v>
+        <v>2810</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="str">
-        <v>2023-05</v>
+        <v>2022-12</v>
       </c>
       <c r="K52">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L52" t="str">
-        <v>Z dotss</v>
+        <v>Street Panna</v>
       </c>
       <c r="M52" t="str">
-        <v>UCbccqTwEh-JBjrxAoPAECKQ</v>
+        <v>UCZAwf7HgsIQXyx6tNgK2dgQ</v>
       </c>
       <c r="N52" t="str">
-        <v>1820000</v>
+        <v>1210000</v>
       </c>
       <c r="O52" t="str">
-        <v>136</v>
+        <v>419</v>
       </c>
       <c r="P52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q52" t="str">
         <v>Video</v>
       </c>
       <c r="R52" t="str">
-        <v>https://www.youtube.com/watch?v=rUsqe8AUMrc</v>
+        <v>https://www.youtube.com/watch?v=5KyPFvD2_3w</v>
       </c>
       <c r="S52" t="str">
-        <v>https://i.ytimg.com/vi/rUsqe8AUMrc/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/5KyPFvD2_3w/hqdefault.jpg</v>
       </c>
       <c r="T52" t="str">
         <v>US</v>
@@ -3680,22 +3681,22 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>WHO'S YOUR FAV FOOTBALL PLAYER?!</v>
+        <v>Ronaldo Funny Moments 😂🤣</v>
       </c>
       <c r="B53" t="str">
-        <v>Ronaldo, Messi, Mbappé,... ?? Who do you choose?! ⚽️⚽️⚽️</v>
+        <v>#shorts Ronaldo Funniest Moments #football #ronaldo</v>
       </c>
       <c r="D53" t="str">
-        <v>Sports</v>
+        <v>Unknown</v>
       </c>
       <c r="E53" t="str">
-        <v>25226155</v>
+        <v>27109505</v>
       </c>
       <c r="F53" t="str">
-        <v>1078865</v>
+        <v>662498</v>
       </c>
       <c r="H53" t="str">
-        <v>9911</v>
+        <v>10682</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3704,19 +3705,19 @@
         <v>2023-05</v>
       </c>
       <c r="K53">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="L53" t="str">
-        <v>Celine Dept</v>
+        <v>RABONA</v>
       </c>
       <c r="M53" t="str">
-        <v>UC1a2ZCw7tugRZYRMnecNj3A</v>
+        <v>UCXUibR0c3OqYAj7wpYHNV2Q</v>
       </c>
       <c r="N53" t="str">
-        <v>36100000</v>
+        <v>133000</v>
       </c>
       <c r="O53" t="str">
-        <v>951</v>
+        <v>41</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -3725,10 +3726,10 @@
         <v>Video</v>
       </c>
       <c r="R53" t="str">
-        <v>https://www.youtube.com/watch?v=mQGicHcvUSs</v>
+        <v>https://www.youtube.com/watch?v=MXvF-_JISnw</v>
       </c>
       <c r="S53" t="str">
-        <v>https://i.ytimg.com/vi/mQGicHcvUSs/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/MXvF-_JISnw/hqdefault.jpg</v>
       </c>
       <c r="T53" t="str">
         <v>US</v>
@@ -3736,7 +3737,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Pele #pele #footballplayer #footballlegend #legend #rip #brasil</v>
+        <v>WORLD CUP RAP !</v>
       </c>
       <c r="B54" t="str">
         <v/>
@@ -3745,112 +3746,686 @@
         <v>People &amp; Blogs</v>
       </c>
       <c r="E54" t="str">
-        <v>24183300</v>
+        <v>27075504</v>
       </c>
       <c r="F54" t="str">
-        <v>571672</v>
+        <v>837993</v>
       </c>
       <c r="H54" t="str">
-        <v>6029</v>
+        <v>29291</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="str">
-        <v>2023-02</v>
+        <v>2022-12</v>
       </c>
       <c r="K54">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L54" t="str">
-        <v>Birge2021</v>
+        <v>Z dotss</v>
       </c>
       <c r="M54" t="str">
-        <v>UCq0f416FmBz7SGzUsvGXb0w</v>
+        <v>UCbccqTwEh-JBjrxAoPAECKQ</v>
       </c>
       <c r="N54" t="str">
-        <v>90200</v>
+        <v>1820000</v>
       </c>
       <c r="O54" t="str">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q54" t="str">
         <v>Video</v>
       </c>
       <c r="R54" t="str">
-        <v>https://www.youtube.com/watch?v=4V5y-LgXsfA</v>
+        <v>https://www.youtube.com/watch?v=Ru7e672LaQc</v>
       </c>
       <c r="S54" t="str">
-        <v>https://i.ytimg.com/vi/4V5y-LgXsfA/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/Ru7e672LaQc/hqdefault.jpg</v>
       </c>
       <c r="T54" t="str">
         <v>US</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" xml:space="preserve">
       <c r="A55" t="str">
-        <v>When players lose control 🥊😳</v>
-      </c>
-      <c r="B55" t="str">
-        <v/>
+        <v>Legendary Sprint Speeds In Football</v>
+      </c>
+      <c r="B55" t="str" xml:space="preserve">
+        <v xml:space="preserve">👍5,000 LIKES ON "Legendary Sprint Speeds In Football"? 
+🔔TURN ON NOTIFICATIONS TO NEVER MISS AN UPLOAD!🔔
+🎧 -  HOPEX - Bang Dem
+🎧 -  HOPEX - Movie
+#Football #Mbappe #Futebol</v>
       </c>
       <c r="D55" t="str">
         <v>Sports</v>
       </c>
       <c r="E55" t="str">
-        <v>23711580</v>
+        <v>26986595</v>
       </c>
       <c r="F55" t="str">
-        <v>856959</v>
+        <v>303769</v>
       </c>
       <c r="H55" t="str">
+        <v>6278</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2020-05</v>
+      </c>
+      <c r="K55">
+        <v>391</v>
+      </c>
+      <c r="L55" t="str">
+        <v>Wrsh98</v>
+      </c>
+      <c r="M55" t="str">
+        <v>UC5GbbbB3iPNlzFNZiXLTAuA</v>
+      </c>
+      <c r="N55" t="str">
+        <v>1360000</v>
+      </c>
+      <c r="O55" t="str">
+        <v>81</v>
+      </c>
+      <c r="P55">
+        <v>9</v>
+      </c>
+      <c r="Q55" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R55" t="str">
+        <v>https://www.youtube.com/watch?v=zMxZovxcx-o</v>
+      </c>
+      <c r="S55" t="str">
+        <v>https://i.ytimg.com/vi/zMxZovxcx-o/hqdefault.jpg</v>
+      </c>
+      <c r="T55" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Sunil Chhetri edit</v>
+      </c>
+      <c r="B56" t="str">
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E56" t="str">
+        <v>26916101</v>
+      </c>
+      <c r="F56" t="str">
+        <v>1495544</v>
+      </c>
+      <c r="H56" t="str">
+        <v>15194</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2021-03</v>
+      </c>
+      <c r="K56">
+        <v>18</v>
+      </c>
+      <c r="L56" t="str">
+        <v>lofi</v>
+      </c>
+      <c r="M56" t="str">
+        <v>UCSsNewbdK9Z0YXmPavJUDmg</v>
+      </c>
+      <c r="N56" t="str">
+        <v>111000</v>
+      </c>
+      <c r="O56" t="str">
+        <v>4</v>
+      </c>
+      <c r="P56">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R56" t="str">
+        <v>https://www.youtube.com/watch?v=VDWXv6ilMfg</v>
+      </c>
+      <c r="S56" t="str">
+        <v>https://i.ytimg.com/vi/VDWXv6ilMfg/hqdefault.jpg</v>
+      </c>
+      <c r="T56" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>1V1 VS BABY GRONK🏈 #shorts</v>
+      </c>
+      <c r="B57" t="str">
+        <v/>
+      </c>
+      <c r="D57" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E57" t="str">
+        <v>26133077</v>
+      </c>
+      <c r="F57" t="str">
+        <v>336403</v>
+      </c>
+      <c r="H57" t="str">
+        <v>5810</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-03</v>
+      </c>
+      <c r="K57">
+        <v>12</v>
+      </c>
+      <c r="L57" t="str">
+        <v>Peighton Tubre</v>
+      </c>
+      <c r="M57" t="str">
+        <v>UCbA9oIvr6XJjzNSOKZG0IMw</v>
+      </c>
+      <c r="N57" t="str">
+        <v>181000</v>
+      </c>
+      <c r="O57" t="str">
+        <v>502</v>
+      </c>
+      <c r="P57">
+        <v>10</v>
+      </c>
+      <c r="Q57" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R57" t="str">
+        <v>https://www.youtube.com/watch?v=X4A_4gIeIrI</v>
+      </c>
+      <c r="S57" t="str">
+        <v>https://i.ytimg.com/vi/X4A_4gIeIrI/hqdefault.jpg</v>
+      </c>
+      <c r="T57" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>The coldest walk in the history 🥶</v>
+      </c>
+      <c r="B58" t="str">
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E58" t="str">
+        <v>26105272</v>
+      </c>
+      <c r="F58" t="str">
+        <v>1359758</v>
+      </c>
+      <c r="H58" t="str">
+        <v>19287</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-03</v>
+      </c>
+      <c r="K58">
+        <v>57</v>
+      </c>
+      <c r="L58" t="str">
+        <v>best futball</v>
+      </c>
+      <c r="M58" t="str">
+        <v>UCLvHAXCOEBW7EmvkiXifQ5A</v>
+      </c>
+      <c r="N58" t="str">
+        <v>3760000</v>
+      </c>
+      <c r="O58" t="str">
+        <v>1283</v>
+      </c>
+      <c r="P58">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R58" t="str">
+        <v>https://www.youtube.com/watch?v=eytF-PGM8JM</v>
+      </c>
+      <c r="S58" t="str">
+        <v>https://i.ytimg.com/vi/eytF-PGM8JM/hqdefault.jpg</v>
+      </c>
+      <c r="T58" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Legendary Fake Plays 😱🥶</v>
+      </c>
+      <c r="B59" t="str">
+        <v/>
+      </c>
+      <c r="D59" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E59" t="str">
+        <v>26044905</v>
+      </c>
+      <c r="F59" t="str">
+        <v>1118144</v>
+      </c>
+      <c r="H59" t="str">
+        <v>1799</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-05</v>
+      </c>
+      <c r="K59">
+        <v>36</v>
+      </c>
+      <c r="L59" t="str">
+        <v>Foot Mood</v>
+      </c>
+      <c r="M59" t="str">
+        <v>UCuYUOEXwUKBtiE1pNoB40PA</v>
+      </c>
+      <c r="N59" t="str">
+        <v>10000000</v>
+      </c>
+      <c r="O59" t="str">
+        <v>1186</v>
+      </c>
+      <c r="P59">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R59" t="str">
+        <v>https://www.youtube.com/watch?v=haFJ4Eb2tjU</v>
+      </c>
+      <c r="S59" t="str">
+        <v>https://i.ytimg.com/vi/haFJ4Eb2tjU/hqdefault.jpg</v>
+      </c>
+      <c r="T59" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>HAALAND (DISS TRACK)</v>
+      </c>
+      <c r="B60" t="str">
+        <v/>
+      </c>
+      <c r="D60" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E60" t="str">
+        <v>25750207</v>
+      </c>
+      <c r="F60" t="str">
+        <v>632377</v>
+      </c>
+      <c r="H60" t="str">
+        <v>12010</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-05</v>
+      </c>
+      <c r="K60">
+        <v>40</v>
+      </c>
+      <c r="L60" t="str">
+        <v>Z dotss</v>
+      </c>
+      <c r="M60" t="str">
+        <v>UCbccqTwEh-JBjrxAoPAECKQ</v>
+      </c>
+      <c r="N60" t="str">
+        <v>1820000</v>
+      </c>
+      <c r="O60" t="str">
+        <v>136</v>
+      </c>
+      <c r="P60">
+        <v>10</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R60" t="str">
+        <v>https://www.youtube.com/watch?v=rUsqe8AUMrc</v>
+      </c>
+      <c r="S60" t="str">
+        <v>https://i.ytimg.com/vi/rUsqe8AUMrc/hqdefault.jpg</v>
+      </c>
+      <c r="T60" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="A61" t="str">
+        <v>Watch Sky News</v>
+      </c>
+      <c r="B61" t="str" xml:space="preserve">
+        <v xml:space="preserve">Watch Sky News live: The government is not ruling out sending offenders to Estonia as a means of alleviating severe overcrowding on the UK prison estate; the father of the Georgia school shooting suspect has been arrested and charged with two counts of second-degree murder and Oasis memorabilia including Noel Gallagher's golf buggy and Liam's tambourine to go up for auction
+🔴 Offenders could serve sentence in Estonian prisons to ease overcrowding https://trib.al/NY1fH8B
+🔴 Georgia school shooting: Father of suspect Colt Gray arrested 'after gifting son a rifle' https://trib.al/0J11JnV
+🔴 Oasis Memorabilia including Noel Gallagher's golf buggy to go up for auction https://trib.al/HRLlttM
+#SkyNews #offenders #Georgia #Estonia #prisons #overcrowding #ColtGray #rifle #Oasis #NoelGallagher #auction
+SUBSCRIBE to our YouTube channel for more videos: http://www.youtube.com/skynews 
+Follow us on Twitter: https://twitter.com/skynews 
+Like us on Facebook: https://www.facebook.com/skynews 
+Follow us on Instagram: https://www.instagram.com/skynews 
+Follow us on TikTok: https://www.tiktok.com/@skynews 
+For more content go to http://news.sky.com and download our apps: Apple https://itunes.apple.com/gb/app/sky-news/id316391924?mt=8 Android https://play.google.com/store/apps/details?id=com.bskyb.skynews.android&amp;hl=en_GB 
+Sky News Daily podcast is available for free here: https://podfollow.com/skynewsdaily/ 
+Sky News videos are now available in Spanish here/Los video de Sky News están disponibles en español aquí: https://www.youtube.com/channel/UCzG5BnqHO8oNlrPDW9CYJog 
+To enquire about licensing Sky News content, you can find more information here: https://news.sky.com/info/library-sales</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="E61" t="str">
+        <v>25658292</v>
+      </c>
+      <c r="F61" t="str">
+        <v>26290</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2024-05</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="str">
+        <v>Sky News</v>
+      </c>
+      <c r="M61" t="str">
+        <v>UCoMdktPbSTixAyNGwb-UYkQ</v>
+      </c>
+      <c r="N61" t="str">
+        <v>7970000</v>
+      </c>
+      <c r="O61" t="str">
+        <v>51753</v>
+      </c>
+      <c r="P61">
+        <v>18</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R61" t="str">
+        <v>https://www.youtube.com/watch?v=oJUvTVdTMyY</v>
+      </c>
+      <c r="S61" t="str">
+        <v>https://i.ytimg.com/vi/oJUvTVdTMyY/hqdefault_live.jpg</v>
+      </c>
+      <c r="T61" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>WHO'S YOUR FAV FOOTBALL PLAYER?!</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Ronaldo, Messi, Mbappé,... ?? Who do you choose?! ⚽️⚽️⚽️</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E62" t="str">
+        <v>25226243</v>
+      </c>
+      <c r="F62" t="str">
+        <v>1078866</v>
+      </c>
+      <c r="H62" t="str">
+        <v>9911</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-05</v>
+      </c>
+      <c r="K62">
+        <v>37</v>
+      </c>
+      <c r="L62" t="str">
+        <v>Celine Dept</v>
+      </c>
+      <c r="M62" t="str">
+        <v>UC1a2ZCw7tugRZYRMnecNj3A</v>
+      </c>
+      <c r="N62" t="str">
+        <v>36100000</v>
+      </c>
+      <c r="O62" t="str">
+        <v>951</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R62" t="str">
+        <v>https://www.youtube.com/watch?v=mQGicHcvUSs</v>
+      </c>
+      <c r="S62" t="str">
+        <v>https://i.ytimg.com/vi/mQGicHcvUSs/hqdefault.jpg</v>
+      </c>
+      <c r="T62" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Curve 💫 or Knuckleball 💥 #shorts #footballskills #footballskills#neymar</v>
+      </c>
+      <c r="B63" t="str">
+        <v/>
+      </c>
+      <c r="D63" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E63" t="str">
+        <v>25164587</v>
+      </c>
+      <c r="F63" t="str">
+        <v>465226</v>
+      </c>
+      <c r="H63" t="str">
+        <v>4508</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-10</v>
+      </c>
+      <c r="K63">
+        <v>6</v>
+      </c>
+      <c r="L63" t="str">
+        <v>Ferrywill</v>
+      </c>
+      <c r="M63" t="str">
+        <v>UC3WtW2h9p92scTNI2XUmGUQ</v>
+      </c>
+      <c r="N63" t="str">
+        <v>509000</v>
+      </c>
+      <c r="O63" t="str">
+        <v>665</v>
+      </c>
+      <c r="P63">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R63" t="str">
+        <v>https://www.youtube.com/watch?v=rg02C57OkA4</v>
+      </c>
+      <c r="S63" t="str">
+        <v>https://i.ytimg.com/vi/rg02C57OkA4/hqdefault.jpg</v>
+      </c>
+      <c r="T63" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>When players lose control 🥊😳</v>
+      </c>
+      <c r="B64" t="str">
+        <v/>
+      </c>
+      <c r="D64" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E64" t="str">
+        <v>23711618</v>
+      </c>
+      <c r="F64" t="str">
+        <v>856960</v>
+      </c>
+      <c r="H64" t="str">
         <v>3680</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55" t="str">
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="str">
         <v>2023-06</v>
       </c>
-      <c r="K55">
+      <c r="K64">
         <v>35</v>
       </c>
-      <c r="L55" t="str">
+      <c r="L64" t="str">
         <v>Bsm Edits 20</v>
       </c>
-      <c r="M55" t="str">
+      <c r="M64" t="str">
         <v>UC86mbDclXQeljk975_KZpXg</v>
       </c>
-      <c r="N55" t="str">
+      <c r="N64" t="str">
         <v>4100000</v>
       </c>
-      <c r="O55" t="str">
+      <c r="O64" t="str">
         <v>143</v>
       </c>
-      <c r="P55">
+      <c r="P64">
         <v>5</v>
       </c>
-      <c r="Q55" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R55" t="str">
+      <c r="Q64" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R64" t="str">
         <v>https://www.youtube.com/watch?v=6pgCnZmAUoc</v>
       </c>
-      <c r="S55" t="str">
+      <c r="S64" t="str">
         <v>https://i.ytimg.com/vi/6pgCnZmAUoc/hqdefault.jpg</v>
       </c>
-      <c r="T55" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="56" xml:space="preserve">
-      <c r="A56" t="str">
+      <c r="T64" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>200 IQ Trivela Passes 🧠</v>
+      </c>
+      <c r="B65" t="str">
+        <v/>
+      </c>
+      <c r="D65" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E65" t="str">
+        <v>23631206</v>
+      </c>
+      <c r="F65" t="str">
+        <v>867187</v>
+      </c>
+      <c r="H65" t="str">
+        <v>2542</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2024-01</v>
+      </c>
+      <c r="K65">
+        <v>28</v>
+      </c>
+      <c r="L65" t="str">
+        <v>Xendio</v>
+      </c>
+      <c r="M65" t="str">
+        <v>UC1VNPBS5hFTP-RYpdZwoamQ</v>
+      </c>
+      <c r="N65" t="str">
+        <v>2840000</v>
+      </c>
+      <c r="O65" t="str">
+        <v>487</v>
+      </c>
+      <c r="P65">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R65" t="str">
+        <v>https://www.youtube.com/watch?v=5-S7fR2CP64</v>
+      </c>
+      <c r="S65" t="str">
+        <v>https://i.ytimg.com/vi/5-S7fR2CP64/hqdefault.jpg</v>
+      </c>
+      <c r="T65" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
         <v>Football Stars Get Destroyed 😳</v>
       </c>
-      <c r="B56" t="str" xml:space="preserve">
+      <c r="B66" t="str" xml:space="preserve">
         <v xml:space="preserve">Follow me on Instagram - https://www.instagram.com/iamlorenzof7/
 Amazing Skills &amp; Goals by the Best Players! :D
 A compilation of best moments of in 2022-2023 HD
@@ -3859,141 +4434,60 @@
 Computer used: Macbook Pro 15' Retina
 Software used: Final Cut Pro X, After Effects CC</v>
       </c>
-      <c r="D56" t="str">
+      <c r="D66" t="str">
         <v>Sports</v>
       </c>
-      <c r="E56" t="str">
-        <v>23587209</v>
-      </c>
-      <c r="F56" t="str">
-        <v>1007198</v>
-      </c>
-      <c r="H56" t="str">
+      <c r="E66" t="str">
+        <v>23587248</v>
+      </c>
+      <c r="F66" t="str">
+        <v>1007197</v>
+      </c>
+      <c r="H66" t="str">
         <v>2522</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56" t="str">
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="str">
         <v>2022-12</v>
       </c>
-      <c r="K56">
+      <c r="K66">
         <v>34</v>
       </c>
-      <c r="L56" t="str">
+      <c r="L66" t="str">
         <v>Lorenzo F7</v>
       </c>
-      <c r="M56" t="str">
+      <c r="M66" t="str">
         <v>UC7oiSNQLq7o-NpYP-SEY_NQ</v>
       </c>
-      <c r="N56" t="str">
+      <c r="N66" t="str">
         <v>2020000</v>
       </c>
-      <c r="O56" t="str">
+      <c r="O66" t="str">
         <v>683</v>
       </c>
-      <c r="P56">
+      <c r="P66">
         <v>14</v>
       </c>
-      <c r="Q56" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R56" t="str">
+      <c r="Q66" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R66" t="str">
         <v>https://www.youtube.com/watch?v=JLDnaMUBHoI</v>
       </c>
-      <c r="S56" t="str">
+      <c r="S66" t="str">
         <v>https://i.ytimg.com/vi/JLDnaMUBHoI/hqdefault.jpg</v>
       </c>
-      <c r="T56" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="57" xml:space="preserve">
-      <c r="A57" t="str">
-        <v>150 + Trucos de Fútbol (Tutoriales Paso a Paso) - Football Tricks Online</v>
-      </c>
-      <c r="B57" t="str" xml:space="preserve">
-        <v xml:space="preserve">Aprende 150 + Trucos y Jugadas de Fútbol en Video tutoriales paso a paso! Freestyle Football Skills con panna groundmoves y técnicas de fútbol para caños y Nutmegs! Mejora tus regates y habilidades en la cancha de Fútbol Sala. forma parte de Football Tricks Online!
-►Consigue tu Balón especial para Football Freestyle y Fútbol calle: http://footballtricksonline.com/tienda
-► Página web: http://bit.ly/1eGWAXY
-Sigue a nuestro equipo :) 
-Redes Sociales Guido :
-► Facebook: http://on.fb.me/1gXa8i8
-► Instagram:http://bit.ly/1nxn7eX
-► Twitter: http://bit.ly/1gXac1h
-Redes Sociales EDU :
-►Twitter: http://www.twitter.com/edufto11
-►Instagram: http://www.instagram.com/edufto
-►Facebook: https://www.facebook.com/edu.sanchezalemany?ref=br_rs
-Redes Sociales Gabo Photography (Cámara) :
-►Twitter: http://www.Twitter.com/GaboPhotography
-►Instagram: http://www.Instagram.com/Gabo_Photography
-►Facebook: https://www.facebook.com/GaboPhotography1
-El Repre Gonza:
-►Twitter: http://www.twitter.com/ElRepreGonza
-►Instagram: http://www.instagram.com/ElRepreGonza
-►Facebook: https://www.facebook.com/pages/El-Repre-Gonza/952984151387777?fref=ts
-Football Tricks Online:
-► Subscribete: http://bit.ly/1qXacUt
-► Facebook: http://on.fb.me/1gXa8i8
-► Instagram:http://bit.ly/1nxn7eX
-► Twitter: http://bit.ly/1gXac1h
-► Ver más trucos: http://bit.ly/1qXaMSk</v>
-      </c>
-      <c r="D57" t="str">
-        <v>Sports</v>
-      </c>
-      <c r="E57" t="str">
-        <v>23213075</v>
-      </c>
-      <c r="F57" t="str">
-        <v>308845</v>
-      </c>
-      <c r="H57" t="str">
-        <v>8498</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57" t="str">
-        <v>2015-05</v>
-      </c>
-      <c r="K57">
-        <v>509</v>
-      </c>
-      <c r="L57" t="str">
-        <v>GuidoFTO</v>
-      </c>
-      <c r="M57" t="str">
-        <v>UCU0nCk_dDYf2PavgLbfgihQ</v>
-      </c>
-      <c r="N57" t="str">
-        <v>5060000</v>
-      </c>
-      <c r="O57" t="str">
-        <v>657</v>
-      </c>
-      <c r="P57">
-        <v>11</v>
-      </c>
-      <c r="Q57" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R57" t="str">
-        <v>https://www.youtube.com/watch?v=A7GDLEOsLgM</v>
-      </c>
-      <c r="S57" t="str">
-        <v>https://i.ytimg.com/vi/A7GDLEOsLgM/hqdefault.jpg</v>
-      </c>
-      <c r="T57" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="58" xml:space="preserve">
-      <c r="A58" t="str">
+      <c r="T66" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="A67" t="str">
         <v>Football Players Religion in Parallel Universe #shorts #short</v>
       </c>
-      <c r="B58" t="str" xml:space="preserve">
+      <c r="B67" t="str" xml:space="preserve">
         <v xml:space="preserve">Football Players Religion in Parallel Universe
 Messi is Muslim
 Ronaldo is Buddhist
@@ -4002,623 +4496,567 @@
 Welcome to Parallel Universe
 #messi #salah #ronaldo #mbape</v>
       </c>
-      <c r="D58" t="str">
+      <c r="D67" t="str">
         <v>People &amp; Blogs</v>
       </c>
-      <c r="E58" t="str">
-        <v>22824390</v>
-      </c>
-      <c r="F58" t="str">
+      <c r="E67" t="str">
+        <v>22824395</v>
+      </c>
+      <c r="F67" t="str">
         <v>515286</v>
       </c>
-      <c r="H58" t="str">
+      <c r="H67" t="str">
         <v>14218</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58" t="str">
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="str">
         <v>2022-09</v>
       </c>
-      <c r="K58">
+      <c r="K67">
         <v>12</v>
       </c>
-      <c r="L58" t="str">
+      <c r="L67" t="str">
         <v>Religion of Footballl Players</v>
       </c>
-      <c r="M58" t="str">
+      <c r="M67" t="str">
         <v>UCDRgoDfeeiKxMloZIbDLdaQ</v>
       </c>
-      <c r="N58" t="str">
+      <c r="N67" t="str">
         <v>419000</v>
       </c>
-      <c r="O58" t="str">
+      <c r="O67" t="str">
         <v>199</v>
       </c>
-      <c r="P58">
+      <c r="P67">
         <v>2</v>
       </c>
-      <c r="Q58" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R58" t="str">
+      <c r="Q67" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R67" t="str">
         <v>https://www.youtube.com/watch?v=9bCMDG5q7PI</v>
       </c>
-      <c r="S58" t="str">
+      <c r="S67" t="str">
         <v>https://i.ytimg.com/vi/9bCMDG5q7PI/hqdefault.jpg</v>
       </c>
-      <c r="T58" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
+      <c r="T67" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
         <v>France Song Lyrics Translation (totally real) #shorts #trending #football</v>
       </c>
-      <c r="B59" t="str">
+      <c r="B68" t="str">
         <v>#shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   #shorts #trending #football #trading #soccer #ronaldo #messi #mbappe #wpstatus #messi #cr7 #football #trending #mbappe #football #sugna   @tseries</v>
       </c>
-      <c r="D59" t="str">
+      <c r="D68" t="str">
         <v>Unknown</v>
       </c>
-      <c r="E59" t="str">
-        <v>22755397</v>
-      </c>
-      <c r="F59" t="str">
-        <v>744117</v>
-      </c>
-      <c r="H59" t="str">
+      <c r="E68" t="str">
+        <v>22755588</v>
+      </c>
+      <c r="F68" t="str">
+        <v>744118</v>
+      </c>
+      <c r="H68" t="str">
         <v>8265</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59" t="str">
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="str">
         <v>2023-02</v>
       </c>
-      <c r="K59">
+      <c r="K68">
         <v>49</v>
       </c>
-      <c r="L59" t="str">
+      <c r="L68" t="str">
         <v>AXEditz</v>
       </c>
-      <c r="M59" t="str">
+      <c r="M68" t="str">
         <v>UCj2s81o4neDidHQWD45rUZQ</v>
       </c>
-      <c r="N59" t="str">
+      <c r="N68" t="str">
         <v>271000</v>
       </c>
-      <c r="O59" t="str">
+      <c r="O68" t="str">
         <v>159</v>
       </c>
-      <c r="P59">
+      <c r="P68">
         <v>17</v>
       </c>
-      <c r="Q59" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R59" t="str">
+      <c r="Q68" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R68" t="str">
         <v>https://www.youtube.com/watch?v=MAQblIhtkm8</v>
       </c>
-      <c r="S59" t="str">
+      <c r="S68" t="str">
         <v>https://i.ytimg.com/vi/MAQblIhtkm8/hqdefault.jpg</v>
       </c>
-      <c r="T59" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>Marcelo 200iq 😳🧠</v>
-      </c>
-      <c r="B60" t="str">
+      <c r="T68" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>THIS 7U QUARTERBACK IS INSANE!😳🎯</v>
+      </c>
+      <c r="B69" t="str">
         <v/>
       </c>
-      <c r="D60" t="str">
+      <c r="D69" t="str">
         <v>People &amp; Blogs</v>
       </c>
-      <c r="E60" t="str">
-        <v>23286538</v>
-      </c>
-      <c r="F60" t="str">
-        <v>853160</v>
-      </c>
-      <c r="H60" t="str">
-        <v>1124</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60" t="str">
-        <v>2022-05</v>
-      </c>
-      <c r="K60">
-        <v>20</v>
-      </c>
-      <c r="L60" t="str">
-        <v>Foot Mood</v>
-      </c>
-      <c r="M60" t="str">
-        <v>UCuYUOEXwUKBtiE1pNoB40PA</v>
-      </c>
-      <c r="N60" t="str">
-        <v>10000000</v>
-      </c>
-      <c r="O60" t="str">
-        <v>1186</v>
-      </c>
-      <c r="P60">
+      <c r="E69" t="str">
+        <v>22529775</v>
+      </c>
+      <c r="F69" t="str">
+        <v>437908</v>
+      </c>
+      <c r="H69" t="str">
+        <v>3425</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-06</v>
+      </c>
+      <c r="K69">
+        <v>60</v>
+      </c>
+      <c r="L69" t="str">
+        <v>Aj Greene Youth</v>
+      </c>
+      <c r="M69" t="str">
+        <v>UCnCd2FoyvkiC6WCBmagKsWg</v>
+      </c>
+      <c r="N69" t="str">
+        <v>779000</v>
+      </c>
+      <c r="O69" t="str">
+        <v>126</v>
+      </c>
+      <c r="P69">
         <v>2</v>
       </c>
-      <c r="Q60" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R60" t="str">
-        <v>https://www.youtube.com/watch?v=1LGVRNuh2H8</v>
-      </c>
-      <c r="S60" t="str">
-        <v>https://i.ytimg.com/vi/1LGVRNuh2H8/hqdefault.jpg</v>
-      </c>
-      <c r="T60" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>THIS 7U QUARTERBACK IS INSANE!😳🎯</v>
-      </c>
-      <c r="B61" t="str">
-        <v/>
-      </c>
-      <c r="D61" t="str">
-        <v>People &amp; Blogs</v>
-      </c>
-      <c r="E61" t="str">
-        <v>22529389</v>
-      </c>
-      <c r="F61" t="str">
-        <v>437906</v>
-      </c>
-      <c r="H61" t="str">
-        <v>3425</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61" t="str">
-        <v>2023-06</v>
-      </c>
-      <c r="K61">
-        <v>60</v>
-      </c>
-      <c r="L61" t="str">
-        <v>Aj Greene Youth</v>
-      </c>
-      <c r="M61" t="str">
-        <v>UCnCd2FoyvkiC6WCBmagKsWg</v>
-      </c>
-      <c r="N61" t="str">
-        <v>779000</v>
-      </c>
-      <c r="O61" t="str">
-        <v>126</v>
-      </c>
-      <c r="P61">
-        <v>2</v>
-      </c>
-      <c r="Q61" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R61" t="str">
+      <c r="Q69" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R69" t="str">
         <v>https://www.youtube.com/watch?v=pJaUCudNM7U</v>
       </c>
-      <c r="S61" t="str">
+      <c r="S69" t="str">
         <v>https://i.ytimg.com/vi/pJaUCudNM7U/hqdefault.jpg</v>
       </c>
-      <c r="T61" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="62" xml:space="preserve">
-      <c r="A62" t="str">
+      <c r="T69" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str">
         <v>This Wide Receiver is UNSTOPPABLE!!! 🤯 #shorts</v>
       </c>
-      <c r="B62" t="str" xml:space="preserve">
+      <c r="B70" t="str" xml:space="preserve">
         <v xml:space="preserve">#sports #nfl #collegefootball 
 4-Star WR Ja'Kobi Lane is the #1 High School Wide Receiver in Arizona. He plays for Red Mountain High School in Mesa Arizona. Ja'kobi Lane absolutely DOMINATED at OT7, which is OVERTIME'S 7on7 Tournament. Athlete. Sports. Sports News. High School Football. Friday Night Lights. Cornerback. Wide Receiver Football. Odell Beckham Jr.. Randy Moss. Travis Hunter Cornerback. Travis Hunter Jackson State Tigers Deion Sanders. HBCU Football. College Football. CFB. NFL. NFL Football. Barstool Sports. Bussin with the Boys. Maxpreps. House of Highlights. Football. Touchdown. Spencer Rattler. Fantasy Football.</v>
       </c>
-      <c r="D62" t="str">
+      <c r="D70" t="str">
         <v>Sports</v>
       </c>
-      <c r="E62" t="str">
-        <v>22398349</v>
-      </c>
-      <c r="F62" t="str">
-        <v>819308</v>
-      </c>
-      <c r="H62" t="str">
+      <c r="E70" t="str">
+        <v>22398360</v>
+      </c>
+      <c r="F70" t="str">
+        <v>819310</v>
+      </c>
+      <c r="H70" t="str">
         <v>13937</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62" t="str">
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="str">
         <v>2022-06</v>
       </c>
-      <c r="K62">
+      <c r="K70">
         <v>52</v>
       </c>
-      <c r="L62" t="str">
+      <c r="L70" t="str">
         <v>Quarterback Plug</v>
       </c>
-      <c r="M62" t="str">
+      <c r="M70" t="str">
         <v>UCy-U026m7Y5VjhhUmXwj-3A</v>
       </c>
-      <c r="N62" t="str">
+      <c r="N70" t="str">
         <v>772000</v>
       </c>
-      <c r="O62" t="str">
+      <c r="O70" t="str">
         <v>355</v>
       </c>
-      <c r="P62">
+      <c r="P70">
         <v>5</v>
       </c>
-      <c r="Q62" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R62" t="str">
+      <c r="Q70" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R70" t="str">
         <v>https://www.youtube.com/watch?v=0n_2tzjABrg</v>
       </c>
-      <c r="S62" t="str">
+      <c r="S70" t="str">
         <v>https://i.ytimg.com/vi/0n_2tzjABrg/hqdefault.jpg</v>
       </c>
-      <c r="T62" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
+      <c r="T70" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
         <v>Dating a footballer be like… 🤣</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B71" t="str">
         <v/>
       </c>
-      <c r="D63" t="str">
+      <c r="D71" t="str">
         <v>Sports</v>
       </c>
-      <c r="E63" t="str">
-        <v>22330348</v>
-      </c>
-      <c r="F63" t="str">
-        <v>589095</v>
-      </c>
-      <c r="H63" t="str">
+      <c r="E71" t="str">
+        <v>22330366</v>
+      </c>
+      <c r="F71" t="str">
+        <v>589096</v>
+      </c>
+      <c r="H71" t="str">
         <v>4671</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63" t="str">
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="str">
         <v>2023-05</v>
       </c>
-      <c r="K63">
+      <c r="K71">
         <v>21</v>
       </c>
-      <c r="L63" t="str">
+      <c r="L71" t="str">
         <v>Tom Harris Football</v>
       </c>
-      <c r="M63" t="str">
+      <c r="M71" t="str">
         <v>UCIVGVpjywyPA3ZusfLAsvbA</v>
       </c>
-      <c r="N63" t="str">
+      <c r="N71" t="str">
         <v>1730000</v>
       </c>
-      <c r="O63" t="str">
+      <c r="O71" t="str">
         <v>1633</v>
       </c>
-      <c r="P63">
+      <c r="P71">
         <v>10</v>
       </c>
-      <c r="Q63" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R63" t="str">
+      <c r="Q71" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R71" t="str">
         <v>https://www.youtube.com/watch?v=e4bWZTU-Z70</v>
       </c>
-      <c r="S63" t="str">
+      <c r="S71" t="str">
         <v>https://i.ytimg.com/vi/e4bWZTU-Z70/hqdefault.jpg</v>
       </c>
-      <c r="T63" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="64" xml:space="preserve">
-      <c r="A64" t="str">
+      <c r="T71" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
         <v>Biggest Hits In Football History || HD</v>
       </c>
-      <c r="B64" t="str" xml:space="preserve">
+      <c r="B72" t="str" xml:space="preserve">
         <v xml:space="preserve">Hello all, for this video I spent days upon days gathering together the best hits of all time. Stay tuned for a part 2 coming at the end of 2023. I have been working on this for years, thank you for your patience!! 
 Thanks For Watching! Make Sure to Subscribe to the channel if you are new and comment suggestions for my next video! also if you could share this video that would be leet! i work super hard for my vids and you guys motivate me :)
 All Content is owned by the #NFL, i take their clips and make compilations with rare plays and popular plays.</v>
       </c>
-      <c r="D64" t="str">
+      <c r="D72" t="str">
         <v>People &amp; Blogs</v>
       </c>
-      <c r="E64" t="str">
-        <v>22144160</v>
-      </c>
-      <c r="F64" t="str">
+      <c r="E72" t="str">
+        <v>22144179</v>
+      </c>
+      <c r="F72" t="str">
         <v>119327</v>
       </c>
-      <c r="H64" t="str">
+      <c r="H72" t="str">
         <v>5485</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="str">
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="str">
         <v>2018-12</v>
       </c>
-      <c r="K64">
+      <c r="K72">
         <v>845</v>
       </c>
-      <c r="L64" t="str">
+      <c r="L72" t="str">
         <v>Ding Productions</v>
       </c>
-      <c r="M64" t="str">
+      <c r="M72" t="str">
         <v>UClEaLQq1OzzfkLF4-0WSdrQ</v>
       </c>
-      <c r="N64" t="str">
+      <c r="N72" t="str">
         <v>1570000</v>
       </c>
-      <c r="O64" t="str">
+      <c r="O72" t="str">
         <v>1069</v>
       </c>
-      <c r="P64">
+      <c r="P72">
         <v>7</v>
       </c>
-      <c r="Q64" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R64" t="str">
+      <c r="Q72" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R72" t="str">
         <v>https://www.youtube.com/watch?v=Wn9NdHpTWrg</v>
       </c>
-      <c r="S64" t="str">
+      <c r="S72" t="str">
         <v>https://i.ytimg.com/vi/Wn9NdHpTWrg/hqdefault.jpg</v>
       </c>
-      <c r="T64" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
+      <c r="T72" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
         <v>Incredible Bicycle Kicks 🤯</v>
       </c>
-      <c r="B65" t="str">
+      <c r="B73" t="str">
         <v/>
       </c>
-      <c r="D65" t="str">
+      <c r="D73" t="str">
         <v>People &amp; Blogs</v>
       </c>
-      <c r="E65" t="str">
-        <v>22010149</v>
-      </c>
-      <c r="F65" t="str">
+      <c r="E73" t="str">
+        <v>22010155</v>
+      </c>
+      <c r="F73" t="str">
         <v>819983</v>
       </c>
-      <c r="H65" t="str">
+      <c r="H73" t="str">
         <v>2724</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65" t="str">
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" t="str">
         <v>2023-05</v>
       </c>
-      <c r="K65">
+      <c r="K73">
         <v>36</v>
       </c>
-      <c r="L65" t="str">
+      <c r="L73" t="str">
         <v>Foot Mood</v>
       </c>
-      <c r="M65" t="str">
+      <c r="M73" t="str">
         <v>UCuYUOEXwUKBtiE1pNoB40PA</v>
       </c>
-      <c r="N65" t="str">
+      <c r="N73" t="str">
         <v>10000000</v>
       </c>
-      <c r="O65" t="str">
+      <c r="O73" t="str">
         <v>1186</v>
       </c>
-      <c r="P65">
+      <c r="P73">
         <v>2</v>
       </c>
-      <c r="Q65" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R65" t="str">
+      <c r="Q73" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R73" t="str">
         <v>https://www.youtube.com/watch?v=zNDv12Yr-_U</v>
       </c>
-      <c r="S65" t="str">
+      <c r="S73" t="str">
         <v>https://i.ytimg.com/vi/zNDv12Yr-_U/hqdefault.jpg</v>
       </c>
-      <c r="T65" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="66" xml:space="preserve">
-      <c r="A66" t="str">
+      <c r="T73" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
         <v>Funny Goalkeeper Mistakes in Football</v>
       </c>
-      <c r="B66" t="str" xml:space="preserve">
+      <c r="B74" t="str" xml:space="preserve">
         <v xml:space="preserve">Funny worst goalkeeper mistakes in football! Karius, De Gea, ter Stegen, Alisson Becker, Hugo Lloris and more..
 🎶Ampyx - Pacific Paradise
 C'mon guys subscribe!😍
 TKHD~</v>
       </c>
-      <c r="D66" t="str">
+      <c r="D74" t="str">
         <v>Sports</v>
       </c>
-      <c r="E66" t="str">
+      <c r="E74" t="str">
         <v>21705013</v>
       </c>
-      <c r="F66" t="str">
+      <c r="F74" t="str">
         <v>146900</v>
       </c>
-      <c r="H66" t="str">
+      <c r="H74" t="str">
         <v>2535</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66" t="str">
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="str">
         <v>2019-11</v>
       </c>
-      <c r="K66">
+      <c r="K74">
         <v>332</v>
       </c>
-      <c r="L66" t="str">
+      <c r="L74" t="str">
         <v>TKHD</v>
       </c>
-      <c r="M66" t="str">
+      <c r="M74" t="str">
         <v>UCSpvzqzfRAJGAWcuYjxWRbw</v>
       </c>
-      <c r="N66" t="str">
+      <c r="N74" t="str">
         <v>3460000</v>
       </c>
-      <c r="O66" t="str">
+      <c r="O74" t="str">
         <v>78</v>
       </c>
-      <c r="P66">
+      <c r="P74">
         <v>7</v>
       </c>
-      <c r="Q66" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R66" t="str">
+      <c r="Q74" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R74" t="str">
         <v>https://www.youtube.com/watch?v=_gaGX2Si0Ns</v>
       </c>
-      <c r="S66" t="str">
+      <c r="S74" t="str">
         <v>https://i.ytimg.com/vi/_gaGX2Si0Ns/hqdefault.jpg</v>
       </c>
-      <c r="T66" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
+      <c r="T74" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>FOOTBALL TRICKS ✨️ FOOTBALL SKILLS 🔥 = NEYMAR</v>
+      </c>
+      <c r="B75" t="str">
+        <v/>
+      </c>
+      <c r="D75" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E75" t="str">
+        <v>21550532</v>
+      </c>
+      <c r="F75" t="str">
+        <v>358034</v>
+      </c>
+      <c r="H75" t="str">
+        <v>3032</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-03</v>
+      </c>
+      <c r="K75">
+        <v>9</v>
+      </c>
+      <c r="L75" t="str">
+        <v>v7skills</v>
+      </c>
+      <c r="M75" t="str">
+        <v>UCAhmzTwC-8xoxL8-czI9pgw</v>
+      </c>
+      <c r="N75" t="str">
+        <v>1530000</v>
+      </c>
+      <c r="O75" t="str">
+        <v>691</v>
+      </c>
+      <c r="P75">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R75" t="str">
+        <v>https://www.youtube.com/watch?v=PG5nTidCieU</v>
+      </c>
+      <c r="S75" t="str">
+        <v>https://i.ytimg.com/vi/PG5nTidCieU/hqdefault.jpg</v>
+      </c>
+      <c r="T75" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
         <v>THIS KID IS GOING STRAIGHT TO THE LEAGUE!😳🔥</v>
       </c>
-      <c r="B67" t="str">
+      <c r="B76" t="str">
         <v/>
       </c>
-      <c r="D67" t="str">
+      <c r="D76" t="str">
         <v>Sports</v>
       </c>
-      <c r="E67" t="str">
-        <v>21543350</v>
-      </c>
-      <c r="H67" t="str">
+      <c r="E76" t="str">
+        <v>21543369</v>
+      </c>
+      <c r="H76" t="str">
         <v>4632</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67" t="str">
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="str">
         <v>2022-09</v>
       </c>
-      <c r="K67">
+      <c r="K76">
         <v>60</v>
       </c>
-      <c r="L67" t="str">
+      <c r="L76" t="str">
         <v>Aj Greene</v>
       </c>
-      <c r="M67" t="str">
+      <c r="M76" t="str">
         <v>UCMidDirOM3aBSuZHacN_GoQ</v>
       </c>
-      <c r="N67" t="str">
+      <c r="N76" t="str">
         <v>1530000</v>
       </c>
-      <c r="O67" t="str">
+      <c r="O76" t="str">
         <v>253</v>
       </c>
-      <c r="P67">
+      <c r="P76">
         <v>6</v>
       </c>
-      <c r="Q67" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R67" t="str">
+      <c r="Q76" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R76" t="str">
         <v>https://www.youtube.com/watch?v=gLAsUN7yyyA</v>
       </c>
-      <c r="S67" t="str">
+      <c r="S76" t="str">
         <v>https://i.ytimg.com/vi/gLAsUN7yyyA/hqdefault.jpg</v>
       </c>
-      <c r="T67" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>FOOTBALL TRICKS ✨️ FOOTBALL SKILLS 🔥 = NEYMAR</v>
-      </c>
-      <c r="B68" t="str">
-        <v/>
-      </c>
-      <c r="D68" t="str">
-        <v>Sports</v>
-      </c>
-      <c r="E68" t="str">
-        <v>21550347</v>
-      </c>
-      <c r="F68" t="str">
-        <v>358033</v>
-      </c>
-      <c r="H68" t="str">
-        <v>3032</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" t="str">
-        <v>2023-03</v>
-      </c>
-      <c r="K68">
-        <v>9</v>
-      </c>
-      <c r="L68" t="str">
-        <v>v7skills</v>
-      </c>
-      <c r="M68" t="str">
-        <v>UCAhmzTwC-8xoxL8-czI9pgw</v>
-      </c>
-      <c r="N68" t="str">
-        <v>1530000</v>
-      </c>
-      <c r="O68" t="str">
-        <v>691</v>
-      </c>
-      <c r="P68">
-        <v>2</v>
-      </c>
-      <c r="Q68" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R68" t="str">
-        <v>https://www.youtube.com/watch?v=PG5nTidCieU</v>
-      </c>
-      <c r="S68" t="str">
-        <v>https://i.ytimg.com/vi/PG5nTidCieU/hqdefault.jpg</v>
-      </c>
-      <c r="T68" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="69" xml:space="preserve">
-      <c r="A69" t="str">
+      <c r="T76" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="A77" t="str">
         <v>Marshmello - Unity (Official Music Video)</v>
       </c>
-      <c r="B69" t="str" xml:space="preserve">
+      <c r="B77" t="str" xml:space="preserve">
         <v xml:space="preserve">Marshmello - Unity
 Stream/Download ▶ https://marshmello.ffm.to/unity
 Official Marshmello Merch ▶ https://marshmellomusic.com
@@ -4671,60 +5109,185 @@
 Graphic Designer: Steven Andersen
 #Marshmello #unity #joytime</v>
       </c>
-      <c r="D69" t="str">
+      <c r="D77" t="str">
         <v>Music</v>
       </c>
-      <c r="E69" t="str">
-        <v>21495292</v>
-      </c>
-      <c r="F69" t="str">
-        <v>169905</v>
-      </c>
-      <c r="H69" t="str">
+      <c r="E77" t="str">
+        <v>21495495</v>
+      </c>
+      <c r="F77" t="str">
+        <v>169906</v>
+      </c>
+      <c r="H77" t="str">
         <v>2810</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="str">
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" t="str">
         <v>2023-02</v>
       </c>
-      <c r="K69">
+      <c r="K77">
         <v>201</v>
       </c>
-      <c r="L69" t="str">
+      <c r="L77" t="str">
         <v>Marshmello</v>
       </c>
-      <c r="M69" t="str">
+      <c r="M77" t="str">
         <v>UCEdvpU2pFRCVqU6yIPyTpMQ</v>
       </c>
-      <c r="N69" t="str">
+      <c r="N77" t="str">
         <v>57300000</v>
       </c>
-      <c r="O69" t="str">
+      <c r="O77" t="str">
         <v>491</v>
       </c>
-      <c r="P69">
+      <c r="P77">
         <v>9</v>
       </c>
-      <c r="Q69" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R69" t="str">
+      <c r="Q77" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R77" t="str">
         <v>https://www.youtube.com/watch?v=Ktu843qdrWE</v>
       </c>
-      <c r="S69" t="str">
+      <c r="S77" t="str">
         <v>https://i.ytimg.com/vi/Ktu843qdrWE/hqdefault.jpg</v>
       </c>
-      <c r="T69" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="70" xml:space="preserve">
-      <c r="A70" t="str">
+      <c r="T77" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="A78" t="str">
+        <v>France National Football Team Hype Video | Ramenez la coupe à la maison</v>
+      </c>
+      <c r="B78" t="str" xml:space="preserve">
+        <v xml:space="preserve">Highlights from the French National Football Team
+Song: "Ramenez la coupe à la maison" - Vegedream
+Thanks for watching!
+Subscribe for more football highlights and videos
+And remember to turn on notifications so you don’t miss any new content!
+Check out more content on my other pages
+Instagram: https://www.instagram.com/shanny.fc/?hl=en
+TikTok: https://www.tiktok.com/@shannyfc?_t=8oDkvnsxvVW&amp;_r=1 
+#France #FFF #Kante #Mbappe #Pogba #worldcup #euros #football #soccer #francenationalteam #equipedefrance #ngolokante #paulpogba #kylianmbappe #futbol</v>
+      </c>
+      <c r="D78" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E78" t="str">
+        <v>21509948</v>
+      </c>
+      <c r="F78" t="str">
+        <v>244987</v>
+      </c>
+      <c r="H78" t="str">
+        <v>4665</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2021-05</v>
+      </c>
+      <c r="K78">
+        <v>237</v>
+      </c>
+      <c r="L78" t="str">
+        <v>shanny fc</v>
+      </c>
+      <c r="M78" t="str">
+        <v>UCcObpanAQl5FVVUhu02sA6w</v>
+      </c>
+      <c r="N78" t="str">
+        <v>96400</v>
+      </c>
+      <c r="O78" t="str">
+        <v>474</v>
+      </c>
+      <c r="P78">
+        <v>10</v>
+      </c>
+      <c r="Q78" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R78" t="str">
+        <v>https://www.youtube.com/watch?v=ZOLhyQs3RrQ</v>
+      </c>
+      <c r="S78" t="str">
+        <v>https://i.ytimg.com/vi/ZOLhyQs3RrQ/hqdefault.jpg</v>
+      </c>
+      <c r="T78" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
+      <c r="A79" t="str">
+        <v>Haaland's song #shorts</v>
+      </c>
+      <c r="B79" t="str" xml:space="preserve">
+        <v xml:space="preserve">Follow me on
+www.omar-momani.com
+Facebook https://www.facebook.com/Omar.Momani.Cartoons
+Instagram https://www.instagram.com/omarmomani
+Twitter https://twitter.com/omomani
+Redbubble https://www.redbubble.com/people/omarmomani/</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E79" t="str">
+        <v>21002855</v>
+      </c>
+      <c r="F79" t="str">
+        <v>871361</v>
+      </c>
+      <c r="H79" t="str">
+        <v>4451</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-09</v>
+      </c>
+      <c r="K79">
+        <v>30</v>
+      </c>
+      <c r="L79" t="str">
+        <v>Omar Momani</v>
+      </c>
+      <c r="M79" t="str">
+        <v>UCggLA1MPnDmXpNKQ5nlNJPg</v>
+      </c>
+      <c r="N79" t="str">
+        <v>1280000</v>
+      </c>
+      <c r="O79" t="str">
+        <v>805</v>
+      </c>
+      <c r="P79">
+        <v>18</v>
+      </c>
+      <c r="Q79" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R79" t="str">
+        <v>https://www.youtube.com/watch?v=li0oJraF02I</v>
+      </c>
+      <c r="S79" t="str">
+        <v>https://i.ytimg.com/vi/li0oJraF02I/hqdefault.jpg</v>
+      </c>
+      <c r="T79" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
+      <c r="A80" t="str">
         <v>I Used Every World Cup Football (1930 - 2022)</v>
       </c>
-      <c r="B70" t="str" xml:space="preserve">
+      <c r="B80" t="str" xml:space="preserve">
         <v xml:space="preserve">Thank u @DavidMC10 for showing me how football should be played LMAO
 Credit to @chrismd10 for the original idea when he did it with premier league footballs!
 Twitter https://twitter.com/futcrunch
@@ -4732,113 +5295,113 @@
 TikTok https://www.tiktok.com/@futcrunch
 Second Channel (pls sub) https://www.youtube.com/channel/UCrsuEI3mvU5pN2PEbwW9F9w</v>
       </c>
-      <c r="D70" t="str">
+      <c r="D80" t="str">
         <v>Sports</v>
       </c>
-      <c r="E70" t="str">
-        <v>20888011</v>
-      </c>
-      <c r="F70" t="str">
-        <v>124541</v>
-      </c>
-      <c r="H70" t="str">
+      <c r="E80" t="str">
+        <v>20888377</v>
+      </c>
+      <c r="F80" t="str">
+        <v>124543</v>
+      </c>
+      <c r="H80" t="str">
         <v>1466</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" t="str">
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="str">
         <v>2022-11</v>
       </c>
-      <c r="K70">
+      <c r="K80">
         <v>650</v>
       </c>
-      <c r="L70" t="str">
+      <c r="L80" t="str">
         <v>Futcrunch</v>
       </c>
-      <c r="M70" t="str">
+      <c r="M80" t="str">
         <v>UCop6604O_QwmEum6e0Riz2w</v>
       </c>
-      <c r="N70" t="str">
+      <c r="N80" t="str">
         <v>4970000</v>
       </c>
-      <c r="O70" t="str">
+      <c r="O80" t="str">
         <v>714</v>
       </c>
-      <c r="P70">
+      <c r="P80">
         <v>6</v>
       </c>
-      <c r="Q70" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R70" t="str">
+      <c r="Q80" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R80" t="str">
         <v>https://www.youtube.com/watch?v=Ec4lE7H5jyc</v>
       </c>
-      <c r="S70" t="str">
+      <c r="S80" t="str">
         <v>https://i.ytimg.com/vi/Ec4lE7H5jyc/hqdefault.jpg</v>
       </c>
-      <c r="T70" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
+      <c r="T80" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
         <v>ASMR Practice 🔊⚽️ #football #futbol #satisfying #asmr #asmrsounds #soccer #trending</v>
       </c>
-      <c r="B71" t="str">
+      <c r="B81" t="str">
         <v/>
       </c>
-      <c r="D71" t="str">
+      <c r="D81" t="str">
         <v>Unknown</v>
       </c>
-      <c r="E71" t="str">
-        <v>20532109</v>
-      </c>
-      <c r="H71" t="str">
+      <c r="E81" t="str">
+        <v>20532404</v>
+      </c>
+      <c r="H81" t="str">
         <v>1322</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71" t="str">
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" t="str">
         <v>2022-07</v>
       </c>
-      <c r="K71">
+      <c r="K81">
         <v>60</v>
       </c>
-      <c r="L71" t="str">
+      <c r="L81" t="str">
         <v>Dougy Gee</v>
       </c>
-      <c r="M71" t="str">
+      <c r="M81" t="str">
         <v>UC_LbSodMEwoWS_wwcwzH7BA</v>
       </c>
-      <c r="N71" t="str">
+      <c r="N81" t="str">
         <v>642000</v>
       </c>
-      <c r="O71" t="str">
+      <c r="O81" t="str">
         <v>278</v>
       </c>
-      <c r="P71">
+      <c r="P81">
         <v>6</v>
       </c>
-      <c r="Q71" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R71" t="str">
+      <c r="Q81" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R81" t="str">
         <v>https://www.youtube.com/watch?v=WavB9zXVSao</v>
       </c>
-      <c r="S71" t="str">
+      <c r="S81" t="str">
         <v>https://i.ytimg.com/vi/WavB9zXVSao/hqdefault.jpg</v>
       </c>
-      <c r="T71" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="72" xml:space="preserve">
-      <c r="A72" t="str">
+      <c r="T81" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
+      <c r="A82" t="str">
         <v>3 CRAZIEST Goals In Football History</v>
       </c>
-      <c r="B72" t="str" xml:space="preserve">
+      <c r="B82" t="str" xml:space="preserve">
         <v xml:space="preserve">Follow Our Social Media:
 Tik Tok: @thekickflix
 Instagram: https://www.instagram.com/thekickflix/ 
@@ -4846,119 +5409,175 @@
 Snapchat: thekickflix
 #short #FIFA #Football</v>
       </c>
-      <c r="D72" t="str">
+      <c r="D82" t="str">
         <v>Sports</v>
       </c>
-      <c r="E72" t="str">
-        <v>20388523</v>
-      </c>
-      <c r="F72" t="str">
-        <v>686753</v>
-      </c>
-      <c r="H72" t="str">
+      <c r="E82" t="str">
+        <v>20388568</v>
+      </c>
+      <c r="F82" t="str">
+        <v>686755</v>
+      </c>
+      <c r="H82" t="str">
         <v>3410</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72" t="str">
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="str">
         <v>2023-03</v>
       </c>
-      <c r="K72">
+      <c r="K82">
         <v>45</v>
       </c>
-      <c r="L72" t="str">
+      <c r="L82" t="str">
         <v>KickFlix</v>
       </c>
-      <c r="M72" t="str">
+      <c r="M82" t="str">
         <v>UCXsJyNCjFthPLQ9U5KI-Frg</v>
       </c>
-      <c r="N72" t="str">
+      <c r="N82" t="str">
         <v>1370000</v>
       </c>
-      <c r="O72" t="str">
+      <c r="O82" t="str">
         <v>65</v>
       </c>
-      <c r="P72">
+      <c r="P82">
         <v>11</v>
       </c>
-      <c r="Q72" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R72" t="str">
+      <c r="Q82" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R82" t="str">
         <v>https://www.youtube.com/watch?v=ZS_m4Ddr79I</v>
       </c>
-      <c r="S72" t="str">
+      <c r="S82" t="str">
         <v>https://i.ytimg.com/vi/ZS_m4Ddr79I/hqdefault.jpg</v>
       </c>
-      <c r="T72" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="73" xml:space="preserve">
-      <c r="A73" t="str">
+      <c r="T82" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
+      <c r="A83" t="str">
         <v>Novo Comercial da Nike ao Som do mandelão | Copa do Mundo</v>
       </c>
-      <c r="B73" t="str" xml:space="preserve">
+      <c r="B83" t="str" xml:space="preserve">
         <v xml:space="preserve">Novo comercial da Nike: "Nike FC Presents the Footballverse" Editado. musica BR
 Funkzão top: "Se você nao quer passa a vez"
 Ignore Tags:
 Nike,football,football highlights,2022 fifa world cup,copa do mundo,Nike, football,football highlights,2022 fifa world cup,copa do mundo,Nike,football,football highlights,fifa,fifa world cup,2022 fifa world cup,fifa world cup highlights,comercial,qatar 2022,cristiano ronaldo,brasil,neymar,copa do mundo,barcelona,messi,lionel messi,messi skills,canelo vs messi,ronaldinho,ronaldo,ronaldo interview,nike commercial,nike air force 1,nike outlet steals,mandelão, coreia do sul e brasil, brasil,</v>
       </c>
-      <c r="D73" t="str">
+      <c r="D83" t="str">
         <v>Sports</v>
       </c>
-      <c r="E73" t="str">
-        <v>19977332</v>
-      </c>
-      <c r="F73" t="str">
-        <v>102874</v>
-      </c>
-      <c r="H73" t="str">
+      <c r="E83" t="str">
+        <v>19978419</v>
+      </c>
+      <c r="F83" t="str">
+        <v>102880</v>
+      </c>
+      <c r="H83" t="str">
         <v>1148</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73" t="str">
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="str">
         <v>2022-12</v>
       </c>
-      <c r="K73">
+      <c r="K83">
         <v>160</v>
       </c>
-      <c r="L73" t="str">
+      <c r="L83" t="str">
         <v>PaezFPS</v>
       </c>
-      <c r="M73" t="str">
+      <c r="M83" t="str">
         <v>UC8XQVYnWLBhPed2IzwRE10A</v>
       </c>
-      <c r="N73" t="str">
+      <c r="N83" t="str">
         <v>26800</v>
       </c>
-      <c r="O73" t="str">
+      <c r="O83" t="str">
         <v>2</v>
       </c>
-      <c r="P73">
+      <c r="P83">
         <v>5</v>
       </c>
-      <c r="Q73" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R73" t="str">
+      <c r="Q83" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R83" t="str">
         <v>https://www.youtube.com/watch?v=13lKWz4y-I0</v>
       </c>
-      <c r="S73" t="str">
+      <c r="S83" t="str">
         <v>https://i.ytimg.com/vi/13lKWz4y-I0/hqdefault.jpg</v>
       </c>
-      <c r="T73" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="74" xml:space="preserve">
-      <c r="A74" t="str">
+      <c r="T83" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Your Griddy If You…</v>
+      </c>
+      <c r="B84" t="str">
+        <v/>
+      </c>
+      <c r="D84" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E84" t="str">
+        <v>19633911</v>
+      </c>
+      <c r="F84" t="str">
+        <v>610384</v>
+      </c>
+      <c r="H84" t="str">
+        <v>66515</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-11</v>
+      </c>
+      <c r="K84">
+        <v>21</v>
+      </c>
+      <c r="L84" t="str">
+        <v>TjDprod</v>
+      </c>
+      <c r="M84" t="str">
+        <v>UC7SOsIu_9yq5rTJmEieak_w</v>
+      </c>
+      <c r="N84" t="str">
+        <v>381000</v>
+      </c>
+      <c r="O84" t="str">
+        <v>878</v>
+      </c>
+      <c r="P84">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R84" t="str">
+        <v>https://www.youtube.com/watch?v=kzmbsKQeu3Y</v>
+      </c>
+      <c r="S84" t="str">
+        <v>https://i.ytimg.com/vi/kzmbsKQeu3Y/hqdefault.jpg</v>
+      </c>
+      <c r="T84" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="85" xml:space="preserve">
+      <c r="A85" t="str">
         <v>Cristiano Ronaldo ► "DANZA KUDURO" - Slowed &amp; Reverb • Skills &amp; Goals 2023 | HD</v>
       </c>
-      <c r="B74" t="str" xml:space="preserve">
+      <c r="B85" t="str" xml:space="preserve">
         <v xml:space="preserve">📝 Cristiano Ronaldo (2022-23)
 • Al-Nassr
 • Portugal
@@ -5001,116 +5620,116 @@
 #KIANO7HD #DanzaKuduro #CR7 #DonOmar #Cristiano #Ronaldo #CristianoRonaldo #Portugal #AlNassr
 ©KIANO7HD</v>
       </c>
-      <c r="D74" t="str">
+      <c r="D85" t="str">
         <v>Sports</v>
       </c>
-      <c r="E74" t="str">
-        <v>19414650</v>
-      </c>
-      <c r="F74" t="str">
-        <v>146785</v>
-      </c>
-      <c r="H74" t="str">
+      <c r="E85" t="str">
+        <v>19415262</v>
+      </c>
+      <c r="F85" t="str">
+        <v>146788</v>
+      </c>
+      <c r="H85" t="str">
         <v>4268</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74" t="str">
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="str">
         <v>2023-05</v>
       </c>
-      <c r="K74">
+      <c r="K85">
         <v>327</v>
       </c>
-      <c r="L74" t="str">
+      <c r="L85" t="str">
         <v>KIANO7HD</v>
       </c>
-      <c r="M74" t="str">
+      <c r="M85" t="str">
         <v>UCX4Kvq7rjEvEeFG-DMRxrHw</v>
       </c>
-      <c r="N74" t="str">
+      <c r="N85" t="str">
         <v>433000</v>
       </c>
-      <c r="O74" t="str">
+      <c r="O85" t="str">
         <v>104</v>
       </c>
-      <c r="P74">
+      <c r="P85">
         <v>3</v>
       </c>
-      <c r="Q74" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R74" t="str">
+      <c r="Q85" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R85" t="str">
         <v>https://www.youtube.com/watch?v=759S9__g58c</v>
       </c>
-      <c r="S74" t="str">
+      <c r="S85" t="str">
         <v>https://i.ytimg.com/vi/759S9__g58c/hqdefault.jpg</v>
       </c>
-      <c r="T74" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
+      <c r="T85" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
         <v>Big Difference 🥶</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B86" t="str">
         <v/>
       </c>
-      <c r="D75" t="str">
+      <c r="D86" t="str">
         <v>People &amp; Blogs</v>
       </c>
-      <c r="E75" t="str">
-        <v>18910549</v>
-      </c>
-      <c r="F75" t="str">
-        <v>746675</v>
-      </c>
-      <c r="H75" t="str">
+      <c r="E86" t="str">
+        <v>18911459</v>
+      </c>
+      <c r="F86" t="str">
+        <v>746685</v>
+      </c>
+      <c r="H86" t="str">
         <v>4514</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75" t="str">
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="str">
         <v>2024-07</v>
       </c>
-      <c r="K75">
+      <c r="K86">
         <v>42</v>
       </c>
-      <c r="L75" t="str">
+      <c r="L86" t="str">
         <v>Foot Mood</v>
       </c>
-      <c r="M75" t="str">
+      <c r="M86" t="str">
         <v>UCuYUOEXwUKBtiE1pNoB40PA</v>
       </c>
-      <c r="N75" t="str">
+      <c r="N86" t="str">
         <v>10000000</v>
       </c>
-      <c r="O75" t="str">
+      <c r="O86" t="str">
         <v>1186</v>
       </c>
-      <c r="P75">
+      <c r="P86">
         <v>2</v>
       </c>
-      <c r="Q75" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R75" t="str">
+      <c r="Q86" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R86" t="str">
         <v>https://www.youtube.com/watch?v=4Ilrc75MiFg</v>
       </c>
-      <c r="S75" t="str">
+      <c r="S86" t="str">
         <v>https://i.ytimg.com/vi/4Ilrc75MiFg/hqdefault.jpg</v>
       </c>
-      <c r="T75" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="76" xml:space="preserve">
-      <c r="A76" t="str">
+      <c r="T86" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
+      <c r="A87" t="str">
         <v>What Football Players ACTUALLY Eat</v>
       </c>
-      <c r="B76" t="str" xml:space="preserve">
+      <c r="B87" t="str" xml:space="preserve">
         <v xml:space="preserve">Most football players eat healthy.. But Cristiano Ronaldo, Lionel Messi, Sergio Ramos and Robert Lewandowski have stories you won't believe.. 
 Follow Our Social Media:
 Tik Tok: @thekickflix
@@ -5121,287 +5740,239 @@
 Old voice and editor of SportHub, Rebound Central &amp; REBOUND
 *Copyright Disclaimer Under Section 107 of the Copyright Act 1976, allowance is made for "fair use" for purposes such as criticism, comment, news reporting, teaching, scholarship, and research. Fair use is a use permitted by copyright statute that might otherwise be infringing. Non-profit, educational or personal use tips the balance in favor of fair use. No copyright infringement intended. ALL RIGHTS BELONG TO THEIR RESPECTIVE OWNERS</v>
       </c>
-      <c r="D76" t="str">
+      <c r="D87" t="str">
         <v>Sports</v>
       </c>
-      <c r="E76" t="str">
-        <v>18767445</v>
-      </c>
-      <c r="F76" t="str">
+      <c r="E87" t="str">
+        <v>18767462</v>
+      </c>
+      <c r="F87" t="str">
         <v>174984</v>
       </c>
-      <c r="H76" t="str">
+      <c r="H87" t="str">
         <v>3186</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76" t="str">
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" t="str">
         <v>2021-08</v>
       </c>
-      <c r="K76">
+      <c r="K87">
         <v>883</v>
       </c>
-      <c r="L76" t="str">
+      <c r="L87" t="str">
         <v>KickFlix</v>
       </c>
-      <c r="M76" t="str">
+      <c r="M87" t="str">
         <v>UCXsJyNCjFthPLQ9U5KI-Frg</v>
       </c>
-      <c r="N76" t="str">
+      <c r="N87" t="str">
         <v>1370000</v>
       </c>
-      <c r="O76" t="str">
+      <c r="O87" t="str">
         <v>65</v>
       </c>
-      <c r="P76">
+      <c r="P87">
         <v>11</v>
       </c>
-      <c r="Q76" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R76" t="str">
+      <c r="Q87" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R87" t="str">
         <v>https://www.youtube.com/watch?v=zyTqElwSG5w</v>
       </c>
-      <c r="S76" t="str">
+      <c r="S87" t="str">
         <v>https://i.ytimg.com/vi/zyTqElwSG5w/hqdefault.jpg</v>
       </c>
-      <c r="T76" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>Revenge Moments in Football 😈</v>
-      </c>
-      <c r="B77" t="str">
+      <c r="T87" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="88" xml:space="preserve">
+      <c r="A88" t="str">
+        <v>Legendary Red Cards in Football #3</v>
+      </c>
+      <c r="B88" t="str" xml:space="preserve">
+        <v xml:space="preserve">Legendary Red Cards in Football #3 video with you. The video features names like Roy Keane, Haaland, Scholes, Motta and Charlie Mulgrew.
+Enjoy the video..
+Watch My Other Videos:
+Most Funny Moments in Sports #7 ► https://youtu.be/_V289acpGyU
+Embarrassing Moments in Sports! ► https://youtu.be/6h8eU-atwxE
+Ball Boys/Girls Moments ► https://youtu.be/GaUYvNPvEVU
+Most Funny and Cute Moments in Fans ► https://youtu.be/QjMCeGAJFvM
+Funny Penalty Kicks ► https://youtu.be/ppYjIS5YD3A
+Most Funny Moments With Reporters in Sports! ► https://youtu.be/4CBC74LSO9k
+Impossible Moments in Sports #2 ► https://youtu.be/kgPT9_TLxEk
+👍 IF YOU LIKE SOCCER JOIN THE CHANNEL: https://bit.ly/2Z8C9Be
+Spor Delisi HD © 2023</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="E88" t="str">
+        <v>18520761</v>
+      </c>
+      <c r="F88" t="str">
+        <v>53514</v>
+      </c>
+      <c r="H88" t="str">
+        <v>1499</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-03</v>
+      </c>
+      <c r="K88">
+        <v>469</v>
+      </c>
+      <c r="L88" t="str">
+        <v>Spor Delisi HD</v>
+      </c>
+      <c r="M88" t="str">
+        <v>UCRQMZQ0R561looJMoxPmRoQ</v>
+      </c>
+      <c r="N88" t="str">
+        <v>1090000</v>
+      </c>
+      <c r="O88" t="str">
+        <v>105</v>
+      </c>
+      <c r="P88">
+        <v>8</v>
+      </c>
+      <c r="Q88" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R88" t="str">
+        <v>https://www.youtube.com/watch?v=OnJv9sq-418</v>
+      </c>
+      <c r="S88" t="str">
+        <v>https://i.ytimg.com/vi/OnJv9sq-418/hqdefault.jpg</v>
+      </c>
+      <c r="T88" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>LEARN THIS SKILL⚽️Skill Tutorial #football #soccer #shorts #footballskills #soccerskills</v>
+      </c>
+      <c r="B89" t="str">
         <v/>
       </c>
-      <c r="D77" t="str">
+      <c r="D89" t="str">
         <v>Sports</v>
       </c>
-      <c r="E77" t="str">
-        <v>18731905</v>
-      </c>
-      <c r="F77" t="str">
-        <v>875608</v>
-      </c>
-      <c r="H77" t="str">
-        <v>816</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" t="str">
-        <v>2023-10</v>
-      </c>
-      <c r="K77">
-        <v>44</v>
-      </c>
-      <c r="L77" t="str">
-        <v>Fearron</v>
-      </c>
-      <c r="M77" t="str">
-        <v>UCpqc5eAeEeO3mxb_xH2RHSA</v>
-      </c>
-      <c r="N77" t="str">
-        <v>4960000</v>
-      </c>
-      <c r="O77" t="str">
-        <v>656</v>
-      </c>
-      <c r="P77">
-        <v>3</v>
-      </c>
-      <c r="Q77" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R77" t="str">
-        <v>https://www.youtube.com/watch?v=t1m5mBQWFfg</v>
-      </c>
-      <c r="S77" t="str">
-        <v>https://i.ytimg.com/vi/t1m5mBQWFfg/hqdefault.jpg</v>
-      </c>
-      <c r="T77" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>LEARN THIS SKILL⚽️Skill Tutorial #football #soccer #shorts #footballskills #soccerskills</v>
-      </c>
-      <c r="B78" t="str">
+      <c r="E89" t="str">
+        <v>18475252</v>
+      </c>
+      <c r="F89" t="str">
+        <v>421951</v>
+      </c>
+      <c r="H89" t="str">
+        <v>433</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-11</v>
+      </c>
+      <c r="K89">
+        <v>9</v>
+      </c>
+      <c r="L89" t="str">
+        <v>Takuya | Football Skills Coach</v>
+      </c>
+      <c r="M89" t="str">
+        <v>UCplP12cCtCl1uqVAMSzLjNw</v>
+      </c>
+      <c r="N89" t="str">
+        <v>911000</v>
+      </c>
+      <c r="O89" t="str">
+        <v>695</v>
+      </c>
+      <c r="P89">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R89" t="str">
+        <v>https://www.youtube.com/watch?v=wupu6iivl3Y</v>
+      </c>
+      <c r="S89" t="str">
+        <v>https://i.ytimg.com/vi/wupu6iivl3Y/hqdefault.jpg</v>
+      </c>
+      <c r="T89" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Ronaldinho évolution 👁</v>
+      </c>
+      <c r="B90" t="str">
         <v/>
       </c>
-      <c r="D78" t="str">
-        <v>Sports</v>
-      </c>
-      <c r="E78" t="str">
-        <v>18475112</v>
-      </c>
-      <c r="F78" t="str">
-        <v>421950</v>
-      </c>
-      <c r="H78" t="str">
-        <v>433</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" t="str">
-        <v>2022-11</v>
-      </c>
-      <c r="K78">
-        <v>9</v>
-      </c>
-      <c r="L78" t="str">
-        <v>Takuya | Football Skills Coach</v>
-      </c>
-      <c r="M78" t="str">
-        <v>UCplP12cCtCl1uqVAMSzLjNw</v>
-      </c>
-      <c r="N78" t="str">
-        <v>911000</v>
-      </c>
-      <c r="O78" t="str">
-        <v>695</v>
-      </c>
-      <c r="P78">
+      <c r="D90" t="str">
+        <v>People &amp; Blogs</v>
+      </c>
+      <c r="E90" t="str">
+        <v>18203147</v>
+      </c>
+      <c r="F90" t="str">
+        <v>780037</v>
+      </c>
+      <c r="H90" t="str">
+        <v>1612</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12</v>
+      </c>
+      <c r="K90">
+        <v>42</v>
+      </c>
+      <c r="L90" t="str">
+        <v>épique👁13 A(football⚽️)</v>
+      </c>
+      <c r="M90" t="str">
+        <v>UCDwtIOpVdBluEguA1PPX_PA</v>
+      </c>
+      <c r="N90" t="str">
+        <v>488000</v>
+      </c>
+      <c r="O90" t="str">
+        <v>30</v>
+      </c>
+      <c r="P90">
         <v>2</v>
       </c>
-      <c r="Q78" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R78" t="str">
-        <v>https://www.youtube.com/watch?v=wupu6iivl3Y</v>
-      </c>
-      <c r="S78" t="str">
-        <v>https://i.ytimg.com/vi/wupu6iivl3Y/hqdefault.jpg</v>
-      </c>
-      <c r="T78" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="79" xml:space="preserve">
-      <c r="A79" t="str">
-        <v>Cristiano Ronaldo, Ronaldinho Gaúcho, Neymar jr, Phil Foden#football#footballshorts#youtube</v>
-      </c>
-      <c r="B79" t="str" xml:space="preserve">
-        <v xml:space="preserve">Cristiano Ronaldo, Ronaldinho Gaúcho, Neymar jr, Phil Foden#football#footballshorts#youtube
-Hi, friends! I'm "FOOTBALL VS WORLD" I create funny videos with different football players.
-All my video features materials protected by the Fair Use guidelines of Section 107 of Copyright Act. It takes about 4-5 hours to create these videos so that my viewers can feel the difference between the original video and the video I created.
-The audio and video sources in this video were created in such a way that the viewer hears and sees the new UNIQUE content.❤️‍🩹🥰</v>
-      </c>
-      <c r="D79" t="str">
-        <v>People &amp; Blogs</v>
-      </c>
-      <c r="E79" t="str">
-        <v>18374399</v>
-      </c>
-      <c r="F79" t="str">
-        <v>1236159</v>
-      </c>
-      <c r="H79" t="str">
-        <v>4958</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79" t="str">
-        <v>2024-08</v>
-      </c>
-      <c r="K79">
-        <v>45</v>
-      </c>
-      <c r="L79" t="str">
-        <v xml:space="preserve">FOOTBALL VS WORLD </v>
-      </c>
-      <c r="M79" t="str">
-        <v>UCGIPyUHujkHlqOpMYrsIG6Q</v>
-      </c>
-      <c r="N79" t="str">
-        <v>2370000</v>
-      </c>
-      <c r="O79" t="str">
-        <v>348</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R79" t="str">
-        <v>https://www.youtube.com/watch?v=6u5CZ1kmWug</v>
-      </c>
-      <c r="S79" t="str">
-        <v>https://i.ytimg.com/vi/6u5CZ1kmWug/hqdefault.jpg</v>
-      </c>
-      <c r="T79" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>Ronaldinho évolution 👁</v>
-      </c>
-      <c r="B80" t="str">
-        <v/>
-      </c>
-      <c r="D80" t="str">
-        <v>People &amp; Blogs</v>
-      </c>
-      <c r="E80" t="str">
-        <v>18203142</v>
-      </c>
-      <c r="F80" t="str">
-        <v>780036</v>
-      </c>
-      <c r="H80" t="str">
-        <v>1612</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80" t="str">
-        <v>2022-12</v>
-      </c>
-      <c r="K80">
-        <v>42</v>
-      </c>
-      <c r="L80" t="str">
-        <v>épique👁13 A(football⚽️)</v>
-      </c>
-      <c r="M80" t="str">
-        <v>UCDwtIOpVdBluEguA1PPX_PA</v>
-      </c>
-      <c r="N80" t="str">
-        <v>488000</v>
-      </c>
-      <c r="O80" t="str">
-        <v>30</v>
-      </c>
-      <c r="P80">
-        <v>2</v>
-      </c>
-      <c r="Q80" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R80" t="str">
+      <c r="Q90" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R90" t="str">
         <v>https://www.youtube.com/watch?v=GN-bhbpCMQI</v>
       </c>
-      <c r="S80" t="str">
+      <c r="S90" t="str">
         <v>https://i.ytimg.com/vi/GN-bhbpCMQI/hqdefault.jpg</v>
       </c>
-      <c r="T80" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="81" xml:space="preserve">
-      <c r="A81" t="str">
+      <c r="T90" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
+      <c r="A91" t="str">
         <v>20 min EPIC FOOTBALL vs Stickman  | Stickman Dismounting funny and epic moments | Best Falls #152</v>
       </c>
-      <c r="B81" t="str" xml:space="preserve">
+      <c r="B91" t="str" xml:space="preserve">
         <v xml:space="preserve">Thanks For Watching
 BEST FALLS | Stickman Dismounting funny and epic moments | Like a boss compilation #
 This Video is Creating Videos For Mature of 12+
@@ -5419,1076 +5990,480 @@
 #stickmandismountbestmoments
 #stickmandismountingfunnymoments</v>
       </c>
-      <c r="D81" t="str">
+      <c r="D91" t="str">
         <v>Gaming</v>
       </c>
-      <c r="E81" t="str">
-        <v>18014512</v>
-      </c>
-      <c r="F81" t="str">
+      <c r="E91" t="str">
+        <v>18014691</v>
+      </c>
+      <c r="F91" t="str">
         <v>65609</v>
       </c>
-      <c r="H81" t="str">
+      <c r="H91" t="str">
         <v>1241</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81" t="str">
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="str">
         <v>2023-03</v>
       </c>
-      <c r="K81">
+      <c r="K91">
         <v>1191</v>
       </c>
-      <c r="L81" t="str">
+      <c r="L91" t="str">
         <v>RADIAL STICK</v>
       </c>
-      <c r="M81" t="str">
+      <c r="M91" t="str">
         <v>UCeIWDGIleMJB5gSQbvCiO2A</v>
       </c>
-      <c r="N81" t="str">
+      <c r="N91" t="str">
         <v>279000</v>
       </c>
-      <c r="O81" t="str">
+      <c r="O91" t="str">
         <v>448</v>
       </c>
-      <c r="P81">
+      <c r="P91">
         <v>2</v>
       </c>
-      <c r="Q81" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R81" t="str">
+      <c r="Q91" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R91" t="str">
         <v>https://www.youtube.com/watch?v=F2fg_RmUKQ0</v>
       </c>
-      <c r="S81" t="str">
+      <c r="S91" t="str">
         <v>https://i.ytimg.com/vi/F2fg_RmUKQ0/hqdefault.jpg</v>
       </c>
-      <c r="T81" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
+      <c r="T91" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
         <v>Mbappe vs Fastest Defenders in Football🥵⚡️</v>
       </c>
-      <c r="B82" t="str">
+      <c r="B92" t="str">
         <v/>
       </c>
-      <c r="D82" t="str">
+      <c r="D92" t="str">
         <v>Sports</v>
       </c>
-      <c r="E82" t="str">
-        <v>17873691</v>
-      </c>
-      <c r="F82" t="str">
-        <v>683513</v>
-      </c>
-      <c r="H82" t="str">
+      <c r="E92" t="str">
+        <v>17873860</v>
+      </c>
+      <c r="F92" t="str">
+        <v>683522</v>
+      </c>
+      <c r="H92" t="str">
         <v>1572</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" t="str">
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="str">
         <v>2024-05</v>
       </c>
-      <c r="K82">
+      <c r="K92">
         <v>25</v>
       </c>
-      <c r="L82" t="str">
+      <c r="L92" t="str">
         <v>SkillerHome</v>
       </c>
-      <c r="M82" t="str">
+      <c r="M92" t="str">
         <v>UCYBrp4s7-BnHyRwg2N19REw</v>
       </c>
-      <c r="N82" t="str">
+      <c r="N92" t="str">
         <v>1490000</v>
       </c>
-      <c r="O82" t="str">
+      <c r="O92" t="str">
         <v>313</v>
       </c>
-      <c r="P82">
+      <c r="P92">
         <v>6</v>
       </c>
-      <c r="Q82" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R82" t="str">
+      <c r="Q92" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R92" t="str">
         <v>https://www.youtube.com/watch?v=A1ixKrHA9_I</v>
       </c>
-      <c r="S82" t="str">
+      <c r="S92" t="str">
         <v>https://i.ytimg.com/vi/A1ixKrHA9_I/hqdefault.jpg</v>
       </c>
-      <c r="T82" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="str">
+      <c r="T92" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
         <v>2 skills that make you a baller 💯 #football #soccer #skills</v>
       </c>
-      <c r="B83" t="str">
+      <c r="B93" t="str">
         <v/>
       </c>
-      <c r="D83" t="str">
+      <c r="D93" t="str">
         <v>Sports</v>
       </c>
-      <c r="E83" t="str">
-        <v>17708797</v>
-      </c>
-      <c r="F83" t="str">
-        <v>543980</v>
-      </c>
-      <c r="H83" t="str">
+      <c r="E93" t="str">
+        <v>17708977</v>
+      </c>
+      <c r="F93" t="str">
+        <v>543984</v>
+      </c>
+      <c r="H93" t="str">
         <v>2575</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83" t="str">
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" t="str">
         <v>2022-09</v>
       </c>
-      <c r="K83">
+      <c r="K93">
         <v>10</v>
       </c>
-      <c r="L83" t="str">
+      <c r="L93" t="str">
         <v>Radheya Marca</v>
       </c>
-      <c r="M83" t="str">
+      <c r="M93" t="str">
         <v>UCPwkISJgK5PdMZ08D9O3XsA</v>
       </c>
-      <c r="N83" t="str">
+      <c r="N93" t="str">
         <v>1120000</v>
       </c>
-      <c r="O83" t="str">
+      <c r="O93" t="str">
         <v>1035</v>
       </c>
-      <c r="P83">
+      <c r="P93">
         <v>3</v>
       </c>
-      <c r="Q83" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R83" t="str">
+      <c r="Q93" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R93" t="str">
         <v>https://www.youtube.com/watch?v=b9f-QdVAsaY</v>
       </c>
-      <c r="S83" t="str">
+      <c r="S93" t="str">
         <v>https://i.ytimg.com/vi/b9f-QdVAsaY/hqdefault.jpg</v>
       </c>
-      <c r="T83" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
+      <c r="T93" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
         <v>ASMR ⚽️🔊. #ASMR #football #training #asmrsounds #soccer</v>
       </c>
-      <c r="B84" t="str">
+      <c r="B94" t="str">
         <v/>
       </c>
-      <c r="D84" t="str">
+      <c r="D94" t="str">
         <v>Sports</v>
       </c>
-      <c r="E84" t="str">
-        <v>17666391</v>
-      </c>
-      <c r="H84" t="str">
+      <c r="E94" t="str">
+        <v>17666493</v>
+      </c>
+      <c r="H94" t="str">
         <v>2158</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84" t="str">
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="str">
         <v>2023-02</v>
       </c>
-      <c r="K84">
+      <c r="K94">
         <v>60</v>
       </c>
-      <c r="L84" t="str">
+      <c r="L94" t="str">
         <v>Дулат Ғаниев</v>
       </c>
-      <c r="M84" t="str">
+      <c r="M94" t="str">
         <v>UCdIHvomdUSdTvRmbIM0eQMg</v>
       </c>
-      <c r="N84" t="str">
+      <c r="N94" t="str">
         <v>156000</v>
       </c>
-      <c r="O84" t="str">
+      <c r="O94" t="str">
         <v>72</v>
       </c>
-      <c r="P84">
+      <c r="P94">
         <v>2</v>
       </c>
-      <c r="Q84" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R84" t="str">
+      <c r="Q94" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R94" t="str">
         <v>https://www.youtube.com/watch?v=o7pH2_JTmSM</v>
       </c>
-      <c r="S84" t="str">
+      <c r="S94" t="str">
         <v>https://i.ytimg.com/vi/o7pH2_JTmSM/hqdefault.jpg</v>
       </c>
-      <c r="T84" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="str">
+      <c r="T94" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
         <v>Maradona speed 🥶</v>
       </c>
-      <c r="B85" t="str">
+      <c r="B95" t="str">
         <v/>
       </c>
-      <c r="D85" t="str">
+      <c r="D95" t="str">
         <v>People &amp; Blogs</v>
       </c>
-      <c r="E85" t="str">
-        <v>17608979</v>
-      </c>
-      <c r="F85" t="str">
-        <v>892452</v>
-      </c>
-      <c r="H85" t="str">
+      <c r="E95" t="str">
+        <v>17609319</v>
+      </c>
+      <c r="F95" t="str">
+        <v>892477</v>
+      </c>
+      <c r="H95" t="str">
         <v>3262</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85" t="str">
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95" t="str">
         <v>2022-01</v>
       </c>
-      <c r="K85">
+      <c r="K95">
         <v>17</v>
       </c>
-      <c r="L85" t="str">
+      <c r="L95" t="str">
         <v>Foot Mood</v>
       </c>
-      <c r="M85" t="str">
+      <c r="M95" t="str">
         <v>UCuYUOEXwUKBtiE1pNoB40PA</v>
       </c>
-      <c r="N85" t="str">
+      <c r="N95" t="str">
         <v>10000000</v>
       </c>
-      <c r="O85" t="str">
+      <c r="O95" t="str">
         <v>1186</v>
       </c>
-      <c r="P85">
+      <c r="P95">
         <v>2</v>
       </c>
-      <c r="Q85" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R85" t="str">
+      <c r="Q95" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R95" t="str">
         <v>https://www.youtube.com/watch?v=tDHxll7o5gA</v>
       </c>
-      <c r="S85" t="str">
+      <c r="S95" t="str">
         <v>https://i.ytimg.com/vi/tDHxll7o5gA/hqdefault.jpg</v>
       </c>
-      <c r="T85" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="86" xml:space="preserve">
-      <c r="A86" t="str">
+      <c r="T95" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
+      <c r="A96" t="str">
         <v>The coldest walk in football history 🥶🇦🇷</v>
       </c>
-      <c r="B86" t="str" xml:space="preserve">
+      <c r="B96" t="str" xml:space="preserve">
         <v xml:space="preserve">shorts #football #footballedit #shortsvideo 
 Follow me if you enjoy the Content ❤️</v>
       </c>
-      <c r="D86" t="str">
+      <c r="D96" t="str">
         <v>People &amp; Blogs</v>
       </c>
-      <c r="E86" t="str">
-        <v>17425724</v>
-      </c>
-      <c r="F86" t="str">
-        <v>1002597</v>
-      </c>
-      <c r="H86" t="str">
+      <c r="E96" t="str">
+        <v>17425836</v>
+      </c>
+      <c r="F96" t="str">
+        <v>1002599</v>
+      </c>
+      <c r="H96" t="str">
         <v>14405</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" t="str">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" t="str">
         <v>2023-02</v>
       </c>
-      <c r="K86">
+      <c r="K96">
         <v>58</v>
       </c>
-      <c r="L86" t="str">
+      <c r="L96" t="str">
         <v>RonnyKL7</v>
       </c>
-      <c r="M86" t="str">
+      <c r="M96" t="str">
         <v>UChjG1JOIgzW8tzugHnim0pw</v>
       </c>
-      <c r="N86" t="str">
+      <c r="N96" t="str">
         <v>1560000</v>
       </c>
-      <c r="O86" t="str">
+      <c r="O96" t="str">
         <v>762</v>
       </c>
-      <c r="P86">
+      <c r="P96">
         <v>10</v>
       </c>
-      <c r="Q86" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R86" t="str">
+      <c r="Q96" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R96" t="str">
         <v>https://www.youtube.com/watch?v=4iQ74zkSQCc</v>
       </c>
-      <c r="S86" t="str">
+      <c r="S96" t="str">
         <v>https://i.ytimg.com/vi/4iQ74zkSQCc/hqdefault.jpg</v>
       </c>
-      <c r="T86" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="87" xml:space="preserve">
-      <c r="A87" t="str">
+      <c r="T96" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
+      <c r="A97" t="str">
         <v>RECREATING VIRAL FOOTBALL MOMENTS !</v>
       </c>
-      <c r="B87" t="str" xml:space="preserve">
+      <c r="B97" t="str" xml:space="preserve">
         <v xml:space="preserve">In this video I recreated some of the most Insane Viral football videos!
 Follow me on Instagram! : https://www.instagram.com/akkamist/
 Don't forget to Like, Comment, Subscribe and make sure to have the Bell on! 
 In this video I recreated different viral moments from professional football players like Neymar Jr from Paris Saint Germain but also famous social media stars like Billy Wingrove from F2Freestylers. 
 You might also have seen some of my other videos where I recreate funny and viral videos from Lionel Messi, Cristiano Ronaldo, Mbappé, Paul Pogba and many more!</v>
       </c>
-      <c r="D87" t="str">
+      <c r="D97" t="str">
         <v>Unknown</v>
       </c>
-      <c r="E87" t="str">
+      <c r="E97" t="str">
         <v>17327995</v>
       </c>
-      <c r="F87" t="str">
+      <c r="F97" t="str">
         <v>128687</v>
       </c>
-      <c r="H87" t="str">
+      <c r="H97" t="str">
         <v>662</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87" t="str">
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" t="str">
         <v>2021-07</v>
       </c>
-      <c r="K87">
+      <c r="K97">
         <v>171</v>
       </c>
-      <c r="L87" t="str">
+      <c r="L97" t="str">
         <v>Joris</v>
       </c>
-      <c r="M87" t="str">
+      <c r="M97" t="str">
         <v>UCkCcaU2ScGiGUT5DFQy57sA</v>
       </c>
-      <c r="N87" t="str">
+      <c r="N97" t="str">
         <v>3680000</v>
       </c>
-      <c r="O87" t="str">
+      <c r="O97" t="str">
         <v>499</v>
       </c>
-      <c r="P87">
+      <c r="P97">
         <v>10</v>
       </c>
-      <c r="Q87" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R87" t="str">
+      <c r="Q97" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R97" t="str">
         <v>https://www.youtube.com/watch?v=TF9zEStBhTI</v>
       </c>
-      <c r="S87" t="str">
+      <c r="S97" t="str">
         <v>https://i.ytimg.com/vi/TF9zEStBhTI/hqdefault.jpg</v>
       </c>
-      <c r="T87" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="str">
+      <c r="T97" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
         <v>They Made Football Famous 😌</v>
       </c>
-      <c r="B88" t="str">
+      <c r="B98" t="str">
         <v/>
       </c>
-      <c r="D88" t="str">
+      <c r="D98" t="str">
         <v>People &amp; Blogs</v>
       </c>
-      <c r="E88" t="str">
-        <v>17532848</v>
-      </c>
-      <c r="F88" t="str">
-        <v>508805</v>
-      </c>
-      <c r="H88" t="str">
-        <v>4352</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" t="str">
+      <c r="E98" t="str">
+        <v>17536172</v>
+      </c>
+      <c r="F98" t="str">
+        <v>508848</v>
+      </c>
+      <c r="H98" t="str">
+        <v>4353</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="str">
         <v>2024-08</v>
       </c>
-      <c r="K88">
+      <c r="K98">
         <v>45</v>
       </c>
-      <c r="L88" t="str">
+      <c r="L98" t="str">
         <v>Foot Mood</v>
       </c>
-      <c r="M88" t="str">
+      <c r="M98" t="str">
         <v>UCuYUOEXwUKBtiE1pNoB40PA</v>
       </c>
-      <c r="N88" t="str">
+      <c r="N98" t="str">
         <v>10000000</v>
       </c>
-      <c r="O88" t="str">
+      <c r="O98" t="str">
         <v>1186</v>
       </c>
-      <c r="P88">
+      <c r="P98">
         <v>2</v>
       </c>
-      <c r="Q88" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R88" t="str">
+      <c r="Q98" t="str">
+        <v>Video</v>
+      </c>
+      <c r="R98" t="str">
         <v>https://www.youtube.com/watch?v=tcaniNZ3bnA</v>
       </c>
-      <c r="S88" t="str">
+      <c r="S98" t="str">
         <v>https://i.ytimg.com/vi/tcaniNZ3bnA/hqdefault.jpg</v>
       </c>
-      <c r="T88" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="89" xml:space="preserve">
-      <c r="A89" t="str">
+      <c r="T98" t="str">
+        <v>US</v>
+      </c>
+    </row>
+    <row r="99" xml:space="preserve">
+      <c r="A99" t="str">
         <v>Impossible Moments in Football</v>
       </c>
-      <c r="B89" t="str" xml:space="preserve">
+      <c r="B99" t="str" xml:space="preserve">
         <v xml:space="preserve">👍 50.000 LIKES ON " Impossible Moments "? 
 🎧 - Nbhd Nick - Trenches ----- https://youtu.be/HDYTV_gzgJs
 🎧 - Ooyy - Kenji ----- https://youtu.be/T_lWXc2sako
 🎧 - Jules Gaia - Glitz At The Ritz ----- https://youtu.be/UB3OoFyDqYE
 #ImpossibleMoments #Ronaldo #Football #Futbol #soccer90v</v>
       </c>
-      <c r="D89" t="str">
-        <v>Sports</v>
-      </c>
-      <c r="E89" t="str">
-        <v>17225925</v>
-      </c>
-      <c r="F89" t="str">
-        <v>55973</v>
-      </c>
-      <c r="H89" t="str">
-        <v>634</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="str">
-        <v>2022-11</v>
-      </c>
-      <c r="K89">
-        <v>465</v>
-      </c>
-      <c r="L89" t="str">
-        <v>Soccer90v</v>
-      </c>
-      <c r="M89" t="str">
-        <v>UCj4OE3L5OVEphzpTRmGTtAQ</v>
-      </c>
-      <c r="N89" t="str">
-        <v>368000</v>
-      </c>
-      <c r="O89" t="str">
-        <v>72</v>
-      </c>
-      <c r="P89">
-        <v>6</v>
-      </c>
-      <c r="Q89" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R89" t="str">
-        <v>https://www.youtube.com/watch?v=1oGyg0_XmyQ</v>
-      </c>
-      <c r="S89" t="str">
-        <v>https://i.ytimg.com/vi/1oGyg0_XmyQ/hqdefault.jpg</v>
-      </c>
-      <c r="T89" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>Revenge Moments in Football (Pt.2) 😈</v>
-      </c>
-      <c r="B90" t="str">
-        <v/>
-      </c>
-      <c r="D90" t="str">
-        <v>Sports</v>
-      </c>
-      <c r="E90" t="str">
-        <v>17220161</v>
-      </c>
-      <c r="F90" t="str">
-        <v>908968</v>
-      </c>
-      <c r="H90" t="str">
-        <v>2668</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90" t="str">
-        <v>2023-05</v>
-      </c>
-      <c r="K90">
-        <v>59</v>
-      </c>
-      <c r="L90" t="str">
-        <v>Bsm Edits 20</v>
-      </c>
-      <c r="M90" t="str">
-        <v>UC86mbDclXQeljk975_KZpXg</v>
-      </c>
-      <c r="N90" t="str">
-        <v>4100000</v>
-      </c>
-      <c r="O90" t="str">
-        <v>143</v>
-      </c>
-      <c r="P90">
-        <v>5</v>
-      </c>
-      <c r="Q90" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R90" t="str">
-        <v>https://www.youtube.com/watch?v=B2bdqayrGoQ</v>
-      </c>
-      <c r="S90" t="str">
-        <v>https://i.ytimg.com/vi/B2bdqayrGoQ/hqdefault.jpg</v>
-      </c>
-      <c r="T90" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="91" xml:space="preserve">
-      <c r="A91" t="str">
-        <v>Strange Moments in Football</v>
-      </c>
-      <c r="B91" t="str" xml:space="preserve">
-        <v xml:space="preserve">👍 50.000 LIKES ON " Strange Moments "? 
-🎧 - DJ SANZ-Bass Acordion ---- https://youtu.be/hC_f0C92XMA
-🎧 - Tobu &amp; Wholm - Motion ---- https://youtu.be/2wk7ssph8XA
-#football #messi #futbol #ronaldo #monofootball</v>
-      </c>
-      <c r="D91" t="str">
-        <v>Sports</v>
-      </c>
-      <c r="E91" t="str">
-        <v>16906898</v>
-      </c>
-      <c r="F91" t="str">
-        <v>82213</v>
-      </c>
-      <c r="H91" t="str">
-        <v>679</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" t="str">
-        <v>2022-05</v>
-      </c>
-      <c r="K91">
-        <v>429</v>
-      </c>
-      <c r="L91" t="str">
-        <v>MonoFootball</v>
-      </c>
-      <c r="M91" t="str">
-        <v>UCPUlfPzDPe1XeO-cWMl5HJg</v>
-      </c>
-      <c r="N91" t="str">
-        <v>401000</v>
-      </c>
-      <c r="O91" t="str">
-        <v>55</v>
-      </c>
-      <c r="P91">
-        <v>3</v>
-      </c>
-      <c r="Q91" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R91" t="str">
-        <v>https://www.youtube.com/watch?v=lrh_p4Xfbpk</v>
-      </c>
-      <c r="S91" t="str">
-        <v>https://i.ytimg.com/vi/lrh_p4Xfbpk/hqdefault.jpg</v>
-      </c>
-      <c r="T91" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="92" xml:space="preserve">
-      <c r="A92" t="str">
-        <v>Roberto Carlos Ad🔥🥶 #football</v>
-      </c>
-      <c r="B92" t="str" xml:space="preserve">
-        <v xml:space="preserve">Please Support And Like My Video
-#shorts #short #leomessi #cr7 #ronaldo #ronaldovsmessishortvideo #realmadrid #barcelona #football #foryou #tiktok
-#viral #tiktokvideo #international #subscribe #messi #psg</v>
-      </c>
-      <c r="D92" t="str">
-        <v>People &amp; Blogs</v>
-      </c>
-      <c r="E92" t="str">
-        <v>16862230</v>
-      </c>
-      <c r="F92" t="str">
-        <v>843220</v>
-      </c>
-      <c r="H92" t="str">
-        <v>2470</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92" t="str">
-        <v>2022-10</v>
-      </c>
-      <c r="K92">
-        <v>31</v>
-      </c>
-      <c r="L92" t="str">
-        <v>KhaXEditz™</v>
-      </c>
-      <c r="M92" t="str">
-        <v>UCI-0sCK-R2PQ8GcCeNUGL8Q</v>
-      </c>
-      <c r="N92" t="str">
-        <v>117000</v>
-      </c>
-      <c r="O92" t="str">
-        <v>222</v>
-      </c>
-      <c r="P92">
-        <v>2</v>
-      </c>
-      <c r="Q92" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R92" t="str">
-        <v>https://www.youtube.com/watch?v=GKBuHMVf8EE</v>
-      </c>
-      <c r="S92" t="str">
-        <v>https://i.ytimg.com/vi/GKBuHMVf8EE/hqdefault.jpg</v>
-      </c>
-      <c r="T92" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="93" xml:space="preserve">
-      <c r="A93" t="str">
-        <v>Good luck stopping this kid 💪🔥 #shorts</v>
-      </c>
-      <c r="B93" t="str" xml:space="preserve">
-        <v xml:space="preserve">(Via darrylcumminsfilms/tt)
-#football #youthfootball #youthsports #highschoolsports #highschoolfootball #prodigy #cantbestopped #elite #beastmode #footballstar</v>
-      </c>
-      <c r="D93" t="str">
-        <v>Sports</v>
-      </c>
-      <c r="E93" t="str">
-        <v>16614234</v>
-      </c>
-      <c r="F93" t="str">
-        <v>274321</v>
-      </c>
-      <c r="H93" t="str">
-        <v>3745</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" t="str">
-        <v>2023-02</v>
-      </c>
-      <c r="K93">
-        <v>22</v>
-      </c>
-      <c r="L93" t="str">
-        <v>MaxPreps</v>
-      </c>
-      <c r="M93" t="str">
-        <v>UCX5qMbq8Y9h9TOdFhKUhkrw</v>
-      </c>
-      <c r="N93" t="str">
-        <v>3050000</v>
-      </c>
-      <c r="O93" t="str">
-        <v>12607</v>
-      </c>
-      <c r="P93">
-        <v>17</v>
-      </c>
-      <c r="Q93" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R93" t="str">
-        <v>https://www.youtube.com/watch?v=zUzb_rU5CqE</v>
-      </c>
-      <c r="S93" t="str">
-        <v>https://i.ytimg.com/vi/zUzb_rU5CqE/hqdefault.jpg</v>
-      </c>
-      <c r="T93" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="94" xml:space="preserve">
-      <c r="A94" t="str">
-        <v>Funny Open Goal Misses in Football</v>
-      </c>
-      <c r="B94" t="str" xml:space="preserve">
-        <v xml:space="preserve">Funny open goal misses in football. Ibrahimovic, Lewandowski, Salah, Ronaldo, Lukaku, Agüero, Griezmann, De Bruyne and more in video!
-🎶NYOR - Collapse [UXN Release]
-🎶Elektronomia - Summersong 2020
-C'mon guys subscribe!😍</v>
-      </c>
-      <c r="D94" t="str">
-        <v>Sports</v>
-      </c>
-      <c r="E94" t="str">
-        <v>16475536</v>
-      </c>
-      <c r="F94" t="str">
-        <v>147488</v>
-      </c>
-      <c r="H94" t="str">
-        <v>2280</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="str">
-        <v>2020-07</v>
-      </c>
-      <c r="K94">
-        <v>440</v>
-      </c>
-      <c r="L94" t="str">
-        <v>TKHD</v>
-      </c>
-      <c r="M94" t="str">
-        <v>UCSpvzqzfRAJGAWcuYjxWRbw</v>
-      </c>
-      <c r="N94" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="O94" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="P94" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="Q94" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R94" t="str">
-        <v>https://www.youtube.com/watch?v=WJ_VhCSZQWQ</v>
-      </c>
-      <c r="S94" t="str">
-        <v>https://i.ytimg.com/vi/WJ_VhCSZQWQ/hqdefault.jpg</v>
-      </c>
-      <c r="T94" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="95" xml:space="preserve">
-      <c r="A95" t="str">
-        <v>Funny Own Goals in Football</v>
-      </c>
-      <c r="B95" t="str" xml:space="preserve">
-        <v xml:space="preserve">Funny own goals in football! Marcelo, Lukaku, Diego Costa, Messi and more in video!
-🎶LBLVNC &amp; Godmode - Power! [NCS Release]
-🎶PIKASONIC - Nation
-C'mon guys subscribe!😍</v>
-      </c>
-      <c r="D95" t="str">
-        <v>Sports</v>
-      </c>
-      <c r="E95" t="str">
-        <v>16247849</v>
-      </c>
-      <c r="F95" t="str">
-        <v>165395</v>
-      </c>
-      <c r="H95" t="str">
-        <v>2365</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95" t="str">
-        <v>2021-07</v>
-      </c>
-      <c r="K95">
-        <v>571</v>
-      </c>
-      <c r="L95" t="str">
-        <v>TKHD</v>
-      </c>
-      <c r="M95" t="str">
-        <v>UCSpvzqzfRAJGAWcuYjxWRbw</v>
-      </c>
-      <c r="N95" t="str">
-        <v>3460000</v>
-      </c>
-      <c r="O95" t="str">
-        <v>78</v>
-      </c>
-      <c r="P95">
-        <v>7</v>
-      </c>
-      <c r="Q95" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R95" t="str">
-        <v>https://www.youtube.com/watch?v=gDgFXMKA6QU</v>
-      </c>
-      <c r="S95" t="str">
-        <v>https://i.ytimg.com/vi/gDgFXMKA6QU/hqdefault.jpg</v>
-      </c>
-      <c r="T95" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>First American Football</v>
-      </c>
-      <c r="B96" t="str">
-        <v>#shorts</v>
-      </c>
-      <c r="D96" t="str">
-        <v>Unknown</v>
-      </c>
-      <c r="E96" t="str">
-        <v>15920642</v>
-      </c>
-      <c r="F96" t="str">
-        <v>629466</v>
-      </c>
-      <c r="H96" t="str">
-        <v>1819</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96" t="str">
-        <v>2023-02</v>
-      </c>
-      <c r="K96">
-        <v>38</v>
-      </c>
-      <c r="L96" t="str">
-        <v>Dexton Crutchfield</v>
-      </c>
-      <c r="M96" t="str">
-        <v>UCpnufZjftg7hh44aulmXxgA</v>
-      </c>
-      <c r="N96" t="str">
-        <v>1990000</v>
-      </c>
-      <c r="O96" t="str">
-        <v>166</v>
-      </c>
-      <c r="P96">
-        <v>7</v>
-      </c>
-      <c r="Q96" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R96" t="str">
-        <v>https://www.youtube.com/watch?v=MWGO57bKTlk</v>
-      </c>
-      <c r="S96" t="str">
-        <v>https://i.ytimg.com/vi/MWGO57bKTlk/hqdefault.jpg</v>
-      </c>
-      <c r="T96" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>The Coldest Backflips Celebrations 🥶</v>
-      </c>
-      <c r="B97" t="str">
-        <v/>
-      </c>
-      <c r="D97" t="str">
-        <v>People &amp; Blogs</v>
-      </c>
-      <c r="E97" t="str">
-        <v>15725253</v>
-      </c>
-      <c r="F97" t="str">
-        <v>639144</v>
-      </c>
-      <c r="H97" t="str">
-        <v>3810</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97" t="str">
-        <v>2024-08</v>
-      </c>
-      <c r="K97">
-        <v>42</v>
-      </c>
-      <c r="L97" t="str">
-        <v>best futball</v>
-      </c>
-      <c r="M97" t="str">
-        <v>UCLvHAXCOEBW7EmvkiXifQ5A</v>
-      </c>
-      <c r="N97" t="str">
-        <v>3760000</v>
-      </c>
-      <c r="O97" t="str">
-        <v>1283</v>
-      </c>
-      <c r="P97">
-        <v>2</v>
-      </c>
-      <c r="Q97" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R97" t="str">
-        <v>https://www.youtube.com/watch?v=ToPTmmOEcsA</v>
-      </c>
-      <c r="S97" t="str">
-        <v>https://i.ytimg.com/vi/ToPTmmOEcsA/hqdefault.jpg</v>
-      </c>
-      <c r="T97" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="98" xml:space="preserve">
-      <c r="A98" t="str">
-        <v>7-Year-Old Football PRODIGY | Blaze The Great Highlights</v>
-      </c>
-      <c r="B98" t="str" xml:space="preserve">
-        <v xml:space="preserve">This 7-year-old football phenom has the attention of pro football players, LeBron James, and MORE! He's a SUPERSTAR in the making.
-COMMENT with your favorite running back ever!
-MORE No Days Off
-→ 11-Year-Old Boxing Prodigy: http://bit.ly/2JcvoKp
-→ World's Fastest BMX Rider: https://whistle.video/FastestBMXRider
-→ 7-Year-Old One Armed Golfer: https://whistle.video/2vM1mEo
-→ 15-Year-Old Bryce Harper: http://whistle.video/2MVFs8d
-→ Homeless Shelter to Jr. Olympics: http://bit.ly/NoDaysOffS2E1
-→ Fastest Cup Stacking Ever: http://bit.ly/2IidjH3
-→ Hitting a 250mph Fastball: http://bit.ly/2w69a7g
-→ 11-Year-Old With A College Football Scholarship: http://bit.ly/2r9WCH4
-→ First Woman To Play Pro Baseball: http://bit.ly/2Fu0QOt
-→ 8-Year-Old Football Star: http://bit.ly/2HHk1dl
-SUBSCRIBE to Whistle Sports and check back to see more awesome sports videos in 2018! - http://goo.gl/y2JNsG
-Still want more Whistle Sports? Follow us on:
-FACEBOOK: http://facebook.com/whistlesports
-INSTAGRAM: http://instagram.com/whistlesports
-TWITTER: https://twitter.com/whistlesports
-SNAPCHAT: "whistlesports"
-WHAT IS WHISTLE SPORTS?
-Whistle Sports brings you the realest and most unexpected sports content led by our network of unbelievable creators. Visit us at http://whistlesports.com/ and COMMENT below with what you want to see next! #Whistle #Sports
-Check out ALL our Whistle Merch! https://whistle.video/WhistleStoreYT</v>
-      </c>
-      <c r="D98" t="str">
-        <v>Sports</v>
-      </c>
-      <c r="E98" t="str">
-        <v>15540135</v>
-      </c>
-      <c r="F98" t="str">
-        <v>168422</v>
-      </c>
-      <c r="H98" t="str">
-        <v>11352</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98" t="str">
-        <v>2018-09</v>
-      </c>
-      <c r="K98">
-        <v>443</v>
-      </c>
-      <c r="L98" t="str">
-        <v>Whistle</v>
-      </c>
-      <c r="M98" t="str">
-        <v>UCZFhj_r-MjoPCFVUo3E1ZRg</v>
-      </c>
-      <c r="N98" t="str">
-        <v>3160000</v>
-      </c>
-      <c r="O98" t="str">
-        <v>3697</v>
-      </c>
-      <c r="P98">
-        <v>18</v>
-      </c>
-      <c r="Q98" t="str">
-        <v>Video</v>
-      </c>
-      <c r="R98" t="str">
-        <v>https://www.youtube.com/watch?v=lsYgM3Cv1iI</v>
-      </c>
-      <c r="S98" t="str">
-        <v>https://i.ytimg.com/vi/lsYgM3Cv1iI/hqdefault.jpg</v>
-      </c>
-      <c r="T98" t="str">
-        <v>US</v>
-      </c>
-    </row>
-    <row r="99" xml:space="preserve">
-      <c r="A99" t="str">
-        <v>Strange Moments in Football</v>
-      </c>
-      <c r="B99" t="str" xml:space="preserve">
-        <v xml:space="preserve">👍 30.000 LIKES ON " Strange Moments "? 
-🎧 - DJ SANZ-Bass Acordion ----- https://youtu.be/hC_f0C92XMA
-🎧 - Ahxello - Frisbee ----- https://youtu.be/KyArf-0_bjc
-#StrangeMoments #Ronaldo #Football #Futbol #soccer90v</v>
-      </c>
       <c r="D99" t="str">
         <v>Sports</v>
       </c>
       <c r="E99" t="str">
-        <v>15529082</v>
+        <v>17225925</v>
       </c>
       <c r="F99" t="str">
-        <v>30052</v>
+        <v>55973</v>
       </c>
       <c r="H99" t="str">
-        <v>431</v>
+        <v>634</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="str">
-        <v>2022-03</v>
+        <v>2022-11</v>
       </c>
       <c r="K99">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="L99" t="str">
         <v>Soccer90v</v>
@@ -6509,68 +6484,66 @@
         <v>Video</v>
       </c>
       <c r="R99" t="str">
-        <v>https://www.youtube.com/watch?v=QiODlf2STJg</v>
+        <v>https://www.youtube.com/watch?v=1oGyg0_XmyQ</v>
       </c>
       <c r="S99" t="str">
-        <v>https://i.ytimg.com/vi/QiODlf2STJg/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/1oGyg0_XmyQ/hqdefault.jpg</v>
       </c>
       <c r="T99" t="str">
         <v>US</v>
       </c>
     </row>
-    <row r="100" xml:space="preserve">
+    <row r="100">
       <c r="A100" t="str">
-        <v>Roberto Carlos Ad🔥🥶 #football</v>
-      </c>
-      <c r="B100" t="str" xml:space="preserve">
-        <v xml:space="preserve">Please Support And Like My Video
-#shorts #short #leomessi #cr7 #ronaldo #ronaldovsmessishortvideo #realmadrid #barcelona #football #foryou #tiktok
-#viral #tiktokvideo #international #subscribe #messi #psg</v>
+        <v>Revenge Moments in Football (Pt.2) 😈</v>
+      </c>
+      <c r="B100" t="str">
+        <v/>
       </c>
       <c r="D100" t="str">
-        <v>People &amp; Blogs</v>
+        <v>Sports</v>
       </c>
       <c r="E100" t="str">
-        <v>16862230</v>
+        <v>17220204</v>
       </c>
       <c r="F100" t="str">
-        <v>843220</v>
+        <v>908971</v>
       </c>
       <c r="H100" t="str">
-        <v>2470</v>
+        <v>2668</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="str">
-        <v>2022-10</v>
+        <v>2023-05</v>
       </c>
       <c r="K100">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="L100" t="str">
-        <v>KhaXEditz™</v>
+        <v>Bsm Edits 20</v>
       </c>
       <c r="M100" t="str">
-        <v>UCI-0sCK-R2PQ8GcCeNUGL8Q</v>
+        <v>UC86mbDclXQeljk975_KZpXg</v>
       </c>
       <c r="N100" t="str">
-        <v>117000</v>
+        <v>4100000</v>
       </c>
       <c r="O100" t="str">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c r="P100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q100" t="str">
         <v>Video</v>
       </c>
       <c r="R100" t="str">
-        <v>https://www.youtube.com/watch?v=GKBuHMVf8EE</v>
+        <v>https://www.youtube.com/watch?v=B2bdqayrGoQ</v>
       </c>
       <c r="S100" t="str">
-        <v>https://i.ytimg.com/vi/GKBuHMVf8EE/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/B2bdqayrGoQ/hqdefault.jpg</v>
       </c>
       <c r="T100" t="str">
         <v>US</v>
@@ -6578,56 +6551,82 @@
     </row>
     <row r="101" xml:space="preserve">
       <c r="A101" t="str">
-        <v>Good luck stopping this kid 💪🔥 #shorts</v>
+        <v>Really Bad Day in Football 🤯</v>
       </c>
       <c r="B101" t="str" xml:space="preserve">
-        <v xml:space="preserve">(Via darrylcumminsfilms/tt)
-#football #youthfootball #youthsports #highschoolsports #highschoolfootball #prodigy #cantbestopped #elite #beastmode #footballstar</v>
+        <v xml:space="preserve">Really Bad Day in Football 🤯
+NEW ONE: https://youtu.be/dHl5y2eip98
+Part 3: https://youtu.be/g5WW9gDtNVM
+Part 2: https://youtu.be/SI1E-k_R8ik
+💬 Did you enjoy today's video? tell me all about it in the comments!
+✨  If you like this video, consider subscribing to Nezzer using this Link! ⤵️
+http://bit.ly/Nezzer
+Until next time, football friends!
+********************
+⚽️ Welcome to the Nezzer – A channel dedicated to the love of the beautiful game of football. 
+Nezzer brings you excellent football compilations of goals, wins, historical moments, and more. Catch highlight reels and skill videos from La Liga, Premier League, Copa America, UEFA, and more. 
+➡️ On this channel, you’ll always be entertained by the world’s best players, teams, and clubs performing unbelievable and jaw-dropping skills on the football pitch.
+There are compilations of goals, wins, historical moments, players, amazing reactions, and so much more!
+➡️ I always feature videos from the best football leagues and tournaments in the world: La Liga, Premier League, Copa America, UEFA, and others 🏆
+Be sure to also click on the bell icon so every time I post a new video, you’ll automatically know 🔔
+🎬 Also, don’t forget to subscribe to our channel for your regular dose of football.
+********************
+❇️ Connect with Nezzer on social media:
+Instagram ▶️ https://www.instagram.com/nezzerhd/ 
+Twitter ▶️ https://twitter.com/nezzerhd 
+Facebook ▶️ https://www.facebook.com/nezzerhd 
+📧 Contact us anytime: keyabedi@gmail.com
+********************
+🔊 All music: 
+https://www.epidemicsound.com/referral/r1u551/ 
+********************
+#Football #Nezzer #FootballCompilation 
+© Nezzer 2021</v>
       </c>
       <c r="D101" t="str">
         <v>Sports</v>
       </c>
       <c r="E101" t="str">
-        <v>16614234</v>
+        <v>17099233</v>
       </c>
       <c r="F101" t="str">
-        <v>274321</v>
+        <v>85240</v>
       </c>
       <c r="H101" t="str">
-        <v>3745</v>
+        <v>952</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="str">
-        <v>2023-02</v>
+        <v>2021-12</v>
       </c>
       <c r="K101">
-        <v>22</v>
+        <v>597</v>
       </c>
       <c r="L101" t="str">
-        <v>MaxPreps</v>
+        <v>Nezzer</v>
       </c>
       <c r="M101" t="str">
-        <v>UCX5qMbq8Y9h9TOdFhKUhkrw</v>
+        <v>UC7Wu2g9wxOUhDwi5dgo9nww</v>
       </c>
       <c r="N101" t="str">
-        <v>3050000</v>
+        <v>282000</v>
       </c>
       <c r="O101" t="str">
-        <v>12607</v>
+        <v>311</v>
       </c>
       <c r="P101">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Q101" t="str">
         <v>Video</v>
       </c>
       <c r="R101" t="str">
-        <v>https://www.youtube.com/watch?v=zUzb_rU5CqE</v>
+        <v>https://www.youtube.com/watch?v=5-Gb15B9uEY</v>
       </c>
       <c r="S101" t="str">
-        <v>https://i.ytimg.com/vi/zUzb_rU5CqE/hqdefault.jpg</v>
+        <v>https://i.ytimg.com/vi/5-Gb15B9uEY/hqdefault.jpg</v>
       </c>
       <c r="T101" t="str">
         <v>US</v>
